--- a/observers_data_input.xlsx
+++ b/observers_data_input.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F208D-55F8-49FA-A045-8751C9D75803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388EB3E5-7100-4EBA-8527-57EE1E5533D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="الجدول" sheetId="7" r:id="rId2"/>
-    <sheet name="days" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="144">
   <si>
     <t>nameNN</t>
   </si>
@@ -132,9 +131,6 @@
     <t>التاريخ</t>
   </si>
   <si>
-    <t>20/11/2020</t>
-  </si>
-  <si>
     <t>21/11/2020</t>
   </si>
   <si>
@@ -145,21 +141,6 @@
   </si>
   <si>
     <t>24/11/2020</t>
-  </si>
-  <si>
-    <t>25/11/2020</t>
-  </si>
-  <si>
-    <t>عدد الملاحظين</t>
-  </si>
-  <si>
-    <t>عدد المراقبين</t>
-  </si>
-  <si>
-    <t>عدد رؤساء اللجان</t>
-  </si>
-  <si>
-    <t>الفرع</t>
   </si>
   <si>
     <t>email</t>
@@ -806,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -846,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -866,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -886,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -906,7 +887,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -926,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -946,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -966,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -986,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1006,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -1026,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1046,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>16</v>
@@ -1066,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -1086,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>16</v>
@@ -1106,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>16</v>
@@ -1126,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1146,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1166,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>16</v>
@@ -1186,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -1206,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1226,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -1246,7 +1227,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -1266,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23">
         <v>16</v>
@@ -1274,7 +1255,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1286,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -1294,7 +1275,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1306,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>16</v>
@@ -1314,7 +1295,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1326,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F26">
         <v>16</v>
@@ -1334,7 +1315,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1346,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -1354,7 +1335,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1366,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>16</v>
@@ -1374,7 +1355,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1386,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F29">
         <v>16</v>
@@ -1394,7 +1375,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -1406,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1414,7 +1395,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -1426,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -1434,7 +1415,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -1446,7 +1427,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -1454,7 +1435,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -1466,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -1474,7 +1455,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1486,7 +1467,7 @@
         <v>22</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F34">
         <v>16</v>
@@ -1494,7 +1475,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1506,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35">
         <v>15</v>
@@ -1514,7 +1495,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1526,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36">
         <v>16</v>
@@ -1534,7 +1515,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1546,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37">
         <v>16</v>
@@ -1554,7 +1535,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1566,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F38">
         <v>15</v>
@@ -1574,7 +1555,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1586,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F39">
         <v>16</v>
@@ -1594,7 +1575,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1606,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F40">
         <v>16</v>
@@ -1614,7 +1595,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1626,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -1634,7 +1615,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1646,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -1654,7 +1635,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -1666,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -1674,7 +1655,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -1686,7 +1667,7 @@
         <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -1694,7 +1675,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1706,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F45">
         <v>16</v>
@@ -1714,7 +1695,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1726,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F46">
         <v>15</v>
@@ -1734,7 +1715,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1746,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F47">
         <v>16</v>
@@ -1754,7 +1735,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1766,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F48">
         <v>16</v>
@@ -1774,7 +1755,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1786,7 +1767,7 @@
         <v>22</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F49">
         <v>15</v>
@@ -1794,7 +1775,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1806,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F50">
         <v>16</v>
@@ -1814,7 +1795,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1826,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F51">
         <v>16</v>
@@ -1834,7 +1815,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -1846,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -1854,7 +1835,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -1866,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -1874,7 +1855,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -1886,7 +1867,7 @@
         <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -1894,7 +1875,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -1906,7 +1887,7 @@
         <v>22</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -1914,7 +1895,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1926,7 +1907,7 @@
         <v>22</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F56">
         <v>16</v>
@@ -1934,7 +1915,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -1946,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F57">
         <v>15</v>
@@ -1954,7 +1935,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1966,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F58">
         <v>16</v>
@@ -1974,7 +1955,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1986,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F59">
         <v>16</v>
@@ -1994,7 +1975,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -2006,7 +1987,7 @@
         <v>22</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F60">
         <v>15</v>
@@ -2014,7 +1995,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -2026,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F61">
         <v>16</v>
@@ -2034,7 +2015,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2046,7 +2027,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F62">
         <v>16</v>
@@ -2054,7 +2035,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2066,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F63">
         <v>8</v>
@@ -2074,7 +2055,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2086,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2094,7 +2075,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
@@ -2106,7 +2087,7 @@
         <v>22</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F65">
         <v>8</v>
@@ -2114,7 +2095,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
@@ -2126,7 +2107,7 @@
         <v>22</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -2134,7 +2115,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2146,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F67">
         <v>16</v>
@@ -2154,7 +2135,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -2166,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F68">
         <v>15</v>
@@ -2174,7 +2155,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2186,7 +2167,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F69">
         <v>16</v>
@@ -2194,7 +2175,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2206,7 +2187,7 @@
         <v>22</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F70">
         <v>16</v>
@@ -2214,7 +2195,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2226,7 +2207,7 @@
         <v>22</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F71">
         <v>15</v>
@@ -2234,7 +2215,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2246,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F72">
         <v>16</v>
@@ -2254,7 +2235,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2266,7 +2247,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F73">
         <v>16</v>
@@ -2274,7 +2255,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
@@ -2286,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F74">
         <v>8</v>
@@ -2294,7 +2275,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -2306,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F75">
         <v>6</v>
@@ -2314,7 +2295,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -2326,7 +2307,7 @@
         <v>22</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -2334,7 +2315,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -2346,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F77">
         <v>6</v>
@@ -2354,7 +2335,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2366,7 +2347,7 @@
         <v>22</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F78">
         <v>16</v>
@@ -2374,7 +2355,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -2386,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F79">
         <v>15</v>
@@ -2394,7 +2375,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2406,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F80">
         <v>16</v>
@@ -2414,7 +2395,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2426,7 +2407,7 @@
         <v>22</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F81">
         <v>16</v>
@@ -2434,7 +2415,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -2446,7 +2427,7 @@
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F82">
         <v>15</v>
@@ -2454,7 +2435,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2466,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F83">
         <v>16</v>
@@ -2474,7 +2455,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2486,7 +2467,7 @@
         <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F84">
         <v>16</v>
@@ -2494,7 +2475,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2506,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F85">
         <v>8</v>
@@ -2514,7 +2495,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2526,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -2534,7 +2515,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
@@ -2546,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F87">
         <v>8</v>
@@ -2554,7 +2535,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
@@ -2566,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -2574,7 +2555,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2586,7 +2567,7 @@
         <v>22</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F89">
         <v>16</v>
@@ -2594,7 +2575,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2606,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F90">
         <v>15</v>
@@ -2614,7 +2595,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2626,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F91">
         <v>16</v>
@@ -2634,7 +2615,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -2646,7 +2627,7 @@
         <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F92">
         <v>16</v>
@@ -2654,7 +2635,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -2666,7 +2647,7 @@
         <v>22</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F93">
         <v>15</v>
@@ -2674,7 +2655,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -2686,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F94">
         <v>16</v>
@@ -2694,7 +2675,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2706,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F95">
         <v>16</v>
@@ -2714,7 +2695,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
@@ -2726,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F96">
         <v>8</v>
@@ -2734,7 +2715,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -2746,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F97">
         <v>6</v>
@@ -2754,7 +2735,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
         <v>17</v>
@@ -2766,7 +2747,7 @@
         <v>22</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F98">
         <v>8</v>
@@ -2774,7 +2755,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
@@ -2786,7 +2767,7 @@
         <v>22</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -2794,7 +2775,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2806,7 +2787,7 @@
         <v>22</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F100">
         <v>16</v>
@@ -2814,7 +2795,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2826,7 +2807,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F101">
         <v>15</v>
@@ -2834,7 +2815,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -2846,7 +2827,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F102">
         <v>16</v>
@@ -2854,7 +2835,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -2866,7 +2847,7 @@
         <v>22</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F103">
         <v>16</v>
@@ -2874,7 +2855,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2886,7 +2867,7 @@
         <v>22</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F104">
         <v>15</v>
@@ -2894,7 +2875,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2906,7 +2887,7 @@
         <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F105">
         <v>16</v>
@@ -2914,7 +2895,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -2926,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F106">
         <v>16</v>
@@ -2934,7 +2915,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2946,7 +2927,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F107">
         <v>8</v>
@@ -2954,7 +2935,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2966,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F108">
         <v>6</v>
@@ -2974,7 +2955,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
@@ -2986,7 +2967,7 @@
         <v>22</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F109">
         <v>8</v>
@@ -2994,7 +2975,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
@@ -3006,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F110">
         <v>6</v>
@@ -3014,7 +2995,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -3026,7 +3007,7 @@
         <v>22</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F111">
         <v>16</v>
@@ -3153,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903C3555-1D44-4D40-8B5F-3B3EF4DC90C1}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3167,89 +3148,89 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3272,227 +3253,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="32" width="12.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/observers_data_input.xlsx
+++ b/observers_data_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs-code\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E1D58-F32A-43FC-99FB-B8BC46F436FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4B22A-9F0C-41A6-85F4-DFCC975D2D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>ميكانيكا</t>
   </si>
   <si>
-    <t>خلفاوي</t>
-  </si>
-  <si>
     <t>M@a</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>vvvv</t>
+  </si>
+  <si>
+    <t>الخلفاوي</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="L220" sqref="L220"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,10 +886,10 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5">
         <v>15</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5">
         <v>16</v>
@@ -917,19 +917,19 @@
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5">
         <v>16</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -946,10 +946,10 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5">
         <v>15</v>
@@ -957,19 +957,19 @@
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5">
         <v>16</v>
@@ -977,19 +977,19 @@
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5">
         <v>16</v>
@@ -997,19 +997,19 @@
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5">
         <v>8</v>
@@ -1017,19 +1017,19 @@
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5">
         <v>6</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5">
         <v>8</v>
@@ -1057,19 +1057,19 @@
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5">
         <v>6</v>
@@ -1077,19 +1077,19 @@
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="5">
         <v>16</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1106,10 +1106,10 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
         <v>15</v>
@@ -1117,19 +1117,19 @@
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="5">
         <v>16</v>
@@ -1137,19 +1137,19 @@
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="5">
         <v>16</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1166,10 +1166,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="5">
         <v>15</v>
@@ -1177,19 +1177,19 @@
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="5">
         <v>16</v>
@@ -1197,19 +1197,19 @@
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="5">
         <v>16</v>
@@ -1217,19 +1217,19 @@
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="5">
         <v>8</v>
@@ -1237,19 +1237,19 @@
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="5">
         <v>6</v>
@@ -1257,19 +1257,19 @@
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="5">
         <v>8</v>
@@ -1277,19 +1277,19 @@
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="5">
         <v>6</v>
@@ -1297,19 +1297,19 @@
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="5">
         <v>16</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1326,10 +1326,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="5">
         <v>15</v>
@@ -1337,19 +1337,19 @@
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="5">
         <v>16</v>
@@ -1357,19 +1357,19 @@
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="5">
         <v>16</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1386,10 +1386,10 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="5">
         <v>15</v>
@@ -1397,19 +1397,19 @@
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="5">
         <v>16</v>
@@ -1417,19 +1417,19 @@
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="5">
         <v>16</v>
@@ -1437,19 +1437,19 @@
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="5">
         <v>8</v>
@@ -1457,19 +1457,19 @@
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="5">
         <v>6</v>
@@ -1477,19 +1477,19 @@
     </row>
     <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="5">
         <v>8</v>
@@ -1497,19 +1497,19 @@
     </row>
     <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="5">
         <v>6</v>
@@ -1517,19 +1517,19 @@
     </row>
     <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" s="5">
         <v>16</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -1546,10 +1546,10 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="5">
         <v>15</v>
@@ -1557,19 +1557,19 @@
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" s="5">
         <v>16</v>
@@ -1577,19 +1577,19 @@
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="5">
         <v>16</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -1606,10 +1606,10 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="5">
         <v>15</v>
@@ -1617,19 +1617,19 @@
     </row>
     <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" s="5">
         <v>16</v>
@@ -1637,19 +1637,19 @@
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" s="5">
         <v>16</v>
@@ -1657,19 +1657,19 @@
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41" s="5">
         <v>8</v>
@@ -1677,19 +1677,19 @@
     </row>
     <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="5">
         <v>6</v>
@@ -1697,19 +1697,19 @@
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="5">
         <v>8</v>
@@ -1717,19 +1717,19 @@
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" s="5">
         <v>6</v>
@@ -1737,19 +1737,19 @@
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" s="5">
         <v>16</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -1766,10 +1766,10 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" s="5">
         <v>15</v>
@@ -1777,19 +1777,19 @@
     </row>
     <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F47" s="5">
         <v>16</v>
@@ -1797,19 +1797,19 @@
     </row>
     <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48" s="5">
         <v>16</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -1826,10 +1826,10 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F49" s="5">
         <v>15</v>
@@ -1837,19 +1837,19 @@
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50" s="5">
         <v>16</v>
@@ -1857,19 +1857,19 @@
     </row>
     <row r="51" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" s="5">
         <v>16</v>
@@ -1877,19 +1877,19 @@
     </row>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F52" s="5">
         <v>8</v>
@@ -1897,19 +1897,19 @@
     </row>
     <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" s="5">
         <v>6</v>
@@ -1917,19 +1917,19 @@
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" s="5">
         <v>8</v>
@@ -1937,19 +1937,19 @@
     </row>
     <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55" s="5">
         <v>6</v>
@@ -1957,19 +1957,19 @@
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56" s="5">
         <v>16</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -1986,10 +1986,10 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F57" s="5">
         <v>15</v>
@@ -1997,19 +1997,19 @@
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F58" s="5">
         <v>16</v>
@@ -2017,19 +2017,19 @@
     </row>
     <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59" s="5">
         <v>16</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -2046,10 +2046,10 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" s="5">
         <v>15</v>
@@ -2057,19 +2057,19 @@
     </row>
     <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" s="5">
         <v>16</v>
@@ -2077,19 +2077,19 @@
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F62" s="5">
         <v>16</v>
@@ -2097,19 +2097,19 @@
     </row>
     <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63" s="5">
         <v>8</v>
@@ -2117,19 +2117,19 @@
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64" s="5">
         <v>6</v>
@@ -2137,19 +2137,19 @@
     </row>
     <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65" s="5">
         <v>8</v>
@@ -2157,19 +2157,19 @@
     </row>
     <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F66" s="5">
         <v>6</v>
@@ -2177,19 +2177,19 @@
     </row>
     <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F67" s="5">
         <v>16</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="68" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -2206,10 +2206,10 @@
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F68" s="5">
         <v>15</v>
@@ -2217,19 +2217,19 @@
     </row>
     <row r="69" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F69" s="5">
         <v>16</v>
@@ -2237,19 +2237,19 @@
     </row>
     <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70" s="5">
         <v>16</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="71" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -2266,10 +2266,10 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71" s="5">
         <v>15</v>
@@ -2277,19 +2277,19 @@
     </row>
     <row r="72" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F72" s="5">
         <v>16</v>
@@ -2297,19 +2297,19 @@
     </row>
     <row r="73" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F73" s="5">
         <v>16</v>
@@ -2317,19 +2317,19 @@
     </row>
     <row r="74" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74" s="5">
         <v>8</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75" s="5">
         <v>6</v>
@@ -2357,19 +2357,19 @@
     </row>
     <row r="76" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76" s="5">
         <v>8</v>
@@ -2377,19 +2377,19 @@
     </row>
     <row r="77" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F77" s="5">
         <v>6</v>
@@ -2397,19 +2397,19 @@
     </row>
     <row r="78" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F78" s="5">
         <v>16</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="79" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -2426,10 +2426,10 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F79" s="5">
         <v>15</v>
@@ -2437,19 +2437,19 @@
     </row>
     <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F80" s="5">
         <v>16</v>
@@ -2457,19 +2457,19 @@
     </row>
     <row r="81" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F81" s="5">
         <v>16</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="82" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -2486,10 +2486,10 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" s="5">
         <v>15</v>
@@ -2497,19 +2497,19 @@
     </row>
     <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" s="5">
         <v>16</v>
@@ -2517,19 +2517,19 @@
     </row>
     <row r="84" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F84" s="5">
         <v>16</v>
@@ -2537,19 +2537,19 @@
     </row>
     <row r="85" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F85" s="5">
         <v>8</v>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="86" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F86" s="5">
         <v>6</v>
@@ -2577,19 +2577,19 @@
     </row>
     <row r="87" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F87" s="5">
         <v>8</v>
@@ -2597,19 +2597,19 @@
     </row>
     <row r="88" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F88" s="5">
         <v>6</v>
@@ -2617,19 +2617,19 @@
     </row>
     <row r="89" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F89" s="5">
         <v>16</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="90" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -2646,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F90" s="5">
         <v>15</v>
@@ -2657,19 +2657,19 @@
     </row>
     <row r="91" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F91" s="5">
         <v>16</v>
@@ -2677,19 +2677,19 @@
     </row>
     <row r="92" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F92" s="5">
         <v>16</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="93" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -2706,10 +2706,10 @@
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" s="5">
         <v>15</v>
@@ -2717,19 +2717,19 @@
     </row>
     <row r="94" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F94" s="5">
         <v>16</v>
@@ -2737,19 +2737,19 @@
     </row>
     <row r="95" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F95" s="5">
         <v>16</v>
@@ -2757,19 +2757,19 @@
     </row>
     <row r="96" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F96" s="5">
         <v>8</v>
@@ -2777,19 +2777,19 @@
     </row>
     <row r="97" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F97" s="5">
         <v>6</v>
@@ -2797,19 +2797,19 @@
     </row>
     <row r="98" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F98" s="5">
         <v>8</v>
@@ -2817,19 +2817,19 @@
     </row>
     <row r="99" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F99" s="5">
         <v>6</v>
@@ -2837,19 +2837,19 @@
     </row>
     <row r="100" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F100" s="5">
         <v>16</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="101" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -2866,10 +2866,10 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F101" s="5">
         <v>15</v>
@@ -2877,19 +2877,19 @@
     </row>
     <row r="102" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F102" s="5">
         <v>16</v>
@@ -2897,19 +2897,19 @@
     </row>
     <row r="103" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F103" s="5">
         <v>16</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="104" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -2926,10 +2926,10 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F104" s="5">
         <v>15</v>
@@ -2937,19 +2937,19 @@
     </row>
     <row r="105" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F105" s="5">
         <v>16</v>
@@ -2957,19 +2957,19 @@
     </row>
     <row r="106" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F106" s="5">
         <v>16</v>
@@ -2977,19 +2977,19 @@
     </row>
     <row r="107" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F107" s="5">
         <v>8</v>
@@ -2997,19 +2997,19 @@
     </row>
     <row r="108" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F108" s="5">
         <v>6</v>
@@ -3017,19 +3017,19 @@
     </row>
     <row r="109" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F109" s="5">
         <v>8</v>
@@ -3037,19 +3037,19 @@
     </row>
     <row r="110" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F110" s="5">
         <v>6</v>
@@ -3057,19 +3057,19 @@
     </row>
     <row r="111" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F111" s="5">
         <v>16</v>
@@ -3086,10 +3086,10 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F112" s="5">
         <v>15</v>
@@ -3097,19 +3097,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F113" s="5">
         <v>16</v>
@@ -3117,19 +3117,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F114" s="5">
         <v>16</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -3146,10 +3146,10 @@
         <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F115" s="5">
         <v>15</v>
@@ -3157,19 +3157,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F116" s="5">
         <v>16</v>
@@ -3177,19 +3177,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F117" s="5">
         <v>16</v>
@@ -3197,19 +3197,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
         <v>39</v>
       </c>
-      <c r="B118" t="s">
-        <v>40</v>
-      </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F118" s="5">
         <v>8</v>
@@ -3217,19 +3217,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" t="s">
         <v>41</v>
       </c>
-      <c r="B119" t="s">
-        <v>42</v>
-      </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F119" s="5">
         <v>6</v>
@@ -3237,19 +3237,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F120" s="5">
         <v>8</v>
@@ -3257,19 +3257,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F121" s="5">
         <v>6</v>
@@ -3277,19 +3277,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F122" s="5">
         <v>16</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B123" t="s">
         <v>26</v>
@@ -3306,10 +3306,10 @@
         <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F123" s="5">
         <v>15</v>
@@ -3317,19 +3317,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F124" s="5">
         <v>16</v>
@@ -3337,19 +3337,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F125" s="5">
         <v>16</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B126" t="s">
         <v>26</v>
@@ -3366,10 +3366,10 @@
         <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F126" s="5">
         <v>15</v>
@@ -3377,19 +3377,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F127" s="5">
         <v>16</v>
@@ -3397,19 +3397,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F128" s="5">
         <v>16</v>
@@ -3417,19 +3417,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F129" s="5">
         <v>8</v>
@@ -3437,19 +3437,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F130" s="5">
         <v>6</v>
@@ -3457,19 +3457,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F131" s="5">
         <v>8</v>
@@ -3477,19 +3477,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F132" s="5">
         <v>6</v>
@@ -3497,19 +3497,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F133" s="5">
         <v>16</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134" t="s">
         <v>26</v>
@@ -3526,10 +3526,10 @@
         <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F134" s="5">
         <v>15</v>
@@ -3537,19 +3537,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F135" s="5">
         <v>16</v>
@@ -3557,19 +3557,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F136" s="5">
         <v>16</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B137" t="s">
         <v>26</v>
@@ -3586,10 +3586,10 @@
         <v>27</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F137" s="5">
         <v>15</v>
@@ -3597,19 +3597,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F138" s="5">
         <v>16</v>
@@ -3617,19 +3617,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F139" s="5">
         <v>16</v>
@@ -3637,19 +3637,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F140" s="5">
         <v>8</v>
@@ -3657,19 +3657,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F141" s="5">
         <v>6</v>
@@ -3677,19 +3677,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
       </c>
       <c r="D142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F142" s="5">
         <v>8</v>
@@ -3697,19 +3697,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F143" s="5">
         <v>6</v>
@@ -3717,19 +3717,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F144" s="5">
         <v>16</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B145" t="s">
         <v>26</v>
@@ -3746,10 +3746,10 @@
         <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F145" s="5">
         <v>15</v>
@@ -3757,19 +3757,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F146" s="5">
         <v>16</v>
@@ -3777,19 +3777,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F147" s="5">
         <v>16</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B148" t="s">
         <v>26</v>
@@ -3806,10 +3806,10 @@
         <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F148" s="5">
         <v>15</v>
@@ -3817,19 +3817,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F149" s="5">
         <v>16</v>
@@ -3837,19 +3837,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F150" s="5">
         <v>16</v>
@@ -3857,19 +3857,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F151" s="5">
         <v>8</v>
@@ -3877,19 +3877,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F152" s="5">
         <v>6</v>
@@ -3897,19 +3897,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F153" s="5">
         <v>8</v>
@@ -3917,19 +3917,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F154" s="5">
         <v>6</v>
@@ -3937,19 +3937,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F155" s="5">
         <v>16</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B156" t="s">
         <v>26</v>
@@ -3966,10 +3966,10 @@
         <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F156" s="5">
         <v>15</v>
@@ -3977,19 +3977,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F157" s="5">
         <v>16</v>
@@ -3997,19 +3997,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F158" s="5">
         <v>16</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B159" t="s">
         <v>26</v>
@@ -4026,10 +4026,10 @@
         <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F159" s="5">
         <v>15</v>
@@ -4037,19 +4037,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F160" s="5">
         <v>16</v>
@@ -4057,19 +4057,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F161" s="5">
         <v>16</v>
@@ -4077,19 +4077,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F162" s="5">
         <v>8</v>
@@ -4097,19 +4097,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F163" s="5">
         <v>6</v>
@@ -4117,19 +4117,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
       </c>
       <c r="D164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F164" s="5">
         <v>8</v>
@@ -4137,19 +4137,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F165" s="5">
         <v>6</v>
@@ -4157,19 +4157,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F166" s="5">
         <v>16</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B167" t="s">
         <v>26</v>
@@ -4186,10 +4186,10 @@
         <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F167" s="5">
         <v>15</v>
@@ -4197,19 +4197,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F168" s="5">
         <v>16</v>
@@ -4217,19 +4217,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F169" s="5">
         <v>16</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B170" t="s">
         <v>26</v>
@@ -4246,10 +4246,10 @@
         <v>27</v>
       </c>
       <c r="D170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F170" s="5">
         <v>15</v>
@@ -4257,19 +4257,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F171" s="5">
         <v>16</v>
@@ -4277,19 +4277,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F172" s="5">
         <v>16</v>
@@ -4297,19 +4297,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F173" s="5">
         <v>8</v>
@@ -4317,19 +4317,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F174" s="5">
         <v>6</v>
@@ -4337,19 +4337,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F175" s="5">
         <v>8</v>
@@ -4357,19 +4357,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F176" s="5">
         <v>6</v>
@@ -4377,19 +4377,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F177" s="5">
         <v>16</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B178" t="s">
         <v>26</v>
@@ -4406,10 +4406,10 @@
         <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F178" s="5">
         <v>15</v>
@@ -4417,19 +4417,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F179" s="5">
         <v>16</v>
@@ -4437,19 +4437,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F180" s="5">
         <v>16</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B181" t="s">
         <v>26</v>
@@ -4466,10 +4466,10 @@
         <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F181" s="5">
         <v>15</v>
@@ -4477,19 +4477,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F182" s="5">
         <v>16</v>
@@ -4497,19 +4497,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F183" s="5">
         <v>16</v>
@@ -4517,19 +4517,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F184" s="5">
         <v>8</v>
@@ -4537,19 +4537,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F185" s="5">
         <v>6</v>
@@ -4557,19 +4557,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F186" s="5">
         <v>8</v>
@@ -4577,19 +4577,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F187" s="5">
         <v>6</v>
@@ -4597,19 +4597,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F188" s="5">
         <v>16</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B189" t="s">
         <v>26</v>
@@ -4626,10 +4626,10 @@
         <v>27</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F189" s="5">
         <v>15</v>
@@ -4637,19 +4637,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F190" s="5">
         <v>16</v>
@@ -4657,19 +4657,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F191" s="5">
         <v>16</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B192" t="s">
         <v>26</v>
@@ -4686,10 +4686,10 @@
         <v>27</v>
       </c>
       <c r="D192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F192" s="5">
         <v>15</v>
@@ -4697,19 +4697,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F193" s="5">
         <v>16</v>
@@ -4717,19 +4717,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F194" s="5">
         <v>16</v>
@@ -4737,19 +4737,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F195" s="5">
         <v>8</v>
@@ -4757,19 +4757,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F196" s="5">
         <v>6</v>
@@ -4777,19 +4777,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
       </c>
       <c r="D197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F197" s="5">
         <v>8</v>
@@ -4797,19 +4797,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F198" s="5">
         <v>6</v>
@@ -4817,19 +4817,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F199" s="5">
         <v>16</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B200" t="s">
         <v>26</v>
@@ -4846,10 +4846,10 @@
         <v>27</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F200" s="5">
         <v>15</v>
@@ -4857,19 +4857,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F201" s="5">
         <v>16</v>
@@ -4877,19 +4877,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F202" s="5">
         <v>16</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B203" t="s">
         <v>26</v>
@@ -4906,10 +4906,10 @@
         <v>27</v>
       </c>
       <c r="D203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F203" s="5">
         <v>15</v>
@@ -4917,19 +4917,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F204" s="5">
         <v>16</v>
@@ -4937,19 +4937,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F205" s="5">
         <v>16</v>
@@ -4957,19 +4957,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B206" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F206" s="5">
         <v>8</v>
@@ -4977,19 +4977,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F207" s="5">
         <v>6</v>
@@ -4997,19 +4997,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
       </c>
       <c r="D208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F208" s="5">
         <v>8</v>
@@ -5017,19 +5017,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F209" s="5">
         <v>6</v>
@@ -5037,19 +5037,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F210" s="5">
         <v>16</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B211" t="s">
         <v>26</v>
@@ -5066,10 +5066,10 @@
         <v>27</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F211" s="5">
         <v>15</v>
@@ -5077,19 +5077,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F212" s="5">
         <v>16</v>
@@ -5097,19 +5097,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F213" s="5">
         <v>16</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B214" t="s">
         <v>26</v>
@@ -5126,10 +5126,10 @@
         <v>27</v>
       </c>
       <c r="D214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F214" s="5">
         <v>15</v>
@@ -5137,19 +5137,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F215" s="5">
         <v>16</v>
@@ -5157,19 +5157,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F216" s="5">
         <v>16</v>
@@ -5177,19 +5177,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F217" s="5">
         <v>8</v>
@@ -5197,19 +5197,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B218" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F218" s="5">
         <v>6</v>
@@ -5217,19 +5217,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
       </c>
       <c r="D219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F219" s="5">
         <v>8</v>
@@ -5237,19 +5237,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F220" s="5">
         <v>6</v>
@@ -5257,19 +5257,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F221" s="5">
         <v>16</v>
@@ -5286,10 +5286,10 @@
         <v>27</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F222" s="5">
         <v>15</v>
@@ -5297,19 +5297,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F223" s="5">
         <v>16</v>
@@ -5317,19 +5317,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F224" s="5">
         <v>16</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B225" t="s">
         <v>26</v>
@@ -5346,10 +5346,10 @@
         <v>27</v>
       </c>
       <c r="D225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F225" s="5">
         <v>15</v>
@@ -5357,19 +5357,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C226" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F226" s="5">
         <v>16</v>
@@ -5377,19 +5377,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F227" s="5">
         <v>16</v>
@@ -5397,19 +5397,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>38</v>
+      </c>
+      <c r="B228" t="s">
         <v>39</v>
       </c>
-      <c r="B228" t="s">
-        <v>40</v>
-      </c>
       <c r="C228" t="s">
         <v>27</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F228" s="5">
         <v>8</v>
@@ -5417,19 +5417,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" t="s">
         <v>41</v>
       </c>
-      <c r="B229" t="s">
-        <v>42</v>
-      </c>
       <c r="C229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F229" s="5">
         <v>6</v>
@@ -5437,19 +5437,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B230" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
       </c>
       <c r="D230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F230" s="5">
         <v>8</v>
@@ -5457,19 +5457,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F231" s="5">
         <v>6</v>
@@ -5477,19 +5477,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F232" s="5">
         <v>16</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B233" t="s">
         <v>26</v>
@@ -5506,10 +5506,10 @@
         <v>27</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F233" s="5">
         <v>15</v>
@@ -5517,19 +5517,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F234" s="5">
         <v>16</v>
@@ -5537,19 +5537,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F235" s="5">
         <v>16</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B236" t="s">
         <v>26</v>
@@ -5566,10 +5566,10 @@
         <v>27</v>
       </c>
       <c r="D236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F236" s="5">
         <v>15</v>
@@ -5577,19 +5577,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F237" s="5">
         <v>16</v>
@@ -5597,19 +5597,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F238" s="5">
         <v>16</v>
@@ -5617,19 +5617,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C239" t="s">
         <v>27</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F239" s="5">
         <v>8</v>
@@ -5637,19 +5637,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F240" s="5">
         <v>6</v>
@@ -5657,19 +5657,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
       </c>
       <c r="D241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F241" s="5">
         <v>8</v>
@@ -5677,19 +5677,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B242" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F242" s="5">
         <v>6</v>
@@ -5697,19 +5697,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B243" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F243" s="5">
         <v>16</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B244" t="s">
         <v>26</v>
@@ -5726,10 +5726,10 @@
         <v>27</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F244" s="5">
         <v>15</v>
@@ -5737,19 +5737,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B245" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C245" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F245" s="5">
         <v>16</v>
@@ -5757,19 +5757,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F246" s="5">
         <v>16</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B247" t="s">
         <v>26</v>
@@ -5786,10 +5786,10 @@
         <v>27</v>
       </c>
       <c r="D247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F247" s="5">
         <v>15</v>
@@ -5797,19 +5797,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B248" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F248" s="5">
         <v>16</v>
@@ -5817,19 +5817,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F249" s="5">
         <v>16</v>
@@ -5837,19 +5837,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B250" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
       </c>
       <c r="D250" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F250" s="5">
         <v>8</v>
@@ -5857,19 +5857,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D251" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F251" s="5">
         <v>6</v>
@@ -5877,19 +5877,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B252" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
       </c>
       <c r="D252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F252" s="5">
         <v>8</v>
@@ -5897,19 +5897,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B253" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C253" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F253" s="5">
         <v>6</v>
@@ -5917,19 +5917,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F254" s="5">
         <v>16</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B255" t="s">
         <v>26</v>
@@ -5946,10 +5946,10 @@
         <v>27</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F255" s="5">
         <v>15</v>
@@ -5957,19 +5957,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B256" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C256" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F256" s="5">
         <v>16</v>
@@ -5977,19 +5977,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B257" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F257" s="5">
         <v>16</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B258" t="s">
         <v>26</v>
@@ -6006,10 +6006,10 @@
         <v>27</v>
       </c>
       <c r="D258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F258" s="5">
         <v>15</v>
@@ -6017,19 +6017,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D259" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F259" s="5">
         <v>16</v>
@@ -6037,19 +6037,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B260" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F260" s="5">
         <v>16</v>
@@ -6057,19 +6057,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F261" s="5">
         <v>8</v>
@@ -6077,19 +6077,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B262" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D262" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F262" s="5">
         <v>6</v>
@@ -6097,19 +6097,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B263" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C263" t="s">
         <v>27</v>
       </c>
       <c r="D263" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F263" s="5">
         <v>8</v>
@@ -6117,19 +6117,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B264" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C264" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F264" s="5">
         <v>6</v>
@@ -6137,19 +6137,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B265" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F265" s="5">
         <v>16</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B266" t="s">
         <v>26</v>
@@ -6166,10 +6166,10 @@
         <v>27</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F266" s="5">
         <v>15</v>
@@ -6177,19 +6177,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B267" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C267" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F267" s="5">
         <v>16</v>
@@ -6197,19 +6197,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C268" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F268" s="5">
         <v>16</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B269" t="s">
         <v>26</v>
@@ -6226,10 +6226,10 @@
         <v>27</v>
       </c>
       <c r="D269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F269" s="5">
         <v>15</v>
@@ -6237,19 +6237,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B270" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F270" s="5">
         <v>16</v>
@@ -6257,19 +6257,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C271" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D271" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F271" s="5">
         <v>16</v>
@@ -6277,19 +6277,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C272" t="s">
         <v>27</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F272" s="5">
         <v>8</v>
@@ -6297,19 +6297,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B273" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C273" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F273" s="5">
         <v>6</v>
@@ -6317,19 +6317,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B274" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C274" t="s">
         <v>27</v>
       </c>
       <c r="D274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F274" s="5">
         <v>8</v>
@@ -6337,19 +6337,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B275" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C275" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F275" s="5">
         <v>6</v>
@@ -6357,19 +6357,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B276" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C276" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F276" s="5">
         <v>16</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B277" t="s">
         <v>26</v>
@@ -6386,10 +6386,10 @@
         <v>27</v>
       </c>
       <c r="D277" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F277" s="5">
         <v>15</v>
@@ -6397,19 +6397,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B278" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F278" s="5">
         <v>16</v>
@@ -6417,19 +6417,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C279" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F279" s="5">
         <v>16</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B280" t="s">
         <v>26</v>
@@ -6446,10 +6446,10 @@
         <v>27</v>
       </c>
       <c r="D280" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F280" s="5">
         <v>15</v>
@@ -6457,19 +6457,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B281" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C281" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F281" s="5">
         <v>16</v>
@@ -6477,19 +6477,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B282" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C282" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F282" s="5">
         <v>16</v>
@@ -6497,19 +6497,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B283" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C283" t="s">
         <v>27</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F283" s="5">
         <v>8</v>
@@ -6517,19 +6517,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B284" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C284" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D284" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F284" s="5">
         <v>6</v>
@@ -6537,19 +6537,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B285" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C285" t="s">
         <v>27</v>
       </c>
       <c r="D285" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F285" s="5">
         <v>8</v>
@@ -6557,19 +6557,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B286" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D286" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F286" s="5">
         <v>6</v>
@@ -6577,19 +6577,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C287" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D287" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F287" s="5">
         <v>16</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B288" t="s">
         <v>26</v>
@@ -6606,10 +6606,10 @@
         <v>27</v>
       </c>
       <c r="D288" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F288" s="5">
         <v>15</v>
@@ -6617,19 +6617,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C289" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D289" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F289" s="5">
         <v>16</v>
@@ -6637,19 +6637,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B290" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C290" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D290" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F290" s="5">
         <v>16</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B291" t="s">
         <v>26</v>
@@ -6666,10 +6666,10 @@
         <v>27</v>
       </c>
       <c r="D291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F291" s="5">
         <v>15</v>
@@ -6677,19 +6677,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B292" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C292" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F292" s="5">
         <v>16</v>
@@ -6697,19 +6697,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B293" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C293" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D293" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F293" s="5">
         <v>16</v>
@@ -6717,19 +6717,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B294" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F294" s="5">
         <v>8</v>
@@ -6737,19 +6737,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C295" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F295" s="5">
         <v>6</v>
@@ -6757,19 +6757,19 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B296" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
       </c>
       <c r="D296" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F296" s="5">
         <v>8</v>
@@ -6777,19 +6777,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B297" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D297" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F297" s="5">
         <v>6</v>
@@ -6797,19 +6797,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B298" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C298" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F298" s="5">
         <v>16</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B299" t="s">
         <v>26</v>
@@ -6826,10 +6826,10 @@
         <v>27</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F299" s="5">
         <v>15</v>
@@ -6837,19 +6837,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B300" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C300" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D300" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F300" s="5">
         <v>16</v>
@@ -6857,19 +6857,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C301" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D301" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F301" s="5">
         <v>16</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B302" t="s">
         <v>26</v>
@@ -6886,10 +6886,10 @@
         <v>27</v>
       </c>
       <c r="D302" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F302" s="5">
         <v>15</v>
@@ -6897,19 +6897,19 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B303" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C303" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F303" s="5">
         <v>16</v>
@@ -6917,19 +6917,19 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B304" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F304" s="5">
         <v>16</v>
@@ -6937,19 +6937,19 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C305" t="s">
         <v>27</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F305" s="5">
         <v>8</v>
@@ -6957,19 +6957,19 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B306" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F306" s="5">
         <v>6</v>
@@ -6977,19 +6977,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B307" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C307" t="s">
         <v>27</v>
       </c>
       <c r="D307" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F307" s="5">
         <v>8</v>
@@ -6997,19 +6997,19 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B308" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C308" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D308" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F308" s="5">
         <v>6</v>
@@ -7017,19 +7017,19 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B309" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C309" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F309" s="5">
         <v>16</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B310" t="s">
         <v>26</v>
@@ -7046,10 +7046,10 @@
         <v>27</v>
       </c>
       <c r="D310" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F310" s="5">
         <v>15</v>
@@ -7057,19 +7057,19 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F311" s="5">
         <v>16</v>
@@ -7077,19 +7077,19 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B312" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C312" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D312" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F312" s="5">
         <v>16</v>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B313" t="s">
         <v>26</v>
@@ -7106,10 +7106,10 @@
         <v>27</v>
       </c>
       <c r="D313" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F313" s="5">
         <v>15</v>
@@ -7117,19 +7117,19 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C314" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D314" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F314" s="5">
         <v>16</v>
@@ -7137,19 +7137,19 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B315" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C315" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F315" s="5">
         <v>16</v>
@@ -7157,19 +7157,19 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B316" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C316" t="s">
         <v>27</v>
       </c>
       <c r="D316" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F316" s="5">
         <v>8</v>
@@ -7177,19 +7177,19 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B317" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C317" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F317" s="5">
         <v>6</v>
@@ -7197,19 +7197,19 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B318" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C318" t="s">
         <v>27</v>
       </c>
       <c r="D318" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F318" s="5">
         <v>8</v>
@@ -7217,19 +7217,19 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B319" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C319" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D319" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F319" s="5">
         <v>6</v>
@@ -7237,19 +7237,19 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B320" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C320" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D320" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F320" s="5">
         <v>16</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B321" t="s">
         <v>26</v>
@@ -7266,10 +7266,10 @@
         <v>27</v>
       </c>
       <c r="D321" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F321" s="5">
         <v>15</v>
@@ -7277,19 +7277,19 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B322" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C322" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F322" s="5">
         <v>16</v>
@@ -7297,19 +7297,19 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B323" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D323" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F323" s="5">
         <v>16</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B324" t="s">
         <v>26</v>
@@ -7326,10 +7326,10 @@
         <v>27</v>
       </c>
       <c r="D324" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F324" s="5">
         <v>15</v>
@@ -7337,19 +7337,19 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B325" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C325" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F325" s="5">
         <v>16</v>
@@ -7357,19 +7357,19 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B326" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C326" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F326" s="5">
         <v>16</v>
@@ -7377,19 +7377,19 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B327" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C327" t="s">
         <v>27</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F327" s="5">
         <v>8</v>
@@ -7397,19 +7397,19 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B328" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C328" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D328" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F328" s="5">
         <v>6</v>
@@ -7417,19 +7417,19 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B329" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C329" t="s">
         <v>27</v>
       </c>
       <c r="D329" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F329" s="5">
         <v>8</v>
@@ -7437,19 +7437,19 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B330" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C330" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D330" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F330" s="5">
         <v>6</v>
@@ -7457,19 +7457,19 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B331" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C331" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D331" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F331" s="5">
         <v>16</v>

--- a/observers_data_input.xlsx
+++ b/observers_data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E1D58-F32A-43FC-99FB-B8BC46F436FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2473E59D-6A18-4F90-BB6D-EFD8B25434CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,24 +93,6 @@
     <t>and so on</t>
   </si>
   <si>
-    <t>nameNN</t>
-  </si>
-  <si>
-    <t>nik</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>nam</t>
   </si>
   <si>
@@ -466,13 +448,31 @@
   </si>
   <si>
     <t>vvvv</t>
+  </si>
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>المسمى الوظيفى</t>
+  </si>
+  <si>
+    <t>مكان العمل</t>
+  </si>
+  <si>
+    <t>المبنى</t>
+  </si>
+  <si>
+    <t>البريد الالكتروني</t>
+  </si>
+  <si>
+    <t>التكليف الحالي</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +492,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -521,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,6 +545,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,8 +856,8 @@
   </sheetPr>
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="L220" sqref="L220"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,41 +866,41 @@
     <col min="6" max="6" width="14.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5">
         <v>15</v>
@@ -897,19 +908,19 @@
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5">
         <v>16</v>
@@ -917,19 +928,19 @@
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5">
         <v>16</v>
@@ -937,19 +948,19 @@
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5">
         <v>15</v>
@@ -957,19 +968,19 @@
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5">
         <v>16</v>
@@ -977,19 +988,19 @@
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5">
         <v>16</v>
@@ -997,19 +1008,19 @@
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5">
         <v>8</v>
@@ -1017,19 +1028,19 @@
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5">
         <v>6</v>
@@ -1037,19 +1048,19 @@
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5">
         <v>8</v>
@@ -1057,19 +1068,19 @@
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5">
         <v>6</v>
@@ -1077,19 +1088,19 @@
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5">
         <v>16</v>
@@ -1097,19 +1108,19 @@
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5">
         <v>15</v>
@@ -1117,19 +1128,19 @@
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F14" s="5">
         <v>16</v>
@@ -1137,19 +1148,19 @@
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F15" s="5">
         <v>16</v>
@@ -1157,19 +1168,19 @@
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F16" s="5">
         <v>15</v>
@@ -1177,19 +1188,19 @@
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F17" s="5">
         <v>16</v>
@@ -1197,19 +1208,19 @@
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F18" s="5">
         <v>16</v>
@@ -1217,19 +1228,19 @@
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F19" s="5">
         <v>8</v>
@@ -1237,19 +1248,19 @@
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F20" s="5">
         <v>6</v>
@@ -1257,19 +1268,19 @@
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F21" s="5">
         <v>8</v>
@@ -1277,19 +1288,19 @@
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F22" s="5">
         <v>6</v>
@@ -1297,19 +1308,19 @@
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F23" s="5">
         <v>16</v>
@@ -1317,19 +1328,19 @@
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F24" s="5">
         <v>15</v>
@@ -1337,19 +1348,19 @@
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F25" s="5">
         <v>16</v>
@@ -1357,19 +1368,19 @@
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F26" s="5">
         <v>16</v>
@@ -1377,19 +1388,19 @@
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F27" s="5">
         <v>15</v>
@@ -1397,19 +1408,19 @@
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F28" s="5">
         <v>16</v>
@@ -1417,19 +1428,19 @@
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F29" s="5">
         <v>16</v>
@@ -1437,19 +1448,19 @@
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F30" s="5">
         <v>8</v>
@@ -1457,19 +1468,19 @@
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F31" s="5">
         <v>6</v>
@@ -1477,19 +1488,19 @@
     </row>
     <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F32" s="5">
         <v>8</v>
@@ -1497,19 +1508,19 @@
     </row>
     <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F33" s="5">
         <v>6</v>
@@ -1517,19 +1528,19 @@
     </row>
     <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34" s="5">
         <v>16</v>
@@ -1537,19 +1548,19 @@
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F35" s="5">
         <v>15</v>
@@ -1557,19 +1568,19 @@
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F36" s="5">
         <v>16</v>
@@ -1577,19 +1588,19 @@
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F37" s="5">
         <v>16</v>
@@ -1597,19 +1608,19 @@
     </row>
     <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F38" s="5">
         <v>15</v>
@@ -1617,19 +1628,19 @@
     </row>
     <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F39" s="5">
         <v>16</v>
@@ -1637,19 +1648,19 @@
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F40" s="5">
         <v>16</v>
@@ -1657,19 +1668,19 @@
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F41" s="5">
         <v>8</v>
@@ -1677,19 +1688,19 @@
     </row>
     <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F42" s="5">
         <v>6</v>
@@ -1697,19 +1708,19 @@
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F43" s="5">
         <v>8</v>
@@ -1717,19 +1728,19 @@
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F44" s="5">
         <v>6</v>
@@ -1737,19 +1748,19 @@
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F45" s="5">
         <v>16</v>
@@ -1757,19 +1768,19 @@
     </row>
     <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F46" s="5">
         <v>15</v>
@@ -1777,19 +1788,19 @@
     </row>
     <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F47" s="5">
         <v>16</v>
@@ -1797,19 +1808,19 @@
     </row>
     <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F48" s="5">
         <v>16</v>
@@ -1817,19 +1828,19 @@
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F49" s="5">
         <v>15</v>
@@ -1837,19 +1848,19 @@
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F50" s="5">
         <v>16</v>
@@ -1857,19 +1868,19 @@
     </row>
     <row r="51" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F51" s="5">
         <v>16</v>
@@ -1877,19 +1888,19 @@
     </row>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F52" s="5">
         <v>8</v>
@@ -1897,19 +1908,19 @@
     </row>
     <row r="53" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F53" s="5">
         <v>6</v>
@@ -1917,19 +1928,19 @@
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F54" s="5">
         <v>8</v>
@@ -1937,19 +1948,19 @@
     </row>
     <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F55" s="5">
         <v>6</v>
@@ -1957,19 +1968,19 @@
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F56" s="5">
         <v>16</v>
@@ -1977,19 +1988,19 @@
     </row>
     <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F57" s="5">
         <v>15</v>
@@ -1997,19 +2008,19 @@
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F58" s="5">
         <v>16</v>
@@ -2017,19 +2028,19 @@
     </row>
     <row r="59" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F59" s="5">
         <v>16</v>
@@ -2037,19 +2048,19 @@
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F60" s="5">
         <v>15</v>
@@ -2057,19 +2068,19 @@
     </row>
     <row r="61" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F61" s="5">
         <v>16</v>
@@ -2077,19 +2088,19 @@
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F62" s="5">
         <v>16</v>
@@ -2097,19 +2108,19 @@
     </row>
     <row r="63" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F63" s="5">
         <v>8</v>
@@ -2117,19 +2128,19 @@
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F64" s="5">
         <v>6</v>
@@ -2137,19 +2148,19 @@
     </row>
     <row r="65" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F65" s="5">
         <v>8</v>
@@ -2157,19 +2168,19 @@
     </row>
     <row r="66" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F66" s="5">
         <v>6</v>
@@ -2177,19 +2188,19 @@
     </row>
     <row r="67" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F67" s="5">
         <v>16</v>
@@ -2197,19 +2208,19 @@
     </row>
     <row r="68" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F68" s="5">
         <v>15</v>
@@ -2217,19 +2228,19 @@
     </row>
     <row r="69" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F69" s="5">
         <v>16</v>
@@ -2237,19 +2248,19 @@
     </row>
     <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F70" s="5">
         <v>16</v>
@@ -2257,19 +2268,19 @@
     </row>
     <row r="71" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F71" s="5">
         <v>15</v>
@@ -2277,19 +2288,19 @@
     </row>
     <row r="72" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F72" s="5">
         <v>16</v>
@@ -2297,19 +2308,19 @@
     </row>
     <row r="73" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F73" s="5">
         <v>16</v>
@@ -2317,19 +2328,19 @@
     </row>
     <row r="74" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F74" s="5">
         <v>8</v>
@@ -2337,19 +2348,19 @@
     </row>
     <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F75" s="5">
         <v>6</v>
@@ -2357,19 +2368,19 @@
     </row>
     <row r="76" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F76" s="5">
         <v>8</v>
@@ -2377,19 +2388,19 @@
     </row>
     <row r="77" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F77" s="5">
         <v>6</v>
@@ -2397,19 +2408,19 @@
     </row>
     <row r="78" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F78" s="5">
         <v>16</v>
@@ -2417,19 +2428,19 @@
     </row>
     <row r="79" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F79" s="5">
         <v>15</v>
@@ -2437,19 +2448,19 @@
     </row>
     <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F80" s="5">
         <v>16</v>
@@ -2457,19 +2468,19 @@
     </row>
     <row r="81" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F81" s="5">
         <v>16</v>
@@ -2477,19 +2488,19 @@
     </row>
     <row r="82" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F82" s="5">
         <v>15</v>
@@ -2497,19 +2508,19 @@
     </row>
     <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F83" s="5">
         <v>16</v>
@@ -2517,19 +2528,19 @@
     </row>
     <row r="84" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F84" s="5">
         <v>16</v>
@@ -2537,19 +2548,19 @@
     </row>
     <row r="85" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F85" s="5">
         <v>8</v>
@@ -2557,19 +2568,19 @@
     </row>
     <row r="86" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F86" s="5">
         <v>6</v>
@@ -2577,19 +2588,19 @@
     </row>
     <row r="87" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F87" s="5">
         <v>8</v>
@@ -2597,19 +2608,19 @@
     </row>
     <row r="88" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F88" s="5">
         <v>6</v>
@@ -2617,19 +2628,19 @@
     </row>
     <row r="89" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F89" s="5">
         <v>16</v>
@@ -2637,19 +2648,19 @@
     </row>
     <row r="90" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F90" s="5">
         <v>15</v>
@@ -2657,19 +2668,19 @@
     </row>
     <row r="91" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F91" s="5">
         <v>16</v>
@@ -2677,19 +2688,19 @@
     </row>
     <row r="92" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F92" s="5">
         <v>16</v>
@@ -2697,19 +2708,19 @@
     </row>
     <row r="93" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F93" s="5">
         <v>15</v>
@@ -2717,19 +2728,19 @@
     </row>
     <row r="94" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F94" s="5">
         <v>16</v>
@@ -2737,19 +2748,19 @@
     </row>
     <row r="95" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F95" s="5">
         <v>16</v>
@@ -2757,19 +2768,19 @@
     </row>
     <row r="96" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F96" s="5">
         <v>8</v>
@@ -2777,19 +2788,19 @@
     </row>
     <row r="97" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F97" s="5">
         <v>6</v>
@@ -2797,19 +2808,19 @@
     </row>
     <row r="98" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F98" s="5">
         <v>8</v>
@@ -2817,19 +2828,19 @@
     </row>
     <row r="99" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F99" s="5">
         <v>6</v>
@@ -2837,19 +2848,19 @@
     </row>
     <row r="100" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F100" s="5">
         <v>16</v>
@@ -2857,19 +2868,19 @@
     </row>
     <row r="101" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F101" s="5">
         <v>15</v>
@@ -2877,19 +2888,19 @@
     </row>
     <row r="102" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F102" s="5">
         <v>16</v>
@@ -2897,19 +2908,19 @@
     </row>
     <row r="103" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F103" s="5">
         <v>16</v>
@@ -2917,19 +2928,19 @@
     </row>
     <row r="104" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F104" s="5">
         <v>15</v>
@@ -2937,19 +2948,19 @@
     </row>
     <row r="105" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F105" s="5">
         <v>16</v>
@@ -2957,19 +2968,19 @@
     </row>
     <row r="106" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F106" s="5">
         <v>16</v>
@@ -2977,19 +2988,19 @@
     </row>
     <row r="107" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F107" s="5">
         <v>8</v>
@@ -2997,19 +3008,19 @@
     </row>
     <row r="108" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F108" s="5">
         <v>6</v>
@@ -3017,19 +3028,19 @@
     </row>
     <row r="109" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F109" s="5">
         <v>8</v>
@@ -3037,19 +3048,19 @@
     </row>
     <row r="110" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F110" s="5">
         <v>6</v>
@@ -3057,19 +3068,19 @@
     </row>
     <row r="111" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F111" s="5">
         <v>16</v>
@@ -3077,19 +3088,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F112" s="5">
         <v>15</v>
@@ -3097,19 +3108,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F113" s="5">
         <v>16</v>
@@ -3117,19 +3128,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F114" s="5">
         <v>16</v>
@@ -3137,19 +3148,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F115" s="5">
         <v>15</v>
@@ -3157,19 +3168,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F116" s="5">
         <v>16</v>
@@ -3177,19 +3188,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F117" s="5">
         <v>16</v>
@@ -3197,19 +3208,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F118" s="5">
         <v>8</v>
@@ -3217,19 +3228,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F119" s="5">
         <v>6</v>
@@ -3237,19 +3248,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F120" s="5">
         <v>8</v>
@@ -3257,19 +3268,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F121" s="5">
         <v>6</v>
@@ -3277,19 +3288,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F122" s="5">
         <v>16</v>
@@ -3297,19 +3308,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F123" s="5">
         <v>15</v>
@@ -3317,19 +3328,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F124" s="5">
         <v>16</v>
@@ -3337,19 +3348,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F125" s="5">
         <v>16</v>
@@ -3357,19 +3368,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F126" s="5">
         <v>15</v>
@@ -3377,19 +3388,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F127" s="5">
         <v>16</v>
@@ -3397,19 +3408,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F128" s="5">
         <v>16</v>
@@ -3417,19 +3428,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F129" s="5">
         <v>8</v>
@@ -3437,19 +3448,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F130" s="5">
         <v>6</v>
@@ -3457,19 +3468,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F131" s="5">
         <v>8</v>
@@ -3477,19 +3488,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F132" s="5">
         <v>6</v>
@@ -3497,19 +3508,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F133" s="5">
         <v>16</v>
@@ -3517,19 +3528,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F134" s="5">
         <v>15</v>
@@ -3537,19 +3548,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F135" s="5">
         <v>16</v>
@@ -3557,19 +3568,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F136" s="5">
         <v>16</v>
@@ -3577,19 +3588,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F137" s="5">
         <v>15</v>
@@ -3597,19 +3608,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F138" s="5">
         <v>16</v>
@@ -3617,19 +3628,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F139" s="5">
         <v>16</v>
@@ -3637,19 +3648,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F140" s="5">
         <v>8</v>
@@ -3657,19 +3668,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F141" s="5">
         <v>6</v>
@@ -3677,19 +3688,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F142" s="5">
         <v>8</v>
@@ -3697,19 +3708,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F143" s="5">
         <v>6</v>
@@ -3717,19 +3728,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D144" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F144" s="5">
         <v>16</v>
@@ -3737,19 +3748,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F145" s="5">
         <v>15</v>
@@ -3757,19 +3768,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F146" s="5">
         <v>16</v>
@@ -3777,19 +3788,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F147" s="5">
         <v>16</v>
@@ -3797,19 +3808,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F148" s="5">
         <v>15</v>
@@ -3817,19 +3828,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F149" s="5">
         <v>16</v>
@@ -3837,19 +3848,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F150" s="5">
         <v>16</v>
@@ -3857,19 +3868,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F151" s="5">
         <v>8</v>
@@ -3877,19 +3888,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F152" s="5">
         <v>6</v>
@@ -3897,19 +3908,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F153" s="5">
         <v>8</v>
@@ -3917,19 +3928,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F154" s="5">
         <v>6</v>
@@ -3937,19 +3948,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B155" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F155" s="5">
         <v>16</v>
@@ -3957,19 +3968,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F156" s="5">
         <v>15</v>
@@ -3977,19 +3988,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F157" s="5">
         <v>16</v>
@@ -3997,19 +4008,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D158" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F158" s="5">
         <v>16</v>
@@ -4017,19 +4028,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B159" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F159" s="5">
         <v>15</v>
@@ -4037,19 +4048,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F160" s="5">
         <v>16</v>
@@ -4057,19 +4068,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F161" s="5">
         <v>16</v>
@@ -4077,19 +4088,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F162" s="5">
         <v>8</v>
@@ -4097,19 +4108,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F163" s="5">
         <v>6</v>
@@ -4117,19 +4128,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F164" s="5">
         <v>8</v>
@@ -4137,19 +4148,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F165" s="5">
         <v>6</v>
@@ -4157,19 +4168,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F166" s="5">
         <v>16</v>
@@ -4177,19 +4188,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F167" s="5">
         <v>15</v>
@@ -4197,19 +4208,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F168" s="5">
         <v>16</v>
@@ -4217,19 +4228,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D169" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F169" s="5">
         <v>16</v>
@@ -4237,19 +4248,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B170" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F170" s="5">
         <v>15</v>
@@ -4257,19 +4268,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F171" s="5">
         <v>16</v>
@@ -4277,19 +4288,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B172" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F172" s="5">
         <v>16</v>
@@ -4297,19 +4308,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F173" s="5">
         <v>8</v>
@@ -4317,19 +4328,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F174" s="5">
         <v>6</v>
@@ -4337,19 +4348,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B175" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F175" s="5">
         <v>8</v>
@@ -4357,19 +4368,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B176" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F176" s="5">
         <v>6</v>
@@ -4377,19 +4388,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D177" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F177" s="5">
         <v>16</v>
@@ -4397,19 +4408,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B178" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F178" s="5">
         <v>15</v>
@@ -4417,19 +4428,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F179" s="5">
         <v>16</v>
@@ -4437,19 +4448,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D180" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F180" s="5">
         <v>16</v>
@@ -4457,19 +4468,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D181" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F181" s="5">
         <v>15</v>
@@ -4477,19 +4488,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B182" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F182" s="5">
         <v>16</v>
@@ -4497,19 +4508,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B183" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F183" s="5">
         <v>16</v>
@@ -4517,19 +4528,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F184" s="5">
         <v>8</v>
@@ -4537,19 +4548,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C185" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F185" s="5">
         <v>6</v>
@@ -4557,19 +4568,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F186" s="5">
         <v>8</v>
@@ -4577,19 +4588,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F187" s="5">
         <v>6</v>
@@ -4597,19 +4608,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D188" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F188" s="5">
         <v>16</v>
@@ -4617,19 +4628,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B189" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F189" s="5">
         <v>15</v>
@@ -4637,19 +4648,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F190" s="5">
         <v>16</v>
@@ -4657,19 +4668,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F191" s="5">
         <v>16</v>
@@ -4677,19 +4688,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B192" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F192" s="5">
         <v>15</v>
@@ -4697,19 +4708,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B193" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C193" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F193" s="5">
         <v>16</v>
@@ -4717,19 +4728,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F194" s="5">
         <v>16</v>
@@ -4737,19 +4748,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F195" s="5">
         <v>8</v>
@@ -4757,19 +4768,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B196" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C196" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F196" s="5">
         <v>6</v>
@@ -4777,19 +4788,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B197" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F197" s="5">
         <v>8</v>
@@ -4797,19 +4808,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C198" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F198" s="5">
         <v>6</v>
@@ -4817,19 +4828,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B199" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D199" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F199" s="5">
         <v>16</v>
@@ -4837,19 +4848,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B200" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F200" s="5">
         <v>15</v>
@@ -4857,19 +4868,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B201" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C201" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F201" s="5">
         <v>16</v>
@@ -4877,19 +4888,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D202" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F202" s="5">
         <v>16</v>
@@ -4897,19 +4908,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B203" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D203" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F203" s="5">
         <v>15</v>
@@ -4917,19 +4928,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C204" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F204" s="5">
         <v>16</v>
@@ -4937,19 +4948,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F205" s="5">
         <v>16</v>
@@ -4957,19 +4968,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B206" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F206" s="5">
         <v>8</v>
@@ -4977,19 +4988,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B207" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C207" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F207" s="5">
         <v>6</v>
@@ -4997,19 +5008,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B208" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D208" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F208" s="5">
         <v>8</v>
@@ -5017,19 +5028,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C209" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D209" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F209" s="5">
         <v>6</v>
@@ -5037,19 +5048,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D210" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F210" s="5">
         <v>16</v>
@@ -5057,19 +5068,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B211" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F211" s="5">
         <v>15</v>
@@ -5077,19 +5088,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B212" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C212" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F212" s="5">
         <v>16</v>
@@ -5097,19 +5108,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B213" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D213" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F213" s="5">
         <v>16</v>
@@ -5117,19 +5128,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B214" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D214" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F214" s="5">
         <v>15</v>
@@ -5137,19 +5148,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B215" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C215" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F215" s="5">
         <v>16</v>
@@ -5157,19 +5168,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F216" s="5">
         <v>16</v>
@@ -5177,19 +5188,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F217" s="5">
         <v>8</v>
@@ -5197,19 +5208,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B218" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C218" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F218" s="5">
         <v>6</v>
@@ -5217,19 +5228,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B219" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D219" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F219" s="5">
         <v>8</v>
@@ -5237,19 +5248,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B220" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F220" s="5">
         <v>6</v>
@@ -5257,19 +5268,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D221" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F221" s="5">
         <v>16</v>
@@ -5277,19 +5288,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B222" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F222" s="5">
         <v>15</v>
@@ -5297,19 +5308,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C223" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F223" s="5">
         <v>16</v>
@@ -5317,19 +5328,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D224" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F224" s="5">
         <v>16</v>
@@ -5337,19 +5348,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B225" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F225" s="5">
         <v>15</v>
@@ -5357,19 +5368,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B226" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C226" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F226" s="5">
         <v>16</v>
@@ -5377,19 +5388,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C227" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F227" s="5">
         <v>16</v>
@@ -5397,19 +5408,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B228" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F228" s="5">
         <v>8</v>
@@ -5417,19 +5428,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C229" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F229" s="5">
         <v>6</v>
@@ -5437,19 +5448,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B230" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F230" s="5">
         <v>8</v>
@@ -5457,19 +5468,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B231" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C231" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D231" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F231" s="5">
         <v>6</v>
@@ -5477,19 +5488,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F232" s="5">
         <v>16</v>
@@ -5497,19 +5508,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B233" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F233" s="5">
         <v>15</v>
@@ -5517,19 +5528,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C234" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F234" s="5">
         <v>16</v>
@@ -5537,19 +5548,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B235" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D235" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F235" s="5">
         <v>16</v>
@@ -5557,19 +5568,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B236" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D236" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F236" s="5">
         <v>15</v>
@@ -5577,19 +5588,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C237" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F237" s="5">
         <v>16</v>
@@ -5597,19 +5608,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F238" s="5">
         <v>16</v>
@@ -5617,19 +5628,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F239" s="5">
         <v>8</v>
@@ -5637,19 +5648,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C240" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F240" s="5">
         <v>6</v>
@@ -5657,19 +5668,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F241" s="5">
         <v>8</v>
@@ -5677,19 +5688,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C242" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F242" s="5">
         <v>6</v>
@@ -5697,19 +5708,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D243" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F243" s="5">
         <v>16</v>
@@ -5717,19 +5728,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C244" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F244" s="5">
         <v>15</v>
@@ -5737,19 +5748,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C245" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F245" s="5">
         <v>16</v>
@@ -5757,19 +5768,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D246" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F246" s="5">
         <v>16</v>
@@ -5777,19 +5788,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C247" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D247" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F247" s="5">
         <v>15</v>
@@ -5797,19 +5808,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C248" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F248" s="5">
         <v>16</v>
@@ -5817,19 +5828,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F249" s="5">
         <v>16</v>
@@ -5837,19 +5848,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D250" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F250" s="5">
         <v>8</v>
@@ -5857,19 +5868,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C251" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D251" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F251" s="5">
         <v>6</v>
@@ -5877,19 +5888,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F252" s="5">
         <v>8</v>
@@ -5897,19 +5908,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C253" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D253" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F253" s="5">
         <v>6</v>
@@ -5917,19 +5928,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C254" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D254" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F254" s="5">
         <v>16</v>
@@ -5937,19 +5948,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F255" s="5">
         <v>15</v>
@@ -5957,19 +5968,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F256" s="5">
         <v>16</v>
@@ -5977,19 +5988,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C257" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D257" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F257" s="5">
         <v>16</v>
@@ -5997,19 +6008,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B258" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C258" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F258" s="5">
         <v>15</v>
@@ -6017,19 +6028,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B259" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C259" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F259" s="5">
         <v>16</v>
@@ -6037,19 +6048,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B260" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C260" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F260" s="5">
         <v>16</v>
@@ -6057,19 +6068,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B261" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F261" s="5">
         <v>8</v>
@@ -6077,19 +6088,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B262" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C262" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D262" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F262" s="5">
         <v>6</v>
@@ -6097,19 +6108,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B263" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C263" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F263" s="5">
         <v>8</v>
@@ -6117,19 +6128,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B264" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C264" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D264" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F264" s="5">
         <v>6</v>
@@ -6137,19 +6148,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B265" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C265" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D265" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F265" s="5">
         <v>16</v>
@@ -6157,19 +6168,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B266" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F266" s="5">
         <v>15</v>
@@ -6177,19 +6188,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B267" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C267" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F267" s="5">
         <v>16</v>
@@ -6197,19 +6208,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B268" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C268" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D268" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F268" s="5">
         <v>16</v>
@@ -6217,19 +6228,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B269" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F269" s="5">
         <v>15</v>
@@ -6237,19 +6248,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B270" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C270" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F270" s="5">
         <v>16</v>
@@ -6257,19 +6268,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B271" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C271" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D271" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F271" s="5">
         <v>16</v>
@@ -6277,19 +6288,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B272" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C272" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F272" s="5">
         <v>8</v>
@@ -6297,19 +6308,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B273" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C273" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F273" s="5">
         <v>6</v>
@@ -6317,19 +6328,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B274" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C274" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D274" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F274" s="5">
         <v>8</v>
@@ -6337,19 +6348,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B275" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C275" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D275" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F275" s="5">
         <v>6</v>
@@ -6357,19 +6368,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B276" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C276" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D276" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F276" s="5">
         <v>16</v>
@@ -6377,19 +6388,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B277" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C277" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D277" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F277" s="5">
         <v>15</v>
@@ -6397,19 +6408,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B278" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C278" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F278" s="5">
         <v>16</v>
@@ -6417,19 +6428,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B279" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C279" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D279" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F279" s="5">
         <v>16</v>
@@ -6437,19 +6448,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B280" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C280" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D280" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F280" s="5">
         <v>15</v>
@@ -6457,19 +6468,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B281" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C281" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F281" s="5">
         <v>16</v>
@@ -6477,19 +6488,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B282" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C282" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F282" s="5">
         <v>16</v>
@@ -6497,19 +6508,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B283" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C283" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F283" s="5">
         <v>8</v>
@@ -6517,19 +6528,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B284" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C284" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D284" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F284" s="5">
         <v>6</v>
@@ -6537,19 +6548,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B285" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C285" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D285" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F285" s="5">
         <v>8</v>
@@ -6557,19 +6568,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B286" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C286" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D286" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F286" s="5">
         <v>6</v>
@@ -6577,19 +6588,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B287" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C287" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F287" s="5">
         <v>16</v>
@@ -6597,19 +6608,19 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B288" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C288" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D288" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F288" s="5">
         <v>15</v>
@@ -6617,19 +6628,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B289" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C289" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D289" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F289" s="5">
         <v>16</v>
@@ -6637,19 +6648,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B290" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C290" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F290" s="5">
         <v>16</v>
@@ -6657,19 +6668,19 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B291" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C291" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D291" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F291" s="5">
         <v>15</v>
@@ -6677,19 +6688,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B292" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C292" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F292" s="5">
         <v>16</v>
@@ -6697,19 +6708,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B293" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C293" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D293" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F293" s="5">
         <v>16</v>
@@ -6717,19 +6728,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B294" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C294" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F294" s="5">
         <v>8</v>
@@ -6737,19 +6748,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B295" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C295" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F295" s="5">
         <v>6</v>
@@ -6757,19 +6768,19 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B296" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C296" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D296" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F296" s="5">
         <v>8</v>
@@ -6777,19 +6788,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B297" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C297" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D297" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F297" s="5">
         <v>6</v>
@@ -6797,19 +6808,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B298" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C298" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D298" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F298" s="5">
         <v>16</v>
@@ -6817,19 +6828,19 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B299" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C299" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F299" s="5">
         <v>15</v>
@@ -6837,19 +6848,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B300" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C300" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D300" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F300" s="5">
         <v>16</v>
@@ -6857,19 +6868,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B301" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C301" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D301" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F301" s="5">
         <v>16</v>
@@ -6877,19 +6888,19 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B302" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C302" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D302" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F302" s="5">
         <v>15</v>
@@ -6897,19 +6908,19 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B303" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C303" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F303" s="5">
         <v>16</v>
@@ -6917,19 +6928,19 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B304" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C304" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F304" s="5">
         <v>16</v>
@@ -6937,19 +6948,19 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B305" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C305" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F305" s="5">
         <v>8</v>
@@ -6957,19 +6968,19 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B306" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C306" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F306" s="5">
         <v>6</v>
@@ -6977,19 +6988,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B307" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C307" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D307" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F307" s="5">
         <v>8</v>
@@ -6997,19 +7008,19 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B308" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C308" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D308" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F308" s="5">
         <v>6</v>
@@ -7017,19 +7028,19 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B309" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C309" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D309" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F309" s="5">
         <v>16</v>
@@ -7037,19 +7048,19 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B310" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C310" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D310" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F310" s="5">
         <v>15</v>
@@ -7057,19 +7068,19 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C311" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F311" s="5">
         <v>16</v>
@@ -7077,19 +7088,19 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B312" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C312" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D312" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F312" s="5">
         <v>16</v>
@@ -7097,19 +7108,19 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B313" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C313" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D313" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F313" s="5">
         <v>15</v>
@@ -7117,19 +7128,19 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C314" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D314" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F314" s="5">
         <v>16</v>
@@ -7137,19 +7148,19 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B315" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C315" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F315" s="5">
         <v>16</v>
@@ -7157,19 +7168,19 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B316" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C316" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D316" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F316" s="5">
         <v>8</v>
@@ -7177,19 +7188,19 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B317" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C317" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F317" s="5">
         <v>6</v>
@@ -7197,19 +7208,19 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B318" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C318" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F318" s="5">
         <v>8</v>
@@ -7217,19 +7228,19 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B319" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C319" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D319" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F319" s="5">
         <v>6</v>
@@ -7237,19 +7248,19 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B320" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C320" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D320" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F320" s="5">
         <v>16</v>
@@ -7257,19 +7268,19 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B321" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C321" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F321" s="5">
         <v>15</v>
@@ -7277,19 +7288,19 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B322" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C322" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F322" s="5">
         <v>16</v>
@@ -7297,19 +7308,19 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B323" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C323" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D323" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F323" s="5">
         <v>16</v>
@@ -7317,19 +7328,19 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B324" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C324" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D324" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F324" s="5">
         <v>15</v>
@@ -7337,19 +7348,19 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B325" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C325" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F325" s="5">
         <v>16</v>
@@ -7357,19 +7368,19 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B326" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C326" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F326" s="5">
         <v>16</v>
@@ -7377,19 +7388,19 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B327" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C327" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F327" s="5">
         <v>8</v>
@@ -7397,19 +7408,19 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B328" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C328" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D328" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F328" s="5">
         <v>6</v>
@@ -7417,19 +7428,19 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B329" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C329" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D329" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F329" s="5">
         <v>8</v>
@@ -7437,19 +7448,19 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B330" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C330" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D330" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F330" s="5">
         <v>6</v>
@@ -7457,19 +7468,19 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B331" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C331" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D331" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F331" s="5">
         <v>16</v>

--- a/observers_data_input.xlsx
+++ b/observers_data_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs-code\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2473E59D-6A18-4F90-BB6D-EFD8B25434CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C92EF-95AD-43A6-923A-03DF75567008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -857,7 +857,7 @@
   <dimension ref="A1:F331"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/observers_data_input.xlsx
+++ b/observers_data_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs-code\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C92EF-95AD-43A6-923A-03DF75567008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3481EC-EA55-40AF-B80D-D52C21B9DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
   </sheetPr>
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -7498,7 +7498,9 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7535,18 +7537,10 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7558,13 +7552,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7581,6 +7575,12 @@
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/observers_data_input.xlsx
+++ b/observers_data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37906653-2FDB-427D-9F2D-2E913FA039D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69457D51-CD87-46D2-870D-3B193980F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1273,10 +1273,10 @@
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;ر.س.&quot;* #,##0_);_(&quot;ر.س.&quot;* \(#,##0\);_(&quot;ر.س.&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;ر.س.&quot;* #,##0.00_);_(&quot;ر.س.&quot;* \(#,##0.00\);_(&quot;ر.س.&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="00"/>
-    <numFmt numFmtId="172" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;ر.س.&quot;* #,##0_);_(&quot;ر.س.&quot;* \(#,##0\);_(&quot;ر.س.&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;ر.س.&quot;* #,##0.00_);_(&quot;ر.س.&quot;* \(#,##0.00\);_(&quot;ر.س.&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="00"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1797,13 +1797,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1820,7 +1820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1838,16 +1838,13 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,7 +1868,7 @@
     <xf numFmtId="0" fontId="24" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1881,9 +1878,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2282,7 +2276,7 @@
       <c r="C2" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2302,7 +2296,7 @@
       <c r="C3" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2322,7 +2316,7 @@
       <c r="C4" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2342,7 +2336,7 @@
       <c r="C5" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2362,7 +2356,7 @@
       <c r="C6" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -2382,7 +2376,7 @@
       <c r="C7" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2402,7 +2396,7 @@
       <c r="C8" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2422,7 +2416,7 @@
       <c r="C9" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2442,7 +2436,7 @@
       <c r="C10" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2453,16 +2447,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2473,16 +2467,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2493,16 +2487,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2513,16 +2507,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2533,16 +2527,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2553,16 +2547,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2573,16 +2567,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2593,16 +2587,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2613,16 +2607,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -2633,16 +2627,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2653,16 +2647,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -2673,16 +2667,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -2693,16 +2687,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -2713,16 +2707,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -2733,16 +2727,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -2753,16 +2747,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -2773,16 +2767,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -2793,16 +2787,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2813,16 +2807,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2833,16 +2827,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2853,16 +2847,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -2873,16 +2867,16 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2893,16 +2887,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -2913,16 +2907,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -2933,16 +2927,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -2953,16 +2947,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2973,16 +2967,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2993,16 +2987,16 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -3013,16 +3007,16 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -3033,16 +3027,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -3053,16 +3047,16 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -3073,16 +3067,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -3093,16 +3087,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -3113,16 +3107,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -3133,16 +3127,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -3153,16 +3147,16 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -3173,16 +3167,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -3193,16 +3187,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -3213,16 +3207,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -3233,16 +3227,16 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -3253,16 +3247,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -3273,16 +3267,16 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -3293,16 +3287,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -3313,16 +3307,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -3333,16 +3327,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -3353,16 +3347,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -3373,16 +3367,16 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -3393,16 +3387,16 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -3413,16 +3407,16 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -3433,16 +3427,16 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -3453,16 +3447,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -3473,16 +3467,16 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>124</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -3493,16 +3487,16 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>125</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -3513,16 +3507,16 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>126</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -3533,16 +3527,16 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -3553,16 +3547,16 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -3573,16 +3567,16 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -3593,16 +3587,16 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -3613,16 +3607,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>131</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -3633,16 +3627,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>132</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -3653,16 +3647,16 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -3673,16 +3667,16 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -3693,16 +3687,16 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -3713,16 +3707,16 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -3733,16 +3727,16 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>137</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -3753,16 +3747,16 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -3773,16 +3767,16 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -3793,16 +3787,16 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -3813,16 +3807,16 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -3833,16 +3827,16 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -3853,16 +3847,16 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -3873,16 +3867,16 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -3893,16 +3887,16 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -3913,16 +3907,16 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>146</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -3933,16 +3927,16 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B85" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -3953,16 +3947,16 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -3973,16 +3967,16 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -3993,16 +3987,16 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -4013,16 +4007,16 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -4033,16 +4027,16 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -4053,16 +4047,16 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="23" t="s">
         <v>153</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -4073,16 +4067,16 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -4093,16 +4087,16 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -4113,16 +4107,16 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -4133,16 +4127,16 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -4153,16 +4147,16 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -4173,16 +4167,16 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -4193,16 +4187,16 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -4213,16 +4207,16 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -4233,16 +4227,16 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -4253,16 +4247,16 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -4273,16 +4267,16 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -4293,16 +4287,16 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -4313,16 +4307,16 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -4333,16 +4327,16 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -4353,16 +4347,16 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -4373,16 +4367,16 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -4393,16 +4387,16 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -4413,16 +4407,16 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -4433,16 +4427,16 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -4453,16 +4447,16 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -4473,16 +4467,16 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="21">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -4493,16 +4487,16 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="21">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -4513,16 +4507,16 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="21">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -4533,16 +4527,16 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="21">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B115" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -4553,16 +4547,16 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="21">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -4573,16 +4567,16 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="21">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -4593,16 +4587,16 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="21">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -4613,16 +4607,16 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="21">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -4633,16 +4627,16 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="21">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -4653,16 +4647,16 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="21">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="14" t="s">
         <v>183</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -4673,16 +4667,16 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="21">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
         <v>184</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -4693,16 +4687,16 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="21">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>185</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -4713,16 +4707,16 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="21">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -4733,16 +4727,16 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="21">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>187</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -4753,16 +4747,16 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="21">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="14" t="s">
         <v>188</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -4773,16 +4767,16 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="21">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -4793,16 +4787,16 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="21">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -4813,16 +4807,16 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="21">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="14" t="s">
         <v>191</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -4833,16 +4827,16 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="21">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -4853,16 +4847,16 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="21">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="14" t="s">
         <v>193</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -4873,16 +4867,16 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="21">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -4893,16 +4887,16 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="21">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="14" t="s">
         <v>195</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -4913,16 +4907,16 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="21">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="14" t="s">
         <v>196</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -4933,16 +4927,16 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="21">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="14" t="s">
         <v>197</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -4953,16 +4947,16 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="21">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="14" t="s">
         <v>198</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D136" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -4973,16 +4967,16 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="21">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -4993,16 +4987,16 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="21">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="14" t="s">
         <v>200</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D138" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -5013,16 +5007,16 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="21">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="14" t="s">
         <v>201</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -5033,16 +5027,16 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="21">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="14" t="s">
         <v>202</v>
       </c>
       <c r="B140" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D140" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -5053,16 +5047,16 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="21">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="14" t="s">
         <v>203</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="D141" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -5073,16 +5067,16 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="21">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="14" t="s">
         <v>204</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D142" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -5093,16 +5087,16 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="21">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="14" t="s">
         <v>205</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D143" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -5113,16 +5107,16 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="21">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="14" t="s">
         <v>206</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="D144" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -5133,16 +5127,16 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="21">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="14" t="s">
         <v>207</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D145" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -5153,16 +5147,16 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="21">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -5173,16 +5167,16 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -5193,16 +5187,16 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -5213,16 +5207,16 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="14" t="s">
         <v>211</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -5233,16 +5227,16 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="14" t="s">
         <v>212</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D150" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -5253,16 +5247,16 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="14" t="s">
         <v>213</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -5273,16 +5267,16 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="21">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="14" t="s">
         <v>214</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -5293,16 +5287,16 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="21">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="14" t="s">
         <v>215</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -5313,16 +5307,16 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="21">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="18" t="s">
         <v>216</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="D154" s="21" t="s">
+      <c r="D154" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -5333,16 +5327,16 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="21">
-      <c r="A155" s="19" t="s">
+      <c r="A155" s="18" t="s">
         <v>217</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D155" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -5353,16 +5347,16 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="21">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="21" t="s">
+      <c r="D156" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -5373,16 +5367,16 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="21">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="14" t="s">
         <v>219</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -5393,16 +5387,16 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="21">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="14" t="s">
         <v>220</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D158" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -5413,16 +5407,16 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="21">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="14" t="s">
         <v>221</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E159" s="3" t="s">
@@ -5433,16 +5427,16 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="21">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -5453,16 +5447,16 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="21">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="14" t="s">
         <v>223</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D161" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -5473,16 +5467,16 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="21">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="14" t="s">
         <v>224</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E162" s="3" t="s">
@@ -5493,16 +5487,16 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="21">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="14" t="s">
         <v>225</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E163" s="3" t="s">
@@ -5513,16 +5507,16 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="21">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="14" t="s">
         <v>226</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D164" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -5533,16 +5527,16 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="21">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="14" t="s">
         <v>227</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -5553,16 +5547,16 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="21">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="14" t="s">
         <v>228</v>
       </c>
       <c r="B166" t="s">
         <v>12</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D166" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -5573,16 +5567,16 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="21">
-      <c r="A167" s="15" t="s">
+      <c r="A167" s="14" t="s">
         <v>229</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E167" s="3" t="s">
@@ -5593,16 +5587,16 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="21">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B168" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D168" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -5613,16 +5607,16 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="21">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="14" t="s">
         <v>230</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -5633,16 +5627,16 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="21">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="14" t="s">
         <v>231</v>
       </c>
       <c r="B170" t="s">
         <v>12</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D170" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E170" s="3" t="s">
@@ -5653,16 +5647,16 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="21">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="14" t="s">
         <v>232</v>
       </c>
       <c r="B171" t="s">
         <v>12</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C171" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -5673,16 +5667,16 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="21">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="14" t="s">
         <v>233</v>
       </c>
       <c r="B172" t="s">
         <v>12</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E172" s="3" t="s">
@@ -5693,16 +5687,16 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="21">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="14" t="s">
         <v>234</v>
       </c>
       <c r="B173" t="s">
         <v>12</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E173" s="3" t="s">
@@ -5713,16 +5707,16 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="21">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="14" t="s">
         <v>235</v>
       </c>
       <c r="B174" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="D174" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E174" s="3" t="s">
@@ -5733,16 +5727,16 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="21">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="14" t="s">
         <v>236</v>
       </c>
       <c r="B175" t="s">
         <v>12</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -5753,16 +5747,16 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="21">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="14" t="s">
         <v>237</v>
       </c>
       <c r="B176" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -5773,16 +5767,16 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="21">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="14" t="s">
         <v>238</v>
       </c>
       <c r="B177" t="s">
         <v>12</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D177" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E177" s="3" t="s">
@@ -5793,16 +5787,16 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="21">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="14" t="s">
         <v>239</v>
       </c>
       <c r="B178" t="s">
         <v>12</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E178" s="3" t="s">
@@ -5813,16 +5807,16 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="21">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="14" t="s">
         <v>240</v>
       </c>
       <c r="B179" t="s">
         <v>12</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D179" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E179" s="3" t="s">
@@ -5833,16 +5827,16 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="21">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="14" t="s">
         <v>241</v>
       </c>
       <c r="B180" t="s">
         <v>12</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D180" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E180" s="3" t="s">
@@ -5853,16 +5847,16 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="21">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="14" t="s">
         <v>242</v>
       </c>
       <c r="B181" t="s">
         <v>12</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -5873,16 +5867,16 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="21">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="14" t="s">
         <v>243</v>
       </c>
       <c r="B182" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D182" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E182" s="3" t="s">
@@ -5893,16 +5887,16 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="21">
-      <c r="A183" s="15" t="s">
+      <c r="A183" s="14" t="s">
         <v>244</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E183" s="3" t="s">
@@ -5913,16 +5907,16 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="21">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="14" t="s">
         <v>245</v>
       </c>
       <c r="B184" t="s">
         <v>12</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="D184" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E184" s="3" t="s">
@@ -5933,16 +5927,16 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="21">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B185" t="s">
         <v>12</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D185" s="14" t="s">
+      <c r="D185" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E185" s="3" t="s">
@@ -5953,16 +5947,16 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="21">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="14" t="s">
         <v>247</v>
       </c>
       <c r="B186" t="s">
         <v>12</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D186" s="14" t="s">
+      <c r="D186" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E186" s="3" t="s">
@@ -5973,16 +5967,16 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="21">
-      <c r="A187" s="19" t="s">
+      <c r="A187" s="18" t="s">
         <v>248</v>
       </c>
       <c r="B187" t="s">
         <v>12</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D187" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -5993,16 +5987,16 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="21">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="14" t="s">
         <v>249</v>
       </c>
       <c r="B188" t="s">
         <v>12</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="C188" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="D188" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E188" s="3" t="s">
@@ -6013,16 +6007,16 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="21">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="14" t="s">
         <v>250</v>
       </c>
       <c r="B189" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C189" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D189" s="14" t="s">
+      <c r="D189" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E189" s="3" t="s">
@@ -6033,16 +6027,16 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="21">
-      <c r="A190" s="15" t="s">
+      <c r="A190" s="14" t="s">
         <v>251</v>
       </c>
       <c r="B190" t="s">
         <v>12</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="C190" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D190" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E190" s="3" t="s">
@@ -6053,16 +6047,16 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="21">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="14" t="s">
         <v>252</v>
       </c>
       <c r="B191" t="s">
         <v>12</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="C191" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D191" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E191" s="3" t="s">
@@ -6073,16 +6067,16 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="21">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="14" t="s">
         <v>253</v>
       </c>
       <c r="B192" t="s">
         <v>12</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="D192" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E192" s="3" t="s">
@@ -6093,16 +6087,16 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="21">
-      <c r="A193" s="15" t="s">
+      <c r="A193" s="14" t="s">
         <v>254</v>
       </c>
       <c r="B193" t="s">
         <v>12</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="D193" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E193" s="3" t="s">
@@ -6113,16 +6107,16 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="21">
-      <c r="A194" s="15" t="s">
+      <c r="A194" s="14" t="s">
         <v>255</v>
       </c>
       <c r="B194" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C194" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D194" s="14" t="s">
+      <c r="D194" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E194" s="3" t="s">
@@ -6133,16 +6127,16 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="21">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="14" t="s">
         <v>256</v>
       </c>
       <c r="B195" t="s">
         <v>12</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C195" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="D195" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E195" s="3" t="s">
@@ -6153,16 +6147,16 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="21">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="14" t="s">
         <v>257</v>
       </c>
       <c r="B196" t="s">
         <v>12</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C196" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D196" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E196" s="3" t="s">
@@ -6173,16 +6167,16 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="21">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B197" t="s">
         <v>12</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D197" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E197" s="3" t="s">
@@ -6193,16 +6187,16 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="21">
-      <c r="A198" s="15" t="s">
+      <c r="A198" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B198" t="s">
         <v>12</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D198" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E198" s="3" t="s">
@@ -6213,16 +6207,16 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="21">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="14" t="s">
         <v>260</v>
       </c>
       <c r="B199" t="s">
         <v>12</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C199" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D199" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E199" s="3" t="s">
@@ -6233,16 +6227,16 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="21">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="14" t="s">
         <v>261</v>
       </c>
       <c r="B200" t="s">
         <v>12</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D200" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E200" s="3" t="s">
@@ -6253,16 +6247,16 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="21">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="14" t="s">
         <v>262</v>
       </c>
       <c r="B201" t="s">
         <v>12</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C201" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D201" s="14" t="s">
+      <c r="D201" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E201" s="3" t="s">
@@ -6273,16 +6267,16 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="21">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="14" t="s">
         <v>263</v>
       </c>
       <c r="B202" t="s">
         <v>12</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="C202" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D202" s="14" t="s">
+      <c r="D202" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E202" s="3" t="s">
@@ -6293,16 +6287,16 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="21">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="14" t="s">
         <v>264</v>
       </c>
       <c r="B203" t="s">
         <v>12</v>
       </c>
-      <c r="C203" s="13" t="s">
+      <c r="C203" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D203" s="14" t="s">
+      <c r="D203" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E203" s="3" t="s">
@@ -6313,16 +6307,16 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="21">
-      <c r="A204" s="15" t="s">
+      <c r="A204" s="14" t="s">
         <v>265</v>
       </c>
       <c r="B204" t="s">
         <v>12</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E204" s="3" t="s">
@@ -6333,16 +6327,16 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="21">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="14" t="s">
         <v>266</v>
       </c>
       <c r="B205" t="s">
         <v>12</v>
       </c>
-      <c r="C205" s="13" t="s">
+      <c r="C205" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D205" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E205" s="3" t="s">
@@ -6353,16 +6347,16 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="21">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="18" t="s">
         <v>267</v>
       </c>
       <c r="B206" t="s">
         <v>12</v>
       </c>
-      <c r="C206" s="13" t="s">
+      <c r="C206" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="D206" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E206" s="3" t="s">
@@ -6373,16 +6367,16 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="21">
-      <c r="A207" s="19" t="s">
+      <c r="A207" s="18" t="s">
         <v>268</v>
       </c>
       <c r="B207" t="s">
         <v>12</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="D207" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E207" s="3" t="s">
@@ -6393,16 +6387,16 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="21">
-      <c r="A208" s="19" t="s">
+      <c r="A208" s="18" t="s">
         <v>269</v>
       </c>
       <c r="B208" t="s">
         <v>12</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="C208" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D208" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E208" s="3" t="s">
@@ -6413,16 +6407,16 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="21">
-      <c r="A209" s="15" t="s">
+      <c r="A209" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B209" t="s">
         <v>12</v>
       </c>
-      <c r="C209" s="13" t="s">
+      <c r="C209" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="D209" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E209" s="3" t="s">
@@ -6433,16 +6427,16 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="21">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="14" t="s">
         <v>271</v>
       </c>
       <c r="B210" t="s">
         <v>12</v>
       </c>
-      <c r="C210" s="13" t="s">
+      <c r="C210" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D210" s="14" t="s">
+      <c r="D210" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E210" s="3" t="s">
@@ -6453,16 +6447,16 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="21">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="14" t="s">
         <v>272</v>
       </c>
       <c r="B211" t="s">
         <v>12</v>
       </c>
-      <c r="C211" s="13" t="s">
+      <c r="C211" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="D211" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E211" s="3" t="s">
@@ -6473,16 +6467,16 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="21">
-      <c r="A212" s="15" t="s">
+      <c r="A212" s="14" t="s">
         <v>273</v>
       </c>
       <c r="B212" t="s">
         <v>12</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="C212" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D212" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E212" s="3" t="s">
@@ -6493,16 +6487,16 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="21">
-      <c r="A213" s="15" t="s">
+      <c r="A213" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B213" t="s">
         <v>12</v>
       </c>
-      <c r="C213" s="13" t="s">
+      <c r="C213" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D213" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E213" s="3" t="s">
@@ -6513,16 +6507,16 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="21">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="14" t="s">
         <v>275</v>
       </c>
       <c r="B214" t="s">
         <v>12</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C214" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D214" s="14" t="s">
+      <c r="D214" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E214" s="3" t="s">
@@ -6533,16 +6527,16 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="21">
-      <c r="A215" s="15" t="s">
+      <c r="A215" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="C215" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="D215" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E215" s="3" t="s">
@@ -6553,16 +6547,16 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="21">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="14" t="s">
         <v>277</v>
       </c>
       <c r="B216" t="s">
         <v>12</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="C216" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="D216" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E216" s="3" t="s">
@@ -6573,16 +6567,16 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="21">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B217" t="s">
         <v>12</v>
       </c>
-      <c r="C217" s="13" t="s">
+      <c r="C217" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D217" s="14" t="s">
+      <c r="D217" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E217" s="3" t="s">
@@ -6593,16 +6587,16 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="21">
-      <c r="A218" s="15" t="s">
+      <c r="A218" s="14" t="s">
         <v>279</v>
       </c>
       <c r="B218" t="s">
         <v>12</v>
       </c>
-      <c r="C218" s="13" t="s">
+      <c r="C218" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D218" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E218" s="3" t="s">
@@ -6613,16 +6607,16 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="21">
-      <c r="A219" s="15" t="s">
+      <c r="A219" s="14" t="s">
         <v>280</v>
       </c>
       <c r="B219" t="s">
         <v>12</v>
       </c>
-      <c r="C219" s="13" t="s">
+      <c r="C219" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D219" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E219" s="3" t="s">
@@ -6633,16 +6627,16 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="21">
-      <c r="A220" s="15" t="s">
+      <c r="A220" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B220" t="s">
         <v>12</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C220" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="D220" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E220" s="3" t="s">
@@ -6653,16 +6647,16 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="21">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="14" t="s">
         <v>282</v>
       </c>
       <c r="B221" t="s">
         <v>12</v>
       </c>
-      <c r="C221" s="13" t="s">
+      <c r="C221" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D221" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E221" s="3" t="s">
@@ -6673,16 +6667,16 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="21">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="14" t="s">
         <v>283</v>
       </c>
       <c r="B222" t="s">
         <v>12</v>
       </c>
-      <c r="C222" s="13" t="s">
+      <c r="C222" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D222" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E222" s="3" t="s">
@@ -6693,16 +6687,16 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="21">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="14" t="s">
         <v>284</v>
       </c>
       <c r="B223" t="s">
         <v>12</v>
       </c>
-      <c r="C223" s="13" t="s">
+      <c r="C223" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="D223" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E223" s="3" t="s">
@@ -6713,16 +6707,16 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="21">
-      <c r="A224" s="15" t="s">
+      <c r="A224" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B224" t="s">
         <v>12</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="C224" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D224" s="14" t="s">
+      <c r="D224" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E224" s="3" t="s">
@@ -6733,16 +6727,16 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="21">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="14" t="s">
         <v>286</v>
       </c>
       <c r="B225" t="s">
         <v>12</v>
       </c>
-      <c r="C225" s="13" t="s">
+      <c r="C225" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="D225" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E225" s="3" t="s">
@@ -6753,16 +6747,16 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="21">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="14" t="s">
         <v>287</v>
       </c>
       <c r="B226" t="s">
         <v>12</v>
       </c>
-      <c r="C226" s="13" t="s">
+      <c r="C226" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D226" s="14" t="s">
+      <c r="D226" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E226" s="3" t="s">
@@ -6773,16 +6767,16 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="21">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="14" t="s">
         <v>288</v>
       </c>
       <c r="B227" t="s">
         <v>12</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="C227" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="D227" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E227" s="3" t="s">
@@ -6793,16 +6787,16 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="21">
-      <c r="A228" s="15" t="s">
+      <c r="A228" s="14" t="s">
         <v>289</v>
       </c>
       <c r="B228" t="s">
         <v>12</v>
       </c>
-      <c r="C228" s="13" t="s">
+      <c r="C228" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D228" s="14" t="s">
+      <c r="D228" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="3" t="s">
@@ -6813,16 +6807,16 @@
       </c>
     </row>
     <row r="229" spans="1:6" ht="21">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="14" t="s">
         <v>290</v>
       </c>
       <c r="B229" t="s">
         <v>12</v>
       </c>
-      <c r="C229" s="13" t="s">
+      <c r="C229" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D229" s="14" t="s">
+      <c r="D229" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E229" s="3" t="s">
@@ -6833,16 +6827,16 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="21">
-      <c r="A230" s="15" t="s">
+      <c r="A230" s="14" t="s">
         <v>291</v>
       </c>
       <c r="B230" t="s">
         <v>12</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="C230" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D230" s="14" t="s">
+      <c r="D230" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -6853,16 +6847,16 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="21">
-      <c r="A231" s="15" t="s">
+      <c r="A231" s="14" t="s">
         <v>292</v>
       </c>
       <c r="B231" t="s">
         <v>12</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="C231" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D231" s="14" t="s">
+      <c r="D231" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E231" s="3" t="s">
@@ -6873,16 +6867,16 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="21">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="14" t="s">
         <v>293</v>
       </c>
       <c r="B232" t="s">
         <v>12</v>
       </c>
-      <c r="C232" s="13" t="s">
+      <c r="C232" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D232" s="14" t="s">
+      <c r="D232" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E232" s="3" t="s">
@@ -6893,16 +6887,16 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="21">
-      <c r="A233" s="15" t="s">
+      <c r="A233" s="14" t="s">
         <v>294</v>
       </c>
       <c r="B233" t="s">
         <v>12</v>
       </c>
-      <c r="C233" s="13" t="s">
+      <c r="C233" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D233" s="14" t="s">
+      <c r="D233" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E233" s="3" t="s">
@@ -6913,16 +6907,16 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="21">
-      <c r="A234" s="15" t="s">
+      <c r="A234" s="14" t="s">
         <v>295</v>
       </c>
       <c r="B234" t="s">
         <v>12</v>
       </c>
-      <c r="C234" s="13" t="s">
+      <c r="C234" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D234" s="14" t="s">
+      <c r="D234" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E234" s="3" t="s">
@@ -6933,16 +6927,16 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="21">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B235" t="s">
         <v>12</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="C235" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D235" s="14" t="s">
+      <c r="D235" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E235" s="3" t="s">
@@ -6953,16 +6947,16 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="21">
-      <c r="A236" s="15" t="s">
+      <c r="A236" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B236" t="s">
         <v>12</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C236" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="D236" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E236" s="3" t="s">
@@ -6973,16 +6967,16 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="21">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B237" t="s">
         <v>12</v>
       </c>
-      <c r="C237" s="13" t="s">
+      <c r="C237" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D237" s="14" t="s">
+      <c r="D237" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E237" s="3" t="s">
@@ -6993,16 +6987,16 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="25" t="s">
         <v>299</v>
       </c>
       <c r="B238" t="s">
         <v>12</v>
       </c>
-      <c r="C238" s="13" t="s">
+      <c r="C238" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D238" s="14" t="s">
+      <c r="D238" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -7013,16 +7007,16 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="21">
-      <c r="A239" s="15" t="s">
+      <c r="A239" s="14" t="s">
         <v>300</v>
       </c>
       <c r="B239" t="s">
         <v>12</v>
       </c>
-      <c r="C239" s="13" t="s">
+      <c r="C239" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D239" s="14" t="s">
+      <c r="D239" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E239" s="3" t="s">
@@ -7033,16 +7027,16 @@
       </c>
     </row>
     <row r="240" spans="1:6" ht="21">
-      <c r="A240" s="15" t="s">
+      <c r="A240" s="14" t="s">
         <v>301</v>
       </c>
       <c r="B240" t="s">
         <v>12</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="C240" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D240" s="14" t="s">
+      <c r="D240" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -7053,16 +7047,16 @@
       </c>
     </row>
     <row r="241" spans="1:6" ht="21">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="14" t="s">
         <v>302</v>
       </c>
       <c r="B241" t="s">
         <v>12</v>
       </c>
-      <c r="C241" s="13" t="s">
+      <c r="C241" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D241" s="14" t="s">
+      <c r="D241" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E241" s="3" t="s">
@@ -7073,16 +7067,16 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="21">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B242" t="s">
         <v>12</v>
       </c>
-      <c r="C242" s="13" t="s">
+      <c r="C242" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D242" s="14" t="s">
+      <c r="D242" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E242" s="3" t="s">
@@ -7093,16 +7087,16 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="21">
-      <c r="A243" s="15" t="s">
+      <c r="A243" s="14" t="s">
         <v>304</v>
       </c>
       <c r="B243" t="s">
         <v>12</v>
       </c>
-      <c r="C243" s="13" t="s">
+      <c r="C243" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D243" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E243" s="3" t="s">
@@ -7113,16 +7107,16 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="21">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="14" t="s">
         <v>305</v>
       </c>
       <c r="B244" t="s">
         <v>12</v>
       </c>
-      <c r="C244" s="13" t="s">
+      <c r="C244" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="D244" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E244" s="3" t="s">
@@ -7133,16 +7127,16 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="21">
-      <c r="A245" s="19" t="s">
+      <c r="A245" s="18" t="s">
         <v>306</v>
       </c>
       <c r="B245" t="s">
         <v>12</v>
       </c>
-      <c r="C245" s="13" t="s">
+      <c r="C245" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D245" s="14" t="s">
+      <c r="D245" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E245" s="3" t="s">
@@ -7153,16 +7147,16 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="21">
-      <c r="A246" s="19" t="s">
+      <c r="A246" s="18" t="s">
         <v>307</v>
       </c>
       <c r="B246" t="s">
         <v>12</v>
       </c>
-      <c r="C246" s="13" t="s">
+      <c r="C246" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D246" s="14" t="s">
+      <c r="D246" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E246" s="3" t="s">
@@ -7173,16 +7167,16 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="21">
-      <c r="A247" s="19" t="s">
+      <c r="A247" s="18" t="s">
         <v>308</v>
       </c>
       <c r="B247" t="s">
         <v>12</v>
       </c>
-      <c r="C247" s="13" t="s">
+      <c r="C247" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D247" s="14" t="s">
+      <c r="D247" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E247" s="3" t="s">
@@ -7193,16 +7187,16 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="21">
-      <c r="A248" s="19" t="s">
+      <c r="A248" s="18" t="s">
         <v>309</v>
       </c>
       <c r="B248" t="s">
         <v>12</v>
       </c>
-      <c r="C248" s="13" t="s">
+      <c r="C248" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D248" s="14" t="s">
+      <c r="D248" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E248" s="3" t="s">
@@ -7213,16 +7207,16 @@
       </c>
     </row>
     <row r="249" spans="1:6" ht="21">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="14" t="s">
         <v>310</v>
       </c>
       <c r="B249" t="s">
         <v>12</v>
       </c>
-      <c r="C249" s="13" t="s">
+      <c r="C249" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D249" s="14" t="s">
+      <c r="D249" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E249" s="3" t="s">
@@ -7233,16 +7227,16 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="21">
-      <c r="A250" s="15" t="s">
+      <c r="A250" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B250" t="s">
         <v>12</v>
       </c>
-      <c r="C250" s="13" t="s">
+      <c r="C250" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D250" s="14" t="s">
+      <c r="D250" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E250" s="3" t="s">
@@ -7253,16 +7247,16 @@
       </c>
     </row>
     <row r="251" spans="1:6" ht="21">
-      <c r="A251" s="15" t="s">
+      <c r="A251" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B251" t="s">
         <v>12</v>
       </c>
-      <c r="C251" s="13" t="s">
+      <c r="C251" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D251" s="14" t="s">
+      <c r="D251" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E251" s="3" t="s">
@@ -7273,16 +7267,16 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="21">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B252" t="s">
         <v>12</v>
       </c>
-      <c r="C252" s="13" t="s">
+      <c r="C252" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D252" s="14" t="s">
+      <c r="D252" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E252" s="3" t="s">
@@ -7293,16 +7287,16 @@
       </c>
     </row>
     <row r="253" spans="1:6" ht="21">
-      <c r="A253" s="15" t="s">
+      <c r="A253" s="14" t="s">
         <v>314</v>
       </c>
       <c r="B253" t="s">
         <v>12</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="C253" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D253" s="14" t="s">
+      <c r="D253" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E253" s="3" t="s">
@@ -7313,16 +7307,16 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="21">
-      <c r="A254" s="19" t="s">
+      <c r="A254" s="18" t="s">
         <v>315</v>
       </c>
       <c r="B254" t="s">
         <v>12</v>
       </c>
-      <c r="C254" s="13" t="s">
+      <c r="C254" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D254" s="14" t="s">
+      <c r="D254" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E254" s="3" t="s">
@@ -7333,16 +7327,16 @@
       </c>
     </row>
     <row r="255" spans="1:6" ht="21">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B255" t="s">
         <v>12</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C255" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D255" s="14" t="s">
+      <c r="D255" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E255" s="3" t="s">
@@ -7353,16 +7347,16 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="21">
-      <c r="A256" s="19" t="s">
+      <c r="A256" s="18" t="s">
         <v>317</v>
       </c>
       <c r="B256" t="s">
         <v>12</v>
       </c>
-      <c r="C256" s="13" t="s">
+      <c r="C256" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D256" s="14" t="s">
+      <c r="D256" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E256" s="3" t="s">
@@ -7373,16 +7367,16 @@
       </c>
     </row>
     <row r="257" spans="1:6" ht="21">
-      <c r="A257" s="26" t="s">
+      <c r="A257" s="25" t="s">
         <v>318</v>
       </c>
       <c r="B257" t="s">
         <v>12</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="C257" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D257" s="14" t="s">
+      <c r="D257" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E257" s="3" t="s">
@@ -7393,16 +7387,16 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="21">
-      <c r="A258" s="19" t="s">
+      <c r="A258" s="18" t="s">
         <v>319</v>
       </c>
       <c r="B258" t="s">
         <v>12</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="C258" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D258" s="14" t="s">
+      <c r="D258" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E258" s="3" t="s">
@@ -7413,16 +7407,16 @@
       </c>
     </row>
     <row r="259" spans="1:6" ht="21">
-      <c r="A259" s="19" t="s">
+      <c r="A259" s="18" t="s">
         <v>320</v>
       </c>
       <c r="B259" t="s">
         <v>12</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="C259" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D259" s="14" t="s">
+      <c r="D259" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E259" s="3" t="s">
@@ -7433,16 +7427,16 @@
       </c>
     </row>
     <row r="260" spans="1:6" ht="21">
-      <c r="A260" s="26" t="s">
+      <c r="A260" s="25" t="s">
         <v>321</v>
       </c>
       <c r="B260" t="s">
         <v>12</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="C260" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D260" s="14" t="s">
+      <c r="D260" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E260" s="3" t="s">
@@ -7453,16 +7447,16 @@
       </c>
     </row>
     <row r="261" spans="1:6" ht="21">
-      <c r="A261" s="26" t="s">
+      <c r="A261" s="25" t="s">
         <v>322</v>
       </c>
       <c r="B261" t="s">
         <v>12</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="C261" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D261" s="14" t="s">
+      <c r="D261" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E261" s="3" t="s">
@@ -7473,16 +7467,16 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="21">
-      <c r="A262" s="15" t="s">
+      <c r="A262" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B262" t="s">
         <v>12</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="C262" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D262" s="14" t="s">
+      <c r="D262" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E262" s="3" t="s">
@@ -7493,16 +7487,16 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="21">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B263" t="s">
         <v>12</v>
       </c>
-      <c r="C263" s="13" t="s">
+      <c r="C263" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D263" s="14" t="s">
+      <c r="D263" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E263" s="3" t="s">
@@ -7513,16 +7507,16 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="21">
-      <c r="A264" s="15" t="s">
+      <c r="A264" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B264" t="s">
         <v>12</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="C264" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D264" s="14" t="s">
+      <c r="D264" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E264" s="3" t="s">
@@ -7533,16 +7527,16 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="21">
-      <c r="A265" s="15" t="s">
+      <c r="A265" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B265" t="s">
         <v>12</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="C265" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D265" s="14" t="s">
+      <c r="D265" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E265" s="3" t="s">
@@ -7553,16 +7547,16 @@
       </c>
     </row>
     <row r="266" spans="1:6" ht="21">
-      <c r="A266" s="15" t="s">
+      <c r="A266" s="14" t="s">
         <v>327</v>
       </c>
       <c r="B266" t="s">
         <v>12</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="C266" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="14" t="s">
+      <c r="D266" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E266" s="3" t="s">
@@ -7573,16 +7567,16 @@
       </c>
     </row>
     <row r="267" spans="1:6" ht="21">
-      <c r="A267" s="15" t="s">
+      <c r="A267" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B267" t="s">
         <v>12</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="C267" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D267" s="14" t="s">
+      <c r="D267" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E267" s="3" t="s">
@@ -7593,16 +7587,16 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="21">
-      <c r="A268" s="15" t="s">
+      <c r="A268" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B268" t="s">
         <v>12</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="C268" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D268" s="14" t="s">
+      <c r="D268" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E268" s="3" t="s">
@@ -7613,16 +7607,16 @@
       </c>
     </row>
     <row r="269" spans="1:6" ht="21">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="14" t="s">
         <v>330</v>
       </c>
       <c r="B269" t="s">
         <v>12</v>
       </c>
-      <c r="C269" s="13" t="s">
+      <c r="C269" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D269" s="14" t="s">
+      <c r="D269" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E269" s="3" t="s">
@@ -7633,16 +7627,16 @@
       </c>
     </row>
     <row r="270" spans="1:6" ht="21">
-      <c r="A270" s="15" t="s">
+      <c r="A270" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B270" t="s">
         <v>12</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D270" s="14" t="s">
+      <c r="D270" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E270" s="3" t="s">
@@ -7653,16 +7647,16 @@
       </c>
     </row>
     <row r="271" spans="1:6" ht="21">
-      <c r="A271" s="15" t="s">
+      <c r="A271" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B271" t="s">
         <v>12</v>
       </c>
-      <c r="C271" s="13" t="s">
+      <c r="C271" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D271" s="14" t="s">
+      <c r="D271" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E271" s="3" t="s">
@@ -7673,16 +7667,16 @@
       </c>
     </row>
     <row r="272" spans="1:6" ht="21">
-      <c r="A272" s="15" t="s">
+      <c r="A272" s="14" t="s">
         <v>333</v>
       </c>
       <c r="B272" t="s">
         <v>12</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D272" s="14" t="s">
+      <c r="D272" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E272" s="3" t="s">
@@ -7693,16 +7687,16 @@
       </c>
     </row>
     <row r="273" spans="1:6" ht="21">
-      <c r="A273" s="16" t="s">
+      <c r="A273" s="15" t="s">
         <v>334</v>
       </c>
       <c r="B273" t="s">
         <v>12</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D273" s="18" t="s">
+      <c r="D273" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E273" s="3" t="s">
@@ -7713,16 +7707,16 @@
       </c>
     </row>
     <row r="274" spans="1:6" ht="21">
-      <c r="A274" s="16" t="s">
+      <c r="A274" s="15" t="s">
         <v>335</v>
       </c>
       <c r="B274" t="s">
         <v>12</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="D274" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E274" s="3" t="s">
@@ -7733,16 +7727,16 @@
       </c>
     </row>
     <row r="275" spans="1:6" ht="21">
-      <c r="A275" s="16" t="s">
+      <c r="A275" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B275" t="s">
         <v>12</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C275" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D275" s="18" t="s">
+      <c r="D275" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E275" s="3" t="s">
@@ -7753,16 +7747,16 @@
       </c>
     </row>
     <row r="276" spans="1:6" ht="21">
-      <c r="A276" s="16" t="s">
+      <c r="A276" s="15" t="s">
         <v>337</v>
       </c>
       <c r="B276" t="s">
         <v>12</v>
       </c>
-      <c r="C276" s="17" t="s">
+      <c r="C276" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="D276" s="18" t="s">
+      <c r="D276" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E276" s="3" t="s">
@@ -7773,16 +7767,16 @@
       </c>
     </row>
     <row r="277" spans="1:6" ht="21">
-      <c r="A277" s="16" t="s">
+      <c r="A277" s="15" t="s">
         <v>338</v>
       </c>
       <c r="B277" t="s">
         <v>12</v>
       </c>
-      <c r="C277" s="17" t="s">
+      <c r="C277" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="D277" s="18" t="s">
+      <c r="D277" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E277" s="3" t="s">
@@ -7793,16 +7787,16 @@
       </c>
     </row>
     <row r="278" spans="1:6" ht="21">
-      <c r="A278" s="16" t="s">
+      <c r="A278" s="15" t="s">
         <v>339</v>
       </c>
       <c r="B278" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="17" t="s">
+      <c r="C278" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D278" s="18" t="s">
+      <c r="D278" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E278" s="3" t="s">
@@ -7813,16 +7807,16 @@
       </c>
     </row>
     <row r="279" spans="1:6" ht="21">
-      <c r="A279" s="16" t="s">
+      <c r="A279" s="15" t="s">
         <v>340</v>
       </c>
       <c r="B279" t="s">
         <v>12</v>
       </c>
-      <c r="C279" s="17" t="s">
+      <c r="C279" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D279" s="18" t="s">
+      <c r="D279" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E279" s="3" t="s">
@@ -7833,16 +7827,16 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="21">
-      <c r="A280" s="16" t="s">
+      <c r="A280" s="15" t="s">
         <v>341</v>
       </c>
       <c r="B280" t="s">
         <v>12</v>
       </c>
-      <c r="C280" s="17" t="s">
+      <c r="C280" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="D280" s="18" t="s">
+      <c r="D280" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E280" s="3" t="s">
@@ -7853,16 +7847,16 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="21">
-      <c r="A281" s="16" t="s">
+      <c r="A281" s="15" t="s">
         <v>342</v>
       </c>
       <c r="B281" t="s">
         <v>12</v>
       </c>
-      <c r="C281" s="17" t="s">
+      <c r="C281" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D281" s="18" t="s">
+      <c r="D281" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E281" s="3" t="s">
@@ -7873,16 +7867,16 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="21">
-      <c r="A282" s="16" t="s">
+      <c r="A282" s="15" t="s">
         <v>343</v>
       </c>
       <c r="B282" t="s">
         <v>12</v>
       </c>
-      <c r="C282" s="17" t="s">
+      <c r="C282" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D282" s="18" t="s">
+      <c r="D282" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E282" s="3" t="s">
@@ -7893,16 +7887,16 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="21">
-      <c r="A283" s="16" t="s">
+      <c r="A283" s="15" t="s">
         <v>344</v>
       </c>
       <c r="B283" t="s">
         <v>12</v>
       </c>
-      <c r="C283" s="17" t="s">
+      <c r="C283" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="D283" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E283" s="3" t="s">
@@ -7913,16 +7907,16 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="21">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="14" t="s">
         <v>345</v>
       </c>
       <c r="B284" t="s">
         <v>12</v>
       </c>
-      <c r="C284" s="13" t="s">
+      <c r="C284" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D284" s="14" t="s">
+      <c r="D284" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E284" s="3" t="s">
@@ -7933,16 +7927,16 @@
       </c>
     </row>
     <row r="285" spans="1:6" ht="21">
-      <c r="A285" s="19" t="s">
+      <c r="A285" s="18" t="s">
         <v>346</v>
       </c>
       <c r="B285" t="s">
         <v>12</v>
       </c>
-      <c r="C285" s="13" t="s">
+      <c r="C285" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D285" s="14" t="s">
+      <c r="D285" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E285" s="3" t="s">
@@ -7953,16 +7947,16 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="21">
-      <c r="A286" s="19" t="s">
+      <c r="A286" s="18" t="s">
         <v>347</v>
       </c>
       <c r="B286" t="s">
         <v>12</v>
       </c>
-      <c r="C286" s="13" t="s">
+      <c r="C286" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D286" s="14" t="s">
+      <c r="D286" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E286" s="3" t="s">
@@ -7973,16 +7967,16 @@
       </c>
     </row>
     <row r="287" spans="1:6" ht="21">
-      <c r="A287" s="19" t="s">
+      <c r="A287" s="18" t="s">
         <v>348</v>
       </c>
       <c r="B287" t="s">
         <v>12</v>
       </c>
-      <c r="C287" s="13" t="s">
+      <c r="C287" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D287" s="14" t="s">
+      <c r="D287" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E287" s="3" t="s">
@@ -7993,16 +7987,16 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="21">
-      <c r="A288" s="15" t="s">
+      <c r="A288" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B288" t="s">
         <v>12</v>
       </c>
-      <c r="C288" s="13" t="s">
+      <c r="C288" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D288" s="14" t="s">
+      <c r="D288" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E288" s="3" t="s">
@@ -8013,16 +8007,16 @@
       </c>
     </row>
     <row r="289" spans="1:6" ht="21">
-      <c r="A289" s="15" t="s">
+      <c r="A289" s="14" t="s">
         <v>350</v>
       </c>
       <c r="B289" t="s">
         <v>12</v>
       </c>
-      <c r="C289" s="13" t="s">
+      <c r="C289" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D289" s="14" t="s">
+      <c r="D289" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E289" s="3" t="s">
@@ -8033,16 +8027,16 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="21">
-      <c r="A290" s="15" t="s">
+      <c r="A290" s="14" t="s">
         <v>351</v>
       </c>
       <c r="B290" t="s">
         <v>12</v>
       </c>
-      <c r="C290" s="13" t="s">
+      <c r="C290" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D290" s="14" t="s">
+      <c r="D290" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E290" s="3" t="s">
@@ -8053,16 +8047,16 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="21">
-      <c r="A291" s="15" t="s">
+      <c r="A291" s="14" t="s">
         <v>352</v>
       </c>
       <c r="B291" t="s">
         <v>12</v>
       </c>
-      <c r="C291" s="13" t="s">
+      <c r="C291" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D291" s="14" t="s">
+      <c r="D291" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E291" s="3" t="s">
@@ -8073,16 +8067,16 @@
       </c>
     </row>
     <row r="292" spans="1:6" ht="21">
-      <c r="A292" s="15" t="s">
+      <c r="A292" s="14" t="s">
         <v>353</v>
       </c>
       <c r="B292" t="s">
         <v>12</v>
       </c>
-      <c r="C292" s="13" t="s">
+      <c r="C292" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D292" s="14" t="s">
+      <c r="D292" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E292" s="3" t="s">
@@ -8093,16 +8087,16 @@
       </c>
     </row>
     <row r="293" spans="1:6" ht="21">
-      <c r="A293" s="15" t="s">
+      <c r="A293" s="14" t="s">
         <v>354</v>
       </c>
       <c r="B293" t="s">
         <v>12</v>
       </c>
-      <c r="C293" s="13" t="s">
+      <c r="C293" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D293" s="14" t="s">
+      <c r="D293" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E293" s="3" t="s">
@@ -8113,16 +8107,16 @@
       </c>
     </row>
     <row r="294" spans="1:6" ht="21">
-      <c r="A294" s="15" t="s">
+      <c r="A294" s="14" t="s">
         <v>355</v>
       </c>
       <c r="B294" t="s">
         <v>12</v>
       </c>
-      <c r="C294" s="13" t="s">
+      <c r="C294" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D294" s="14" t="s">
+      <c r="D294" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E294" s="3" t="s">
@@ -8133,16 +8127,16 @@
       </c>
     </row>
     <row r="295" spans="1:6" ht="21">
-      <c r="A295" s="15" t="s">
+      <c r="A295" s="14" t="s">
         <v>356</v>
       </c>
       <c r="B295" t="s">
         <v>12</v>
       </c>
-      <c r="C295" s="13" t="s">
+      <c r="C295" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D295" s="14" t="s">
+      <c r="D295" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E295" s="3" t="s">
@@ -8153,16 +8147,16 @@
       </c>
     </row>
     <row r="296" spans="1:6" ht="21">
-      <c r="A296" s="15" t="s">
+      <c r="A296" s="14" t="s">
         <v>357</v>
       </c>
       <c r="B296" t="s">
         <v>12</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="C296" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D296" s="14" t="s">
+      <c r="D296" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E296" s="3" t="s">
@@ -8173,16 +8167,16 @@
       </c>
     </row>
     <row r="297" spans="1:6" ht="21">
-      <c r="A297" s="15" t="s">
+      <c r="A297" s="14" t="s">
         <v>358</v>
       </c>
       <c r="B297" t="s">
         <v>12</v>
       </c>
-      <c r="C297" s="13" t="s">
+      <c r="C297" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D297" s="14" t="s">
+      <c r="D297" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E297" s="3" t="s">
@@ -8193,16 +8187,16 @@
       </c>
     </row>
     <row r="298" spans="1:6" ht="30.6">
-      <c r="A298" s="22" t="s">
+      <c r="A298" s="21" t="s">
         <v>359</v>
       </c>
       <c r="B298" t="s">
         <v>12</v>
       </c>
-      <c r="C298" s="23" t="s">
+      <c r="C298" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D298" s="14" t="s">
+      <c r="D298" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E298" s="3" t="s">
@@ -8213,16 +8207,16 @@
       </c>
     </row>
     <row r="299" spans="1:6" ht="21">
-      <c r="A299" s="15" t="s">
+      <c r="A299" s="14" t="s">
         <v>360</v>
       </c>
       <c r="B299" t="s">
         <v>12</v>
       </c>
-      <c r="C299" s="13" t="s">
+      <c r="C299" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D299" s="14" t="s">
+      <c r="D299" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E299" s="3" t="s">
@@ -8233,16 +8227,16 @@
       </c>
     </row>
     <row r="300" spans="1:6" ht="21">
-      <c r="A300" s="15" t="s">
+      <c r="A300" s="14" t="s">
         <v>393</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C300" s="23" t="s">
+      <c r="C300" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D300" s="14" t="s">
+      <c r="D300" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E300" s="3" t="s">
@@ -8253,16 +8247,16 @@
       </c>
     </row>
     <row r="301" spans="1:6" ht="21">
-      <c r="A301" s="15" t="s">
+      <c r="A301" s="14" t="s">
         <v>396</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C301" s="13" t="s">
+      <c r="C301" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D301" s="14" t="s">
+      <c r="D301" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E301" s="3" t="s">
@@ -8273,16 +8267,16 @@
       </c>
     </row>
     <row r="302" spans="1:6" ht="21">
-      <c r="A302" s="15" t="s">
+      <c r="A302" s="14" t="s">
         <v>397</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C302" s="23" t="s">
+      <c r="C302" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D302" s="14" t="s">
+      <c r="D302" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E302" s="3" t="s">
@@ -8293,16 +8287,16 @@
       </c>
     </row>
     <row r="303" spans="1:6" ht="21">
-      <c r="A303" s="15" t="s">
+      <c r="A303" s="14" t="s">
         <v>398</v>
       </c>
       <c r="B303" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C303" s="13" t="s">
+      <c r="C303" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D303" s="14" t="s">
+      <c r="D303" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E303" s="3" t="s">
@@ -8313,16 +8307,16 @@
       </c>
     </row>
     <row r="304" spans="1:6" ht="21">
-      <c r="A304" s="15" t="s">
+      <c r="A304" s="14" t="s">
         <v>399</v>
       </c>
       <c r="B304" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C304" s="23" t="s">
+      <c r="C304" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D304" s="14" t="s">
+      <c r="D304" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E304" s="3" t="s">
@@ -8333,16 +8327,16 @@
       </c>
     </row>
     <row r="305" spans="1:6" ht="21">
-      <c r="A305" s="15" t="s">
+      <c r="A305" s="14" t="s">
         <v>400</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C305" s="13" t="s">
+      <c r="C305" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D305" s="14" t="s">
+      <c r="D305" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E305" s="3" t="s">
@@ -8353,16 +8347,16 @@
       </c>
     </row>
     <row r="306" spans="1:6" ht="21">
-      <c r="A306" s="15" t="s">
+      <c r="A306" s="14" t="s">
         <v>401</v>
       </c>
       <c r="B306" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C306" s="23" t="s">
+      <c r="C306" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D306" s="14" t="s">
+      <c r="D306" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E306" s="3" t="s">
@@ -8373,16 +8367,16 @@
       </c>
     </row>
     <row r="307" spans="1:6" ht="21">
-      <c r="A307" s="15" t="s">
+      <c r="A307" s="14" t="s">
         <v>402</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C307" s="13" t="s">
+      <c r="C307" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D307" s="14" t="s">
+      <c r="D307" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E307" s="3" t="s">
@@ -8393,16 +8387,16 @@
       </c>
     </row>
     <row r="308" spans="1:6" ht="21">
-      <c r="A308" s="15" t="s">
+      <c r="A308" s="14" t="s">
         <v>403</v>
       </c>
       <c r="B308" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C308" s="23" t="s">
+      <c r="C308" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D308" s="14" t="s">
+      <c r="D308" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E308" s="3" t="s">
@@ -8413,16 +8407,16 @@
       </c>
     </row>
     <row r="309" spans="1:6" ht="21">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="14" t="s">
         <v>404</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C309" s="13" t="s">
+      <c r="C309" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D309" s="14" t="s">
+      <c r="D309" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E309" s="3" t="s">
@@ -8433,16 +8427,16 @@
       </c>
     </row>
     <row r="310" spans="1:6" ht="21">
-      <c r="A310" s="15" t="s">
+      <c r="A310" s="14" t="s">
         <v>405</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C310" s="23" t="s">
+      <c r="C310" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D310" s="14" t="s">
+      <c r="D310" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E310" s="3" t="s">
@@ -8453,16 +8447,16 @@
       </c>
     </row>
     <row r="311" spans="1:6" ht="21">
-      <c r="A311" s="15" t="s">
+      <c r="A311" s="14" t="s">
         <v>406</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C311" s="13" t="s">
+      <c r="C311" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D311" s="14" t="s">
+      <c r="D311" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E311" s="3" t="s">
@@ -8473,16 +8467,16 @@
       </c>
     </row>
     <row r="312" spans="1:6" ht="21">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="14" t="s">
         <v>407</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C312" s="23" t="s">
+      <c r="C312" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D312" s="14" t="s">
+      <c r="D312" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E312" s="3" t="s">
@@ -8493,16 +8487,16 @@
       </c>
     </row>
     <row r="313" spans="1:6" ht="21">
-      <c r="A313" s="15" t="s">
+      <c r="A313" s="14" t="s">
         <v>408</v>
       </c>
       <c r="B313" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C313" s="13" t="s">
+      <c r="C313" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D313" s="14" t="s">
+      <c r="D313" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E313" s="3" t="s">
@@ -8513,16 +8507,16 @@
       </c>
     </row>
     <row r="314" spans="1:6" ht="21">
-      <c r="A314" s="15" t="s">
+      <c r="A314" s="14" t="s">
         <v>409</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C314" s="23" t="s">
+      <c r="C314" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D314" s="14" t="s">
+      <c r="D314" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E314" s="3" t="s">
@@ -8533,16 +8527,16 @@
       </c>
     </row>
     <row r="315" spans="1:6" ht="21">
-      <c r="A315" s="15" t="s">
+      <c r="A315" s="14" t="s">
         <v>394</v>
       </c>
       <c r="B315" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C315" s="13" t="s">
+      <c r="C315" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D315" s="14" t="s">
+      <c r="D315" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E315" s="3" t="s">
@@ -8553,16 +8547,16 @@
       </c>
     </row>
     <row r="316" spans="1:6" ht="21">
-      <c r="A316" s="15" t="s">
+      <c r="A316" s="14" t="s">
         <v>395</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C316" s="23" t="s">
+      <c r="C316" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D316" s="14" t="s">
+      <c r="D316" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E316" s="3" t="s">
@@ -8573,163 +8567,163 @@
       </c>
     </row>
     <row r="317" spans="1:6" ht="21">
-      <c r="A317" s="16"/>
-      <c r="C317" s="17"/>
-      <c r="D317" s="18"/>
+      <c r="A317" s="15"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="17"/>
       <c r="E317" s="3"/>
       <c r="F317" s="9"/>
     </row>
     <row r="318" spans="1:6" ht="21">
-      <c r="A318" s="16"/>
-      <c r="C318" s="17"/>
-      <c r="D318" s="18"/>
+      <c r="A318" s="15"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="17"/>
       <c r="E318" s="3"/>
       <c r="F318" s="9"/>
     </row>
     <row r="319" spans="1:6" ht="21">
-      <c r="A319" s="16"/>
-      <c r="C319" s="17"/>
-      <c r="D319" s="18"/>
+      <c r="A319" s="15"/>
+      <c r="C319" s="16"/>
+      <c r="D319" s="17"/>
       <c r="E319" s="3"/>
       <c r="F319" s="9"/>
     </row>
     <row r="320" spans="1:6" ht="21">
-      <c r="A320" s="16"/>
-      <c r="C320" s="17"/>
-      <c r="D320" s="18"/>
+      <c r="A320" s="15"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="17"/>
       <c r="E320" s="3"/>
       <c r="F320" s="9"/>
     </row>
     <row r="321" spans="1:6" ht="21">
-      <c r="A321" s="16"/>
-      <c r="C321" s="17"/>
-      <c r="D321" s="18"/>
+      <c r="A321" s="15"/>
+      <c r="C321" s="16"/>
+      <c r="D321" s="17"/>
       <c r="E321" s="3"/>
       <c r="F321" s="9"/>
     </row>
     <row r="322" spans="1:6" ht="21">
-      <c r="A322" s="16"/>
-      <c r="C322" s="17"/>
-      <c r="D322" s="18"/>
+      <c r="A322" s="15"/>
+      <c r="C322" s="16"/>
+      <c r="D322" s="17"/>
       <c r="E322" s="3"/>
       <c r="F322" s="9"/>
     </row>
     <row r="323" spans="1:6" ht="21">
-      <c r="A323" s="16"/>
-      <c r="C323" s="17"/>
-      <c r="D323" s="18"/>
+      <c r="A323" s="15"/>
+      <c r="C323" s="16"/>
+      <c r="D323" s="17"/>
       <c r="E323" s="3"/>
       <c r="F323" s="9"/>
     </row>
     <row r="324" spans="1:6" ht="21">
-      <c r="A324" s="16"/>
-      <c r="C324" s="17"/>
-      <c r="D324" s="18"/>
+      <c r="A324" s="15"/>
+      <c r="C324" s="16"/>
+      <c r="D324" s="17"/>
       <c r="E324" s="3"/>
       <c r="F324" s="9"/>
     </row>
     <row r="325" spans="1:6" ht="21">
-      <c r="A325" s="16"/>
-      <c r="C325" s="17"/>
-      <c r="D325" s="18"/>
+      <c r="A325" s="15"/>
+      <c r="C325" s="16"/>
+      <c r="D325" s="17"/>
       <c r="E325" s="3"/>
       <c r="F325" s="9"/>
     </row>
     <row r="326" spans="1:6" ht="21">
-      <c r="A326" s="16"/>
-      <c r="C326" s="17"/>
-      <c r="D326" s="18"/>
+      <c r="A326" s="15"/>
+      <c r="C326" s="16"/>
+      <c r="D326" s="17"/>
       <c r="E326" s="3"/>
       <c r="F326" s="9"/>
     </row>
     <row r="327" spans="1:6" ht="21">
-      <c r="A327" s="16"/>
-      <c r="C327" s="17"/>
-      <c r="D327" s="18"/>
+      <c r="A327" s="15"/>
+      <c r="C327" s="16"/>
+      <c r="D327" s="17"/>
       <c r="E327" s="3"/>
       <c r="F327" s="9"/>
     </row>
     <row r="328" spans="1:6" ht="21">
-      <c r="A328" s="16"/>
-      <c r="C328" s="17"/>
-      <c r="D328" s="18"/>
+      <c r="A328" s="15"/>
+      <c r="C328" s="16"/>
+      <c r="D328" s="17"/>
       <c r="E328" s="3"/>
       <c r="F328" s="9"/>
     </row>
     <row r="329" spans="1:6" ht="21">
-      <c r="A329" s="16"/>
-      <c r="C329" s="17"/>
-      <c r="D329" s="18"/>
+      <c r="A329" s="15"/>
+      <c r="C329" s="16"/>
+      <c r="D329" s="17"/>
       <c r="E329" s="3"/>
       <c r="F329" s="9"/>
     </row>
     <row r="330" spans="1:6" ht="21">
-      <c r="A330" s="16"/>
-      <c r="C330" s="17"/>
-      <c r="D330" s="18"/>
+      <c r="A330" s="15"/>
+      <c r="C330" s="16"/>
+      <c r="D330" s="17"/>
       <c r="E330" s="3"/>
       <c r="F330" s="9"/>
     </row>
     <row r="331" spans="1:6" ht="21">
-      <c r="A331" s="16"/>
-      <c r="C331" s="17"/>
-      <c r="D331" s="18"/>
+      <c r="A331" s="15"/>
+      <c r="C331" s="16"/>
+      <c r="D331" s="17"/>
       <c r="E331" s="3"/>
       <c r="F331" s="9"/>
     </row>
     <row r="332" spans="1:6" ht="21">
-      <c r="A332" s="15"/>
-      <c r="C332" s="13"/>
-      <c r="D332" s="14"/>
+      <c r="A332" s="14"/>
+      <c r="C332" s="12"/>
+      <c r="D332" s="13"/>
       <c r="E332" s="3"/>
       <c r="F332" s="9"/>
     </row>
     <row r="333" spans="1:6" ht="21">
-      <c r="A333" s="15"/>
-      <c r="C333" s="13"/>
-      <c r="D333" s="14"/>
+      <c r="A333" s="14"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="13"/>
       <c r="E333" s="3"/>
       <c r="F333" s="9"/>
     </row>
     <row r="334" spans="1:6" ht="21">
-      <c r="A334" s="15"/>
-      <c r="C334" s="13"/>
-      <c r="D334" s="14"/>
+      <c r="A334" s="14"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="13"/>
       <c r="E334" s="3"/>
       <c r="F334" s="9"/>
     </row>
     <row r="335" spans="1:6" ht="21">
-      <c r="A335" s="15"/>
-      <c r="C335" s="13"/>
-      <c r="D335" s="14"/>
+      <c r="A335" s="14"/>
+      <c r="C335" s="12"/>
+      <c r="D335" s="13"/>
       <c r="E335" s="3"/>
       <c r="F335" s="9"/>
     </row>
     <row r="336" spans="1:6" ht="21">
-      <c r="A336" s="15"/>
-      <c r="C336" s="13"/>
-      <c r="D336" s="14"/>
+      <c r="A336" s="14"/>
+      <c r="C336" s="12"/>
+      <c r="D336" s="13"/>
       <c r="E336" s="3"/>
       <c r="F336" s="9"/>
     </row>
     <row r="337" spans="1:6" ht="21">
-      <c r="A337" s="15"/>
-      <c r="C337" s="13"/>
-      <c r="D337" s="14"/>
+      <c r="A337" s="14"/>
+      <c r="C337" s="12"/>
+      <c r="D337" s="13"/>
       <c r="E337" s="3"/>
       <c r="F337" s="9"/>
     </row>
     <row r="338" spans="1:6" ht="21">
-      <c r="A338" s="15"/>
-      <c r="C338" s="13"/>
-      <c r="D338" s="14"/>
+      <c r="A338" s="14"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="13"/>
       <c r="E338" s="3"/>
       <c r="F338" s="9"/>
     </row>
     <row r="339" spans="1:6" ht="21">
-      <c r="A339" s="15"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="14"/>
+      <c r="A339" s="14"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="13"/>
       <c r="E339" s="3"/>
       <c r="F339" s="9"/>
     </row>
@@ -8743,10 +8737,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8758,7 +8752,7 @@
     <col min="8" max="52" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19.5" customHeight="1">
+    <row r="1" spans="1:27" ht="19.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8835,7 +8829,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8846,7 +8840,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>21</v>
@@ -8855,7 +8849,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>21</v>
@@ -8864,7 +8858,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>21</v>
@@ -8873,7 +8867,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>21</v>
@@ -8882,7 +8876,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>21</v>
@@ -8891,7 +8885,7 @@
         <v>28</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>21</v>
@@ -8900,19 +8894,19 @@
         <v>28</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8920,76 +8914,77 @@
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="19.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8997,76 +8992,76 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="19.5" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="19.5" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9074,76 +9069,77 @@
         <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="19.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" ht="19.5" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9151,76 +9147,76 @@
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="19.5" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="19.5" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9228,76 +9224,77 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="19.5" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" ht="19.5" customHeight="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9305,7 +9302,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>48</v>
@@ -9314,7 +9311,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>48</v>
@@ -9323,7 +9320,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>48</v>
@@ -9332,7 +9329,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>48</v>
@@ -9341,7 +9338,7 @@
         <v>27</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>48</v>
@@ -9350,7 +9347,7 @@
         <v>27</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>48</v>
@@ -9359,7 +9356,7 @@
         <v>27</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>48</v>
@@ -9371,53 +9368,53 @@
         <v>48</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="19.5" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="19.5" customHeight="1">
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>49</v>
@@ -9427,53 +9424,53 @@
         <v>49</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="19.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="19.5" customHeight="1">
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>50</v>
@@ -9483,185 +9480,217 @@
         <v>50</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="19.5" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" ht="19.5" customHeight="1">
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W11" s="1"/>
       <c r="Y11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="19.5" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" ht="19.5" customHeight="1">
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="1"/>
       <c r="I12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W12" s="1"/>
       <c r="Y12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="19.5" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" ht="19.5" customHeight="1">
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="1"/>
       <c r="I13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W13" s="1"/>
       <c r="Y13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="19.5" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" ht="19.5" customHeight="1">
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="1"/>
       <c r="I14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W14" s="1"/>
       <c r="Y14" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="19.5" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" ht="19.5" customHeight="1">
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="1"/>
       <c r="I15" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="W15" s="1"/>
       <c r="Y15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="19.5" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" ht="19.5" customHeight="1">
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1"/>
-    <row r="18" ht="21" customHeight="1"/>
-    <row r="19" ht="21" customHeight="1"/>
-    <row r="20" ht="21" customHeight="1"/>
-    <row r="21" ht="21" customHeight="1"/>
-    <row r="22" ht="21" customHeight="1"/>
-    <row r="23" ht="21" customHeight="1"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="26:27" ht="19.5" customHeight="1">
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="26:27" ht="21" customHeight="1">
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="26:27" ht="21" customHeight="1">
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="26:27" ht="21" customHeight="1">
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="26:27" ht="21" customHeight="1">
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="26:27" ht="21" customHeight="1">
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="26:27" ht="21" customHeight="1">
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="25" spans="26:27">
+      <c r="Z25" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/observers_data_input.xlsx
+++ b/observers_data_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Training 2022\MyREpo\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69457D51-CD87-46D2-870D-3B193980F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CE105-5285-46E4-BBB7-E8AC5A829B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="412">
   <si>
     <t>التاريخ</t>
   </si>
@@ -1264,6 +1264,12 @@
   </si>
   <si>
     <t>د.خليل</t>
+  </si>
+  <si>
+    <t>abosalema34@gmail.com</t>
+  </si>
+  <si>
+    <t>mahmoud195960@feng.bu.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1271,18 +1277,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;ر.س.&quot;* #,##0_);_(&quot;ر.س.&quot;* \(#,##0\);_(&quot;ر.س.&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;ر.س.&quot;* #,##0.00_);_(&quot;ر.س.&quot;* \(#,##0.00\);_(&quot;ر.س.&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="00"/>
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;ر.س.&quot;* #,##0_);_(&quot;ر.س.&quot;* \(#,##0\);_(&quot;ر.س.&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;ر.س.&quot;* #,##0.00_);_(&quot;ر.س.&quot;* \(#,##0.00\);_(&quot;ر.س.&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="00"/>
+    <numFmt numFmtId="169" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1297,7 +1303,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1457,6 +1463,14 @@
       <color indexed="10"/>
       <name val="Simplified Arabic"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1752,7 +1766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1797,13 +1811,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1820,7 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1880,8 +1895,11 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{F57CD77E-8CA8-46D7-B23D-90C0E10B06A1}"/>
     <cellStyle name="20% - Accent2 2" xfId="3" xr:uid="{373F5F63-E999-469C-80A9-8BB244D985B3}"/>
     <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{D1715998-947D-4A19-9F44-67AED2977C81}"/>
@@ -1915,6 +1933,7 @@
     <cellStyle name="Heading 2 2" xfId="32" xr:uid="{1775946E-94FA-460E-BFB5-11EC5AC2693E}"/>
     <cellStyle name="Heading 3 2" xfId="33" xr:uid="{CB32C8C6-F80E-4209-AD1B-66A40E6D8A5D}"/>
     <cellStyle name="Heading 4 2" xfId="34" xr:uid="{B9ED7C6C-ADC7-4B0C-9975-3B7676435DBF}"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
     <cellStyle name="Input 2" xfId="35" xr:uid="{213EDFF9-B334-47C3-9DAB-1794E7367557}"/>
     <cellStyle name="Linked Cell 2" xfId="36" xr:uid="{353F2178-844A-4998-B328-01BAE86BEC87}"/>
     <cellStyle name="Neutral 2" xfId="37" xr:uid="{2DAA63A7-B322-4C84-89E5-EC295FF4A0EB}"/>
@@ -2235,15 +2254,15 @@
   </sheetPr>
   <dimension ref="A1:F339"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.09765625" customWidth="1"/>
+    <col min="2" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
@@ -2279,8 +2298,8 @@
       <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
+      <c r="E2" s="26" t="s">
+        <v>410</v>
       </c>
       <c r="F2" s="9">
         <v>15</v>
@@ -2299,8 +2318,8 @@
       <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+      <c r="E3" s="26" t="s">
+        <v>411</v>
       </c>
       <c r="F3" s="9">
         <v>14</v>
@@ -8728,6 +8747,10 @@
       <c r="F339" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BAEBCB46-BA4C-4476-8320-8C3708B93B79}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{D03A8CBD-C37C-4265-9B3F-FD30DC4DF3FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8739,17 +8762,17 @@
   </sheetPr>
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="52" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="52" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19.5" customHeight="1">

--- a/observers_data_input.xlsx
+++ b/observers_data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Training 2022\MyREpo\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CE105-5285-46E4-BBB7-E8AC5A829B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300B13D8-BD56-4CCF-BC17-487540F16969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="410">
   <si>
     <t>التاريخ</t>
   </si>
@@ -69,9 +69,6 @@
     <t>خلفاوي</t>
   </si>
   <si>
-    <t>M@a</t>
-  </si>
-  <si>
     <t>مهندس</t>
   </si>
   <si>
@@ -1266,10 +1263,7 @@
     <t>د.خليل</t>
   </si>
   <si>
-    <t>abosalema34@gmail.com</t>
-  </si>
-  <si>
-    <t>mahmoud195960@feng.bu.edu.eg</t>
+    <t>M@M</t>
   </si>
 </sst>
 </file>
@@ -2255,2231 +2249,2234 @@
   <dimension ref="A1:F339"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" customWidth="1"/>
-    <col min="2" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1">
+    <row r="1" spans="1:6" ht="42">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="21">
       <c r="A2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F2" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1">
+    <row r="3" spans="1:6" ht="21">
       <c r="A3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F3" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1">
+    <row r="4" spans="1:6" ht="21">
       <c r="A4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F4" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+    <row r="5" spans="1:6" ht="21">
       <c r="A5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F5" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1">
+    <row r="6" spans="1:6" ht="21">
       <c r="A6" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F6" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1">
+    <row r="7" spans="1:6" ht="21">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F7" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1">
+    <row r="8" spans="1:6" ht="21">
       <c r="A8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F8" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1">
+    <row r="9" spans="1:6" ht="21">
       <c r="A9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F9" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1">
+    <row r="10" spans="1:6" ht="21">
       <c r="A10" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F10" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1">
+    <row r="11" spans="1:6" ht="21">
       <c r="A11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F11" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1">
+    <row r="12" spans="1:6" ht="21">
       <c r="A12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F12" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1">
+    <row r="13" spans="1:6" ht="21">
       <c r="A13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F13" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1">
+    <row r="14" spans="1:6" ht="21">
       <c r="A14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F14" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1">
+    <row r="15" spans="1:6" ht="21">
       <c r="A15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F15" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1">
+    <row r="16" spans="1:6" ht="21">
       <c r="A16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F16" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1">
+    <row r="17" spans="1:6" ht="21">
       <c r="A17" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F17" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1">
+    <row r="18" spans="1:6" ht="21">
       <c r="A18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21">
+      <c r="A19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>371</v>
-      </c>
       <c r="D19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F19" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1">
+    <row r="20" spans="1:6" ht="21">
       <c r="A20" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F20" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1">
+    <row r="21" spans="1:6" ht="21">
       <c r="A21" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F21" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1">
+    <row r="22" spans="1:6" ht="21">
       <c r="A22" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F22" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1">
+    <row r="23" spans="1:6" ht="21">
       <c r="A23" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F23" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1">
+    <row r="24" spans="1:6" ht="21">
       <c r="A24" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F24" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1">
+    <row r="25" spans="1:6" ht="21">
       <c r="A25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F25" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1">
+    <row r="26" spans="1:6" ht="21">
       <c r="A26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F26" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19.5" customHeight="1">
+    <row r="27" spans="1:6" ht="21">
       <c r="A27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F27" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19.5" customHeight="1">
+    <row r="28" spans="1:6" ht="21">
       <c r="A28" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F28" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1">
+    <row r="29" spans="1:6" ht="21">
       <c r="A29" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F29" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19.5" customHeight="1">
+    <row r="30" spans="1:6" ht="21">
       <c r="A30" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F30" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19.5" customHeight="1">
+    <row r="31" spans="1:6" ht="21">
       <c r="A31" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F31" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19.5" customHeight="1">
+    <row r="32" spans="1:6" ht="21">
       <c r="A32" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F32" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19.5" customHeight="1">
+    <row r="33" spans="1:6" ht="21">
       <c r="A33" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F33" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="19.5" customHeight="1">
+    <row r="34" spans="1:6" ht="21">
       <c r="A34" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F34" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="19.5" customHeight="1">
+    <row r="35" spans="1:6" ht="21">
       <c r="A35" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F35" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="19.5" customHeight="1">
+    <row r="36" spans="1:6" ht="21">
       <c r="A36" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F36" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="19.5" customHeight="1">
+    <row r="37" spans="1:6" ht="21">
       <c r="A37" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F37" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19.5" customHeight="1">
+    <row r="38" spans="1:6" ht="21">
       <c r="A38" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F38" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1">
+    <row r="39" spans="1:6" ht="21">
       <c r="A39" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F39" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="19.5" customHeight="1">
+    <row r="40" spans="1:6" ht="21">
       <c r="A40" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F40" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19.5" customHeight="1">
+    <row r="41" spans="1:6" ht="21">
       <c r="A41" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F41" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="19.5" customHeight="1">
+    <row r="42" spans="1:6" ht="21">
       <c r="A42" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F42" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19.5" customHeight="1">
+    <row r="43" spans="1:6" ht="21">
       <c r="A43" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F43" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19.5" customHeight="1">
+    <row r="44" spans="1:6" ht="21">
       <c r="A44" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F44" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="19.5" customHeight="1">
+    <row r="45" spans="1:6" ht="21">
       <c r="A45" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F45" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="19.5" customHeight="1">
+    <row r="46" spans="1:6" ht="21">
       <c r="A46" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F46" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="19.5" customHeight="1">
+    <row r="47" spans="1:6" ht="21">
       <c r="A47" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F47" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="19.5" customHeight="1">
+    <row r="48" spans="1:6" ht="21">
       <c r="A48" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F48" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="19.5" customHeight="1">
+    <row r="49" spans="1:6" ht="21">
       <c r="A49" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F49" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="19.5" customHeight="1">
+    <row r="50" spans="1:6" ht="21">
       <c r="A50" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F50" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="21">
+      <c r="A51" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F51" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="19.5" customHeight="1">
+    <row r="52" spans="1:6" ht="21">
       <c r="A52" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F52" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="19.5" customHeight="1">
+    <row r="53" spans="1:6" ht="21">
       <c r="A53" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F53" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="19.5" customHeight="1">
+    <row r="54" spans="1:6" ht="21">
       <c r="A54" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F54" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="19.5" customHeight="1">
+    <row r="55" spans="1:6" ht="21">
       <c r="A55" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F55" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="19.5" customHeight="1">
+    <row r="56" spans="1:6" ht="21">
       <c r="A56" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F56" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="19.5" customHeight="1">
+    <row r="57" spans="1:6" ht="21">
       <c r="A57" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F57" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="19.5" customHeight="1">
+    <row r="58" spans="1:6" ht="21">
       <c r="A58" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F58" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="19.5" customHeight="1">
+    <row r="59" spans="1:6" ht="21">
       <c r="A59" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F59" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="19.5" customHeight="1">
+    <row r="60" spans="1:6" ht="21">
       <c r="A60" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F60" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="19.5" customHeight="1">
+    <row r="61" spans="1:6" ht="21">
       <c r="A61" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>11</v>
+      <c r="E61" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F61" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="19.5" customHeight="1">
+    <row r="62" spans="1:6" ht="21">
       <c r="A62" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>11</v>
+      <c r="E62" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F62" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="19.5" customHeight="1">
+    <row r="63" spans="1:6" ht="21">
       <c r="A63" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>11</v>
+      <c r="E63" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F63" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="19.5" customHeight="1">
+    <row r="64" spans="1:6" ht="21">
       <c r="A64" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
+      <c r="E64" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F64" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="19.5" customHeight="1">
+    <row r="65" spans="1:6" ht="21">
       <c r="A65" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F65" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="21">
+      <c r="A66" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
+      <c r="E66" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F66" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="19.5" customHeight="1">
+    <row r="67" spans="1:6" ht="21">
       <c r="A67" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>11</v>
+      <c r="E67" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F67" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="19.5" customHeight="1">
+    <row r="68" spans="1:6" ht="21">
       <c r="A68" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>11</v>
+      <c r="E68" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F68" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="19.5" customHeight="1">
+    <row r="69" spans="1:6" ht="21">
       <c r="A69" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>11</v>
+      <c r="E69" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F69" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="19.5" customHeight="1">
+    <row r="70" spans="1:6" ht="21">
       <c r="A70" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>11</v>
+      <c r="E70" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F70" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="19.5" customHeight="1">
+    <row r="71" spans="1:6" ht="21">
       <c r="A71" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F71" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="21">
+      <c r="A72" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F72" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="21">
+      <c r="A73" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F73" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="21">
+      <c r="A74" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F74" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="21">
+      <c r="A75" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F75" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="21">
+      <c r="A76" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A76" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>374</v>
-      </c>
       <c r="D76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F76" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="19.5" customHeight="1">
+    <row r="77" spans="1:6" ht="21">
       <c r="A77" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F77" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="19.5" customHeight="1">
+    <row r="78" spans="1:6" ht="21">
       <c r="A78" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F78" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="19.5" customHeight="1">
+    <row r="79" spans="1:6" ht="21">
       <c r="A79" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F79" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1">
+    <row r="80" spans="1:6" ht="21">
       <c r="A80" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F80" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="19.5" customHeight="1">
+    <row r="81" spans="1:6" ht="21">
       <c r="A81" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F81" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="19.5" customHeight="1">
+    <row r="82" spans="1:6" ht="21">
       <c r="A82" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F82" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="19.5" customHeight="1">
+    <row r="83" spans="1:6" ht="21">
       <c r="A83" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F83" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="19.5" customHeight="1">
+    <row r="84" spans="1:6" ht="21">
       <c r="A84" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F84" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="19.5" customHeight="1">
+    <row r="85" spans="1:6" ht="21">
       <c r="A85" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F85" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="19.5" customHeight="1">
+    <row r="86" spans="1:6" ht="21">
       <c r="A86" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F86" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="19.5" customHeight="1">
+    <row r="87" spans="1:6" ht="21">
       <c r="A87" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F87" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="19.5" customHeight="1">
+    <row r="88" spans="1:6" ht="21">
       <c r="A88" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F88" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="19.5" customHeight="1">
+    <row r="89" spans="1:6" ht="21">
       <c r="A89" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F89" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="19.5" customHeight="1">
+    <row r="90" spans="1:6" ht="21">
       <c r="A90" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F90" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="19.5" customHeight="1">
+    <row r="91" spans="1:6" ht="21">
       <c r="A91" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>11</v>
+      <c r="E91" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F91" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="19.5" customHeight="1">
+    <row r="92" spans="1:6" ht="21">
       <c r="A92" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>11</v>
+      <c r="E92" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F92" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="19.5" customHeight="1">
+    <row r="93" spans="1:6" ht="21">
       <c r="A93" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>11</v>
+      <c r="E93" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F93" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="19.5" customHeight="1">
+    <row r="94" spans="1:6" ht="21">
       <c r="A94" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>11</v>
+      <c r="E94" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F94" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="19.5" customHeight="1">
+    <row r="95" spans="1:6" ht="21">
       <c r="A95" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>11</v>
+      <c r="E95" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F95" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="19.5" customHeight="1">
+    <row r="96" spans="1:6" ht="21">
       <c r="A96" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D96" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>11</v>
+      <c r="E96" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F96" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="19.5" customHeight="1">
+    <row r="97" spans="1:6" ht="21">
       <c r="A97" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D97" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>11</v>
+      <c r="E97" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F97" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="19.5" customHeight="1">
+    <row r="98" spans="1:6" ht="21">
       <c r="A98" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D98" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>11</v>
+      <c r="E98" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F98" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="19.5" customHeight="1">
+    <row r="99" spans="1:6" ht="21">
       <c r="A99" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>11</v>
+      <c r="E99" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F99" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="19.5" customHeight="1">
+    <row r="100" spans="1:6" ht="21">
       <c r="A100" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>11</v>
+      <c r="E100" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F100" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="19.5" customHeight="1">
+    <row r="101" spans="1:6" ht="21">
       <c r="A101" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>11</v>
+      <c r="E101" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F101" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="19.5" customHeight="1">
+    <row r="102" spans="1:6" ht="21">
       <c r="A102" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>11</v>
+      <c r="E102" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F102" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="19.5" customHeight="1">
+    <row r="103" spans="1:6" ht="21">
       <c r="A103" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F103" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="19.5" customHeight="1">
+    <row r="104" spans="1:6" ht="21">
       <c r="A104" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>11</v>
+      <c r="E104" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F104" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="19.5" customHeight="1">
+    <row r="105" spans="1:6" ht="21">
       <c r="A105" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>11</v>
+      <c r="E105" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F105" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="19.5" customHeight="1">
+    <row r="106" spans="1:6" ht="21">
       <c r="A106" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>11</v>
+      <c r="E106" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F106" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="19.5" customHeight="1">
+    <row r="107" spans="1:6" ht="21">
       <c r="A107" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>11</v>
+      <c r="E107" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F107" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="19.5" customHeight="1">
+    <row r="108" spans="1:6" ht="21">
       <c r="A108" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>11</v>
+      <c r="E108" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F108" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="19.5" customHeight="1">
+    <row r="109" spans="1:6" ht="21">
       <c r="A109" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>11</v>
+      <c r="E109" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F109" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="19.5" customHeight="1">
+    <row r="110" spans="1:6" ht="21">
       <c r="A110" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>11</v>
+      <c r="E110" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F110" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="19.5" customHeight="1">
+    <row r="111" spans="1:6" ht="21">
       <c r="A111" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>11</v>
+      <c r="E111" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F111" s="9">
         <v>15</v>
@@ -4487,19 +4484,19 @@
     </row>
     <row r="112" spans="1:6" ht="21">
       <c r="A112" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>11</v>
+      <c r="E112" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F112" s="9">
         <v>15</v>
@@ -4507,19 +4504,19 @@
     </row>
     <row r="113" spans="1:6" ht="21">
       <c r="A113" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>11</v>
+      <c r="E113" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F113" s="9">
         <v>15</v>
@@ -4527,19 +4524,19 @@
     </row>
     <row r="114" spans="1:6" ht="21">
       <c r="A114" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>11</v>
+      <c r="E114" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F114" s="9">
         <v>15</v>
@@ -4547,19 +4544,19 @@
     </row>
     <row r="115" spans="1:6" ht="21">
       <c r="A115" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>11</v>
+      <c r="E115" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F115" s="9">
         <v>15</v>
@@ -4567,19 +4564,19 @@
     </row>
     <row r="116" spans="1:6" ht="21">
       <c r="A116" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>11</v>
+      <c r="E116" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F116" s="9">
         <v>15</v>
@@ -4587,19 +4584,19 @@
     </row>
     <row r="117" spans="1:6" ht="21">
       <c r="A117" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>11</v>
+      <c r="E117" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F117" s="9">
         <v>15</v>
@@ -4607,19 +4604,19 @@
     </row>
     <row r="118" spans="1:6" ht="21">
       <c r="A118" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>11</v>
+      <c r="E118" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F118" s="9">
         <v>15</v>
@@ -4627,19 +4624,19 @@
     </row>
     <row r="119" spans="1:6" ht="21">
       <c r="A119" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>11</v>
+      <c r="E119" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F119" s="9">
         <v>15</v>
@@ -4647,19 +4644,19 @@
     </row>
     <row r="120" spans="1:6" ht="21">
       <c r="A120" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>11</v>
+      <c r="E120" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F120" s="9">
         <v>15</v>
@@ -4667,19 +4664,19 @@
     </row>
     <row r="121" spans="1:6" ht="21">
       <c r="A121" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>11</v>
+      <c r="E121" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F121" s="9">
         <v>15</v>
@@ -4687,19 +4684,19 @@
     </row>
     <row r="122" spans="1:6" ht="21">
       <c r="A122" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>11</v>
+      <c r="E122" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F122" s="9">
         <v>15</v>
@@ -4707,19 +4704,19 @@
     </row>
     <row r="123" spans="1:6" ht="21">
       <c r="A123" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>11</v>
+      <c r="E123" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F123" s="9">
         <v>15</v>
@@ -4727,19 +4724,19 @@
     </row>
     <row r="124" spans="1:6" ht="21">
       <c r="A124" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>11</v>
+      <c r="E124" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F124" s="9">
         <v>15</v>
@@ -4747,19 +4744,19 @@
     </row>
     <row r="125" spans="1:6" ht="21">
       <c r="A125" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D125" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>11</v>
+      <c r="E125" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F125" s="9">
         <v>15</v>
@@ -4767,19 +4764,19 @@
     </row>
     <row r="126" spans="1:6" ht="21">
       <c r="A126" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>11</v>
+      <c r="E126" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F126" s="9">
         <v>15</v>
@@ -4787,19 +4784,19 @@
     </row>
     <row r="127" spans="1:6" ht="21">
       <c r="A127" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>11</v>
+      <c r="E127" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F127" s="9">
         <v>15</v>
@@ -4807,19 +4804,19 @@
     </row>
     <row r="128" spans="1:6" ht="21">
       <c r="A128" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>11</v>
+      <c r="E128" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F128" s="9">
         <v>15</v>
@@ -4827,19 +4824,19 @@
     </row>
     <row r="129" spans="1:6" ht="21">
       <c r="A129" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>11</v>
+      <c r="E129" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F129" s="9">
         <v>15</v>
@@ -4847,19 +4844,19 @@
     </row>
     <row r="130" spans="1:6" ht="21">
       <c r="A130" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>11</v>
+      <c r="E130" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F130" s="9">
         <v>15</v>
@@ -4867,19 +4864,19 @@
     </row>
     <row r="131" spans="1:6" ht="21">
       <c r="A131" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D131" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>11</v>
+      <c r="E131" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F131" s="9">
         <v>0</v>
@@ -4887,19 +4884,19 @@
     </row>
     <row r="132" spans="1:6" ht="21">
       <c r="A132" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>11</v>
+      <c r="E132" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F132" s="9">
         <v>15</v>
@@ -4907,19 +4904,19 @@
     </row>
     <row r="133" spans="1:6" ht="21">
       <c r="A133" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>11</v>
+      <c r="E133" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F133" s="9">
         <v>15</v>
@@ -4927,19 +4924,19 @@
     </row>
     <row r="134" spans="1:6" ht="21">
       <c r="A134" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D134" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>11</v>
+      <c r="E134" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F134" s="9">
         <v>15</v>
@@ -4947,19 +4944,19 @@
     </row>
     <row r="135" spans="1:6" ht="21">
       <c r="A135" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>11</v>
+      <c r="E135" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F135" s="9">
         <v>15</v>
@@ -4967,19 +4964,19 @@
     </row>
     <row r="136" spans="1:6" ht="21">
       <c r="A136" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>11</v>
+      <c r="E136" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F136" s="9">
         <v>15</v>
@@ -4987,19 +4984,19 @@
     </row>
     <row r="137" spans="1:6" ht="21">
       <c r="A137" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D137" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>11</v>
+      <c r="E137" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F137" s="9">
         <v>14</v>
@@ -5007,19 +5004,19 @@
     </row>
     <row r="138" spans="1:6" ht="21">
       <c r="A138" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D138" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>11</v>
+      <c r="E138" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F138" s="9">
         <v>15</v>
@@ -5027,19 +5024,19 @@
     </row>
     <row r="139" spans="1:6" ht="21">
       <c r="A139" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D139" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>11</v>
+      <c r="E139" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F139" s="9">
         <v>15</v>
@@ -5047,19 +5044,19 @@
     </row>
     <row r="140" spans="1:6" ht="21">
       <c r="A140" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>11</v>
+      <c r="E140" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F140" s="9">
         <v>15</v>
@@ -5067,19 +5064,19 @@
     </row>
     <row r="141" spans="1:6" ht="21">
       <c r="A141" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D141" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>11</v>
+      <c r="E141" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F141" s="9">
         <v>15</v>
@@ -5087,19 +5084,19 @@
     </row>
     <row r="142" spans="1:6" ht="21">
       <c r="A142" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>11</v>
+      <c r="E142" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F142" s="9">
         <v>15</v>
@@ -5107,19 +5104,19 @@
     </row>
     <row r="143" spans="1:6" ht="21">
       <c r="A143" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>11</v>
+      <c r="E143" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F143" s="9">
         <v>15</v>
@@ -5127,19 +5124,19 @@
     </row>
     <row r="144" spans="1:6" ht="21">
       <c r="A144" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D144" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>11</v>
+      <c r="E144" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F144" s="9">
         <v>15</v>
@@ -5147,19 +5144,19 @@
     </row>
     <row r="145" spans="1:6" ht="21">
       <c r="A145" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D145" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>11</v>
+      <c r="E145" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F145" s="9">
         <v>15</v>
@@ -5167,19 +5164,19 @@
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>11</v>
+      <c r="E146" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F146" s="9">
         <v>15</v>
@@ -5187,19 +5184,19 @@
     </row>
     <row r="147" spans="1:6" ht="21">
       <c r="A147" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>11</v>
+      <c r="E147" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F147" s="9">
         <v>15</v>
@@ -5207,19 +5204,19 @@
     </row>
     <row r="148" spans="1:6" ht="21">
       <c r="A148" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>11</v>
+      <c r="E148" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F148" s="9">
         <v>15</v>
@@ -5227,19 +5224,19 @@
     </row>
     <row r="149" spans="1:6" ht="21">
       <c r="A149" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D149" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>11</v>
+      <c r="E149" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F149" s="9">
         <v>15</v>
@@ -5247,19 +5244,19 @@
     </row>
     <row r="150" spans="1:6" ht="21">
       <c r="A150" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>11</v>
+      <c r="E150" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F150" s="9">
         <v>15</v>
@@ -5267,19 +5264,19 @@
     </row>
     <row r="151" spans="1:6" ht="21">
       <c r="A151" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D151" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>11</v>
+      <c r="E151" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F151" s="9">
         <v>15</v>
@@ -5287,19 +5284,19 @@
     </row>
     <row r="152" spans="1:6" ht="21">
       <c r="A152" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>11</v>
+      <c r="E152" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F152" s="9">
         <v>15</v>
@@ -5307,19 +5304,19 @@
     </row>
     <row r="153" spans="1:6" ht="21">
       <c r="A153" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D153" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>11</v>
+      <c r="E153" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F153" s="9">
         <v>15</v>
@@ -5327,19 +5324,19 @@
     </row>
     <row r="154" spans="1:6" ht="21">
       <c r="A154" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D154" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>11</v>
+      <c r="E154" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F154" s="7">
         <v>15</v>
@@ -5347,10 +5344,10 @@
     </row>
     <row r="155" spans="1:6" ht="21">
       <c r="A155" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>9</v>
@@ -5358,8 +5355,8 @@
       <c r="D155" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>11</v>
+      <c r="E155" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F155" s="9">
         <v>16</v>
@@ -5367,10 +5364,10 @@
     </row>
     <row r="156" spans="1:6" ht="21">
       <c r="A156" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" s="19" t="s">
         <v>9</v>
@@ -5378,8 +5375,8 @@
       <c r="D156" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>11</v>
+      <c r="E156" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F156" s="9">
         <v>18</v>
@@ -5387,10 +5384,10 @@
     </row>
     <row r="157" spans="1:6" ht="21">
       <c r="A157" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>9</v>
@@ -5398,8 +5395,8 @@
       <c r="D157" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>11</v>
+      <c r="E157" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F157" s="9">
         <v>18</v>
@@ -5407,10 +5404,10 @@
     </row>
     <row r="158" spans="1:6" ht="21">
       <c r="A158" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>9</v>
@@ -5418,8 +5415,8 @@
       <c r="D158" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>11</v>
+      <c r="E158" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F158" s="9">
         <v>16</v>
@@ -5427,10 +5424,10 @@
     </row>
     <row r="159" spans="1:6" ht="21">
       <c r="A159" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>9</v>
@@ -5438,8 +5435,8 @@
       <c r="D159" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>11</v>
+      <c r="E159" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F159" s="9">
         <v>18</v>
@@ -5447,10 +5444,10 @@
     </row>
     <row r="160" spans="1:6" ht="21">
       <c r="A160" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>9</v>
@@ -5458,8 +5455,8 @@
       <c r="D160" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>11</v>
+      <c r="E160" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F160" s="9">
         <v>18</v>
@@ -5467,10 +5464,10 @@
     </row>
     <row r="161" spans="1:6" ht="21">
       <c r="A161" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>9</v>
@@ -5478,8 +5475,8 @@
       <c r="D161" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>11</v>
+      <c r="E161" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F161" s="9">
         <v>18</v>
@@ -5487,10 +5484,10 @@
     </row>
     <row r="162" spans="1:6" ht="21">
       <c r="A162" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>9</v>
@@ -5498,8 +5495,8 @@
       <c r="D162" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>11</v>
+      <c r="E162" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F162" s="9">
         <v>18</v>
@@ -5507,10 +5504,10 @@
     </row>
     <row r="163" spans="1:6" ht="21">
       <c r="A163" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>9</v>
@@ -5518,8 +5515,8 @@
       <c r="D163" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>11</v>
+      <c r="E163" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F163" s="9">
         <v>18</v>
@@ -5527,10 +5524,10 @@
     </row>
     <row r="164" spans="1:6" ht="21">
       <c r="A164" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>9</v>
@@ -5538,8 +5535,8 @@
       <c r="D164" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>11</v>
+      <c r="E164" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F164" s="9">
         <v>16</v>
@@ -5547,10 +5544,10 @@
     </row>
     <row r="165" spans="1:6" ht="21">
       <c r="A165" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>9</v>
@@ -5558,8 +5555,8 @@
       <c r="D165" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>11</v>
+      <c r="E165" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F165" s="9">
         <v>18</v>
@@ -5567,19 +5564,19 @@
     </row>
     <row r="166" spans="1:6" ht="21">
       <c r="A166" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D166" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>11</v>
+      <c r="E166" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F166" s="9">
         <v>18</v>
@@ -5587,19 +5584,19 @@
     </row>
     <row r="167" spans="1:6" ht="21">
       <c r="A167" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D167" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>11</v>
+      <c r="E167" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F167" s="9">
         <v>18</v>
@@ -5607,19 +5604,19 @@
     </row>
     <row r="168" spans="1:6" ht="21">
       <c r="A168" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D168" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>11</v>
+      <c r="E168" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F168" s="9">
         <v>18</v>
@@ -5627,19 +5624,19 @@
     </row>
     <row r="169" spans="1:6" ht="21">
       <c r="A169" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D169" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>11</v>
+      <c r="E169" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F169" s="9">
         <v>18</v>
@@ -5647,19 +5644,19 @@
     </row>
     <row r="170" spans="1:6" ht="21">
       <c r="A170" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D170" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>11</v>
+      <c r="E170" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F170" s="9">
         <v>17</v>
@@ -5667,19 +5664,19 @@
     </row>
     <row r="171" spans="1:6" ht="21">
       <c r="A171" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D171" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>11</v>
+      <c r="E171" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F171" s="9">
         <v>18</v>
@@ -5687,19 +5684,19 @@
     </row>
     <row r="172" spans="1:6" ht="21">
       <c r="A172" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D172" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>11</v>
+      <c r="E172" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F172" s="9">
         <v>16</v>
@@ -5707,19 +5704,19 @@
     </row>
     <row r="173" spans="1:6" ht="21">
       <c r="A173" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D173" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>11</v>
+      <c r="E173" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F173" s="9">
         <v>18</v>
@@ -5727,19 +5724,19 @@
     </row>
     <row r="174" spans="1:6" ht="21">
       <c r="A174" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>11</v>
+      <c r="E174" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F174" s="9">
         <v>16</v>
@@ -5747,19 +5744,19 @@
     </row>
     <row r="175" spans="1:6" ht="21">
       <c r="A175" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D175" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>11</v>
+      <c r="E175" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F175" s="9">
         <v>18</v>
@@ -5767,19 +5764,19 @@
     </row>
     <row r="176" spans="1:6" ht="21">
       <c r="A176" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D176" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>11</v>
+      <c r="E176" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F176" s="9">
         <v>18</v>
@@ -5787,19 +5784,19 @@
     </row>
     <row r="177" spans="1:6" ht="21">
       <c r="A177" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D177" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>11</v>
+      <c r="E177" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F177" s="9">
         <v>16</v>
@@ -5807,19 +5804,19 @@
     </row>
     <row r="178" spans="1:6" ht="21">
       <c r="A178" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D178" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E178" s="3" t="s">
-        <v>11</v>
+      <c r="E178" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F178" s="9">
         <v>18</v>
@@ -5827,19 +5824,19 @@
     </row>
     <row r="179" spans="1:6" ht="21">
       <c r="A179" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D179" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>11</v>
+      <c r="E179" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F179" s="9">
         <v>18</v>
@@ -5847,19 +5844,19 @@
     </row>
     <row r="180" spans="1:6" ht="21">
       <c r="A180" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>11</v>
+      <c r="E180" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F180" s="9">
         <v>14</v>
@@ -5867,19 +5864,19 @@
     </row>
     <row r="181" spans="1:6" ht="21">
       <c r="A181" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D181" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>11</v>
+      <c r="E181" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F181" s="9">
         <v>18</v>
@@ -5887,19 +5884,19 @@
     </row>
     <row r="182" spans="1:6" ht="21">
       <c r="A182" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D182" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>11</v>
+      <c r="E182" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F182" s="9">
         <v>18</v>
@@ -5907,19 +5904,19 @@
     </row>
     <row r="183" spans="1:6" ht="21">
       <c r="A183" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D183" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>11</v>
+      <c r="E183" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F183" s="9">
         <v>18</v>
@@ -5927,19 +5924,19 @@
     </row>
     <row r="184" spans="1:6" ht="21">
       <c r="A184" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>11</v>
+      <c r="E184" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F184" s="9">
         <v>18</v>
@@ -5947,19 +5944,19 @@
     </row>
     <row r="185" spans="1:6" ht="21">
       <c r="A185" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D185" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="3" t="s">
-        <v>11</v>
+      <c r="E185" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F185" s="9">
         <v>12</v>
@@ -5967,19 +5964,19 @@
     </row>
     <row r="186" spans="1:6" ht="21">
       <c r="A186" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D186" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>11</v>
+      <c r="E186" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F186" s="9">
         <v>18</v>
@@ -5987,19 +5984,19 @@
     </row>
     <row r="187" spans="1:6" ht="21">
       <c r="A187" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>11</v>
+      <c r="E187" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F187" s="9">
         <v>10</v>
@@ -6007,19 +6004,19 @@
     </row>
     <row r="188" spans="1:6" ht="21">
       <c r="A188" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D188" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>11</v>
+      <c r="E188" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F188" s="9">
         <v>18</v>
@@ -6027,19 +6024,19 @@
     </row>
     <row r="189" spans="1:6" ht="21">
       <c r="A189" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D189" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="3" t="s">
-        <v>11</v>
+      <c r="E189" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F189" s="9">
         <v>18</v>
@@ -6047,19 +6044,19 @@
     </row>
     <row r="190" spans="1:6" ht="21">
       <c r="A190" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D190" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E190" s="3" t="s">
-        <v>11</v>
+      <c r="E190" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F190" s="9">
         <v>18</v>
@@ -6067,19 +6064,19 @@
     </row>
     <row r="191" spans="1:6" ht="21">
       <c r="A191" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E191" s="3" t="s">
-        <v>11</v>
+      <c r="E191" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F191" s="9">
         <v>18</v>
@@ -6087,19 +6084,19 @@
     </row>
     <row r="192" spans="1:6" ht="21">
       <c r="A192" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E192" s="3" t="s">
-        <v>11</v>
+      <c r="E192" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F192" s="9">
         <v>16</v>
@@ -6107,19 +6104,19 @@
     </row>
     <row r="193" spans="1:6" ht="21">
       <c r="A193" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="3" t="s">
-        <v>11</v>
+      <c r="E193" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F193" s="9">
         <v>18</v>
@@ -6127,19 +6124,19 @@
     </row>
     <row r="194" spans="1:6" ht="21">
       <c r="A194" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>11</v>
+      <c r="E194" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F194" s="9">
         <v>14</v>
@@ -6147,19 +6144,19 @@
     </row>
     <row r="195" spans="1:6" ht="21">
       <c r="A195" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>11</v>
+      <c r="E195" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F195" s="9">
         <v>14</v>
@@ -6167,19 +6164,19 @@
     </row>
     <row r="196" spans="1:6" ht="21">
       <c r="A196" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D196" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>11</v>
+      <c r="E196" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F196" s="9">
         <v>18</v>
@@ -6187,19 +6184,19 @@
     </row>
     <row r="197" spans="1:6" ht="21">
       <c r="A197" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="3" t="s">
-        <v>11</v>
+      <c r="E197" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F197" s="9">
         <v>18</v>
@@ -6207,19 +6204,19 @@
     </row>
     <row r="198" spans="1:6" ht="21">
       <c r="A198" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D198" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E198" s="3" t="s">
-        <v>11</v>
+      <c r="E198" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F198" s="9">
         <v>16</v>
@@ -6227,19 +6224,19 @@
     </row>
     <row r="199" spans="1:6" ht="21">
       <c r="A199" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>11</v>
+      <c r="E199" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F199" s="9">
         <v>18</v>
@@ -6247,19 +6244,19 @@
     </row>
     <row r="200" spans="1:6" ht="21">
       <c r="A200" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>11</v>
+      <c r="E200" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F200" s="9">
         <v>17</v>
@@ -6267,19 +6264,19 @@
     </row>
     <row r="201" spans="1:6" ht="21">
       <c r="A201" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D201" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>11</v>
+      <c r="E201" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F201" s="9">
         <v>18</v>
@@ -6287,19 +6284,19 @@
     </row>
     <row r="202" spans="1:6" ht="21">
       <c r="A202" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D202" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E202" s="3" t="s">
-        <v>11</v>
+      <c r="E202" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F202" s="9">
         <v>15</v>
@@ -6307,19 +6304,19 @@
     </row>
     <row r="203" spans="1:6" ht="21">
       <c r="A203" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E203" s="3" t="s">
-        <v>11</v>
+      <c r="E203" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F203" s="9">
         <v>18</v>
@@ -6327,19 +6324,19 @@
     </row>
     <row r="204" spans="1:6" ht="21">
       <c r="A204" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D204" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>11</v>
+      <c r="E204" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F204" s="9">
         <v>16</v>
@@ -6347,19 +6344,19 @@
     </row>
     <row r="205" spans="1:6" ht="21">
       <c r="A205" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D205" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E205" s="3" t="s">
-        <v>11</v>
+      <c r="E205" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F205" s="9">
         <v>8</v>
@@ -6367,19 +6364,19 @@
     </row>
     <row r="206" spans="1:6" ht="21">
       <c r="A206" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D206" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>11</v>
+      <c r="E206" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F206" s="9">
         <v>16</v>
@@ -6387,19 +6384,19 @@
     </row>
     <row r="207" spans="1:6" ht="21">
       <c r="A207" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E207" s="3" t="s">
-        <v>11</v>
+      <c r="E207" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F207" s="9">
         <v>16</v>
@@ -6407,19 +6404,19 @@
     </row>
     <row r="208" spans="1:6" ht="21">
       <c r="A208" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E208" s="3" t="s">
-        <v>11</v>
+      <c r="E208" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F208" s="9">
         <v>16</v>
@@ -6427,19 +6424,19 @@
     </row>
     <row r="209" spans="1:6" ht="21">
       <c r="A209" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>11</v>
+      <c r="E209" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F209" s="9">
         <v>16</v>
@@ -6447,19 +6444,19 @@
     </row>
     <row r="210" spans="1:6" ht="21">
       <c r="A210" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D210" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E210" s="3" t="s">
-        <v>11</v>
+      <c r="E210" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F210" s="9">
         <v>16</v>
@@ -6467,19 +6464,19 @@
     </row>
     <row r="211" spans="1:6" ht="21">
       <c r="A211" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D211" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E211" s="3" t="s">
-        <v>11</v>
+      <c r="E211" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F211" s="9">
         <v>16</v>
@@ -6487,19 +6484,19 @@
     </row>
     <row r="212" spans="1:6" ht="21">
       <c r="A212" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D212" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E212" s="3" t="s">
-        <v>11</v>
+      <c r="E212" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F212" s="9">
         <v>16</v>
@@ -6507,19 +6504,19 @@
     </row>
     <row r="213" spans="1:6" ht="21">
       <c r="A213" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D213" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E213" s="3" t="s">
-        <v>11</v>
+      <c r="E213" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F213" s="9">
         <v>16</v>
@@ -6527,19 +6524,19 @@
     </row>
     <row r="214" spans="1:6" ht="21">
       <c r="A214" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D214" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E214" s="3" t="s">
-        <v>11</v>
+      <c r="E214" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F214" s="9">
         <v>10</v>
@@ -6547,19 +6544,19 @@
     </row>
     <row r="215" spans="1:6" ht="21">
       <c r="A215" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D215" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E215" s="3" t="s">
-        <v>11</v>
+      <c r="E215" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F215" s="9">
         <v>16</v>
@@ -6567,19 +6564,19 @@
     </row>
     <row r="216" spans="1:6" ht="21">
       <c r="A216" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D216" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E216" s="3" t="s">
-        <v>11</v>
+      <c r="E216" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F216" s="9">
         <v>16</v>
@@ -6587,19 +6584,19 @@
     </row>
     <row r="217" spans="1:6" ht="21">
       <c r="A217" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D217" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E217" s="3" t="s">
-        <v>11</v>
+      <c r="E217" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F217" s="9">
         <v>9</v>
@@ -6607,19 +6604,19 @@
     </row>
     <row r="218" spans="1:6" ht="21">
       <c r="A218" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D218" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E218" s="3" t="s">
-        <v>11</v>
+      <c r="E218" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F218" s="9">
         <v>16</v>
@@ -6627,19 +6624,19 @@
     </row>
     <row r="219" spans="1:6" ht="21">
       <c r="A219" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E219" s="3" t="s">
-        <v>11</v>
+      <c r="E219" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F219" s="9">
         <v>16</v>
@@ -6647,19 +6644,19 @@
     </row>
     <row r="220" spans="1:6" ht="21">
       <c r="A220" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D220" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E220" s="3" t="s">
-        <v>11</v>
+      <c r="E220" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F220" s="9">
         <v>16</v>
@@ -6667,19 +6664,19 @@
     </row>
     <row r="221" spans="1:6" ht="21">
       <c r="A221" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D221" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E221" s="3" t="s">
-        <v>11</v>
+      <c r="E221" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F221" s="9">
         <v>16</v>
@@ -6687,19 +6684,19 @@
     </row>
     <row r="222" spans="1:6" ht="21">
       <c r="A222" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D222" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E222" s="3" t="s">
-        <v>11</v>
+      <c r="E222" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F222" s="9">
         <v>16</v>
@@ -6707,19 +6704,19 @@
     </row>
     <row r="223" spans="1:6" ht="21">
       <c r="A223" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D223" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E223" s="3" t="s">
-        <v>11</v>
+      <c r="E223" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F223" s="9">
         <v>16</v>
@@ -6727,19 +6724,19 @@
     </row>
     <row r="224" spans="1:6" ht="21">
       <c r="A224" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D224" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E224" s="3" t="s">
-        <v>11</v>
+      <c r="E224" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F224" s="9">
         <v>16</v>
@@ -6747,19 +6744,19 @@
     </row>
     <row r="225" spans="1:6" ht="21">
       <c r="A225" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D225" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E225" s="3" t="s">
-        <v>11</v>
+      <c r="E225" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F225" s="9">
         <v>16</v>
@@ -6767,19 +6764,19 @@
     </row>
     <row r="226" spans="1:6" ht="21">
       <c r="A226" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D226" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E226" s="3" t="s">
-        <v>11</v>
+      <c r="E226" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F226" s="9">
         <v>12</v>
@@ -6787,19 +6784,19 @@
     </row>
     <row r="227" spans="1:6" ht="21">
       <c r="A227" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D227" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E227" s="3" t="s">
-        <v>11</v>
+      <c r="E227" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F227" s="9">
         <v>0</v>
@@ -6807,19 +6804,19 @@
     </row>
     <row r="228" spans="1:6" ht="21">
       <c r="A228" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D228" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E228" s="3" t="s">
-        <v>11</v>
+      <c r="E228" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F228" s="9">
         <v>12</v>
@@ -6827,19 +6824,19 @@
     </row>
     <row r="229" spans="1:6" ht="21">
       <c r="A229" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D229" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E229" s="3" t="s">
-        <v>11</v>
+      <c r="E229" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F229" s="9">
         <v>16</v>
@@ -6847,19 +6844,19 @@
     </row>
     <row r="230" spans="1:6" ht="21">
       <c r="A230" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D230" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E230" s="3" t="s">
-        <v>11</v>
+      <c r="E230" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F230" s="9">
         <v>16</v>
@@ -6867,19 +6864,19 @@
     </row>
     <row r="231" spans="1:6" ht="21">
       <c r="A231" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D231" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E231" s="3" t="s">
-        <v>11</v>
+      <c r="E231" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F231" s="9">
         <v>11</v>
@@ -6887,19 +6884,19 @@
     </row>
     <row r="232" spans="1:6" ht="21">
       <c r="A232" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E232" s="3" t="s">
-        <v>11</v>
+      <c r="E232" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F232" s="9">
         <v>16</v>
@@ -6907,19 +6904,19 @@
     </row>
     <row r="233" spans="1:6" ht="21">
       <c r="A233" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D233" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E233" s="3" t="s">
-        <v>11</v>
+      <c r="E233" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F233" s="9">
         <v>16</v>
@@ -6927,10 +6924,10 @@
     </row>
     <row r="234" spans="1:6" ht="21">
       <c r="A234" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C234" s="12" t="s">
         <v>9</v>
@@ -6938,8 +6935,8 @@
       <c r="D234" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E234" s="3" t="s">
-        <v>11</v>
+      <c r="E234" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F234" s="9">
         <v>16</v>
@@ -6947,10 +6944,10 @@
     </row>
     <row r="235" spans="1:6" ht="21">
       <c r="A235" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C235" s="12" t="s">
         <v>9</v>
@@ -6958,8 +6955,8 @@
       <c r="D235" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E235" s="3" t="s">
-        <v>11</v>
+      <c r="E235" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F235" s="9">
         <v>15</v>
@@ -6967,10 +6964,10 @@
     </row>
     <row r="236" spans="1:6" ht="21">
       <c r="A236" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C236" s="12" t="s">
         <v>9</v>
@@ -6978,8 +6975,8 @@
       <c r="D236" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E236" s="3" t="s">
-        <v>11</v>
+      <c r="E236" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F236" s="9">
         <v>16</v>
@@ -6987,10 +6984,10 @@
     </row>
     <row r="237" spans="1:6" ht="21">
       <c r="A237" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C237" s="12" t="s">
         <v>9</v>
@@ -6998,8 +6995,8 @@
       <c r="D237" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E237" s="3" t="s">
-        <v>11</v>
+      <c r="E237" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F237" s="9">
         <v>16</v>
@@ -7007,10 +7004,10 @@
     </row>
     <row r="238" spans="1:6" ht="21">
       <c r="A238" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C238" s="12" t="s">
         <v>9</v>
@@ -7018,8 +7015,8 @@
       <c r="D238" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E238" s="3" t="s">
-        <v>11</v>
+      <c r="E238" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F238" s="9">
         <v>16</v>
@@ -7027,10 +7024,10 @@
     </row>
     <row r="239" spans="1:6" ht="21">
       <c r="A239" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C239" s="12" t="s">
         <v>9</v>
@@ -7038,8 +7035,8 @@
       <c r="D239" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E239" s="3" t="s">
-        <v>11</v>
+      <c r="E239" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F239" s="9">
         <v>16</v>
@@ -7047,10 +7044,10 @@
     </row>
     <row r="240" spans="1:6" ht="21">
       <c r="A240" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C240" s="12" t="s">
         <v>9</v>
@@ -7058,8 +7055,8 @@
       <c r="D240" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E240" s="3" t="s">
-        <v>11</v>
+      <c r="E240" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F240" s="9">
         <v>16</v>
@@ -7067,19 +7064,19 @@
     </row>
     <row r="241" spans="1:6" ht="21">
       <c r="A241" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D241" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="3" t="s">
-        <v>11</v>
+      <c r="E241" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F241" s="9">
         <v>10</v>
@@ -7087,19 +7084,19 @@
     </row>
     <row r="242" spans="1:6" ht="21">
       <c r="A242" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D242" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E242" s="3" t="s">
-        <v>11</v>
+      <c r="E242" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F242" s="9">
         <v>10</v>
@@ -7107,10 +7104,10 @@
     </row>
     <row r="243" spans="1:6" ht="21">
       <c r="A243" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C243" s="12" t="s">
         <v>9</v>
@@ -7118,8 +7115,8 @@
       <c r="D243" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E243" s="3" t="s">
-        <v>11</v>
+      <c r="E243" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F243" s="9">
         <v>10</v>
@@ -7127,10 +7124,10 @@
     </row>
     <row r="244" spans="1:6" ht="21">
       <c r="A244" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C244" s="12" t="s">
         <v>9</v>
@@ -7138,8 +7135,8 @@
       <c r="D244" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E244" s="3" t="s">
-        <v>11</v>
+      <c r="E244" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F244" s="9">
         <v>10</v>
@@ -7147,19 +7144,19 @@
     </row>
     <row r="245" spans="1:6" ht="21">
       <c r="A245" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D245" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E245" s="3" t="s">
-        <v>11</v>
+      <c r="E245" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F245" s="9">
         <v>10</v>
@@ -7167,19 +7164,19 @@
     </row>
     <row r="246" spans="1:6" ht="21">
       <c r="A246" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D246" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E246" s="3" t="s">
-        <v>11</v>
+      <c r="E246" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F246" s="9">
         <v>10</v>
@@ -7187,19 +7184,19 @@
     </row>
     <row r="247" spans="1:6" ht="21">
       <c r="A247" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D247" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E247" s="3" t="s">
-        <v>11</v>
+      <c r="E247" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F247" s="9">
         <v>10</v>
@@ -7207,19 +7204,19 @@
     </row>
     <row r="248" spans="1:6" ht="21">
       <c r="A248" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D248" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E248" s="3" t="s">
-        <v>11</v>
+      <c r="E248" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F248" s="9">
         <v>10</v>
@@ -7227,19 +7224,19 @@
     </row>
     <row r="249" spans="1:6" ht="21">
       <c r="A249" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D249" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E249" s="3" t="s">
-        <v>11</v>
+      <c r="E249" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F249" s="9">
         <v>10</v>
@@ -7247,19 +7244,19 @@
     </row>
     <row r="250" spans="1:6" ht="21">
       <c r="A250" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D250" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E250" s="3" t="s">
-        <v>11</v>
+      <c r="E250" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F250" s="9">
         <v>11</v>
@@ -7267,19 +7264,19 @@
     </row>
     <row r="251" spans="1:6" ht="21">
       <c r="A251" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D251" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E251" s="3" t="s">
-        <v>11</v>
+      <c r="E251" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F251" s="9">
         <v>10</v>
@@ -7287,19 +7284,19 @@
     </row>
     <row r="252" spans="1:6" ht="21">
       <c r="A252" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D252" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E252" s="3" t="s">
-        <v>11</v>
+      <c r="E252" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F252" s="9">
         <v>10</v>
@@ -7307,19 +7304,19 @@
     </row>
     <row r="253" spans="1:6" ht="21">
       <c r="A253" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D253" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E253" s="3" t="s">
-        <v>11</v>
+      <c r="E253" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F253" s="9">
         <v>10</v>
@@ -7327,10 +7324,10 @@
     </row>
     <row r="254" spans="1:6" ht="21">
       <c r="A254" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C254" s="12" t="s">
         <v>9</v>
@@ -7338,8 +7335,8 @@
       <c r="D254" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E254" s="3" t="s">
-        <v>11</v>
+      <c r="E254" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F254" s="9">
         <v>10</v>
@@ -7347,10 +7344,10 @@
     </row>
     <row r="255" spans="1:6" ht="21">
       <c r="A255" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C255" s="12" t="s">
         <v>9</v>
@@ -7358,8 +7355,8 @@
       <c r="D255" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>11</v>
+      <c r="E255" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F255" s="9">
         <v>10</v>
@@ -7367,10 +7364,10 @@
     </row>
     <row r="256" spans="1:6" ht="21">
       <c r="A256" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C256" s="12" t="s">
         <v>9</v>
@@ -7378,8 +7375,8 @@
       <c r="D256" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E256" s="3" t="s">
-        <v>11</v>
+      <c r="E256" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F256" s="9">
         <v>2</v>
@@ -7387,10 +7384,10 @@
     </row>
     <row r="257" spans="1:6" ht="21">
       <c r="A257" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C257" s="12" t="s">
         <v>9</v>
@@ -7398,8 +7395,8 @@
       <c r="D257" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E257" s="3" t="s">
-        <v>11</v>
+      <c r="E257" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F257" s="9">
         <v>0</v>
@@ -7407,10 +7404,10 @@
     </row>
     <row r="258" spans="1:6" ht="21">
       <c r="A258" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C258" s="12" t="s">
         <v>9</v>
@@ -7418,8 +7415,8 @@
       <c r="D258" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E258" s="3" t="s">
-        <v>11</v>
+      <c r="E258" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F258" s="9">
         <v>2</v>
@@ -7427,10 +7424,10 @@
     </row>
     <row r="259" spans="1:6" ht="21">
       <c r="A259" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C259" s="12" t="s">
         <v>9</v>
@@ -7438,8 +7435,8 @@
       <c r="D259" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E259" s="3" t="s">
-        <v>11</v>
+      <c r="E259" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F259" s="9">
         <v>2</v>
@@ -7447,10 +7444,10 @@
     </row>
     <row r="260" spans="1:6" ht="21">
       <c r="A260" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C260" s="12" t="s">
         <v>9</v>
@@ -7458,8 +7455,8 @@
       <c r="D260" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E260" s="3" t="s">
-        <v>11</v>
+      <c r="E260" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F260" s="9">
         <v>1</v>
@@ -7467,10 +7464,10 @@
     </row>
     <row r="261" spans="1:6" ht="21">
       <c r="A261" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C261" s="12" t="s">
         <v>9</v>
@@ -7478,8 +7475,8 @@
       <c r="D261" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E261" s="3" t="s">
-        <v>11</v>
+      <c r="E261" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F261" s="9">
         <v>3</v>
@@ -7487,19 +7484,19 @@
     </row>
     <row r="262" spans="1:6" ht="21">
       <c r="A262" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D262" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E262" s="3" t="s">
-        <v>11</v>
+      <c r="E262" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F262" s="9">
         <v>12</v>
@@ -7507,19 +7504,19 @@
     </row>
     <row r="263" spans="1:6" ht="21">
       <c r="A263" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D263" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E263" s="3" t="s">
-        <v>11</v>
+      <c r="E263" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F263" s="9">
         <v>10</v>
@@ -7527,19 +7524,19 @@
     </row>
     <row r="264" spans="1:6" ht="21">
       <c r="A264" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D264" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E264" s="3" t="s">
-        <v>11</v>
+      <c r="E264" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F264" s="9">
         <v>12</v>
@@ -7547,19 +7544,19 @@
     </row>
     <row r="265" spans="1:6" ht="21">
       <c r="A265" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D265" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>11</v>
+      <c r="E265" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F265" s="9">
         <v>10</v>
@@ -7567,19 +7564,19 @@
     </row>
     <row r="266" spans="1:6" ht="21">
       <c r="A266" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D266" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E266" s="3" t="s">
-        <v>11</v>
+      <c r="E266" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F266" s="9">
         <v>10</v>
@@ -7587,19 +7584,19 @@
     </row>
     <row r="267" spans="1:6" ht="21">
       <c r="A267" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D267" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E267" s="3" t="s">
-        <v>11</v>
+      <c r="E267" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F267" s="9">
         <v>12</v>
@@ -7607,19 +7604,19 @@
     </row>
     <row r="268" spans="1:6" ht="21">
       <c r="A268" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D268" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E268" s="3" t="s">
-        <v>11</v>
+      <c r="E268" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F268" s="9">
         <v>8</v>
@@ -7627,19 +7624,19 @@
     </row>
     <row r="269" spans="1:6" ht="21">
       <c r="A269" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D269" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E269" s="3" t="s">
-        <v>11</v>
+      <c r="E269" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F269" s="9">
         <v>9</v>
@@ -7647,19 +7644,19 @@
     </row>
     <row r="270" spans="1:6" ht="21">
       <c r="A270" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D270" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E270" s="3" t="s">
-        <v>11</v>
+      <c r="E270" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F270" s="9">
         <v>12</v>
@@ -7667,19 +7664,19 @@
     </row>
     <row r="271" spans="1:6" ht="21">
       <c r="A271" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D271" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E271" s="3" t="s">
-        <v>11</v>
+      <c r="E271" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F271" s="9">
         <v>18</v>
@@ -7687,19 +7684,19 @@
     </row>
     <row r="272" spans="1:6" ht="21">
       <c r="A272" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E272" s="3" t="s">
-        <v>11</v>
+      <c r="E272" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F272" s="9">
         <v>18</v>
@@ -7707,19 +7704,19 @@
     </row>
     <row r="273" spans="1:6" ht="21">
       <c r="A273" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D273" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E273" s="3" t="s">
-        <v>11</v>
+      <c r="E273" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F273" s="9">
         <v>14</v>
@@ -7727,19 +7724,19 @@
     </row>
     <row r="274" spans="1:6" ht="21">
       <c r="A274" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D274" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E274" s="3" t="s">
-        <v>11</v>
+      <c r="E274" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F274" s="9">
         <v>14</v>
@@ -7747,19 +7744,19 @@
     </row>
     <row r="275" spans="1:6" ht="21">
       <c r="A275" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D275" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E275" s="3" t="s">
-        <v>11</v>
+      <c r="E275" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F275" s="9">
         <v>14</v>
@@ -7767,19 +7764,19 @@
     </row>
     <row r="276" spans="1:6" ht="21">
       <c r="A276" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D276" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E276" s="3" t="s">
-        <v>11</v>
+      <c r="E276" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F276" s="9">
         <v>14</v>
@@ -7787,19 +7784,19 @@
     </row>
     <row r="277" spans="1:6" ht="21">
       <c r="A277" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D277" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E277" s="3" t="s">
-        <v>11</v>
+      <c r="E277" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F277" s="9">
         <v>14</v>
@@ -7807,19 +7804,19 @@
     </row>
     <row r="278" spans="1:6" ht="21">
       <c r="A278" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D278" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E278" s="3" t="s">
-        <v>11</v>
+      <c r="E278" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F278" s="9">
         <v>15</v>
@@ -7827,19 +7824,19 @@
     </row>
     <row r="279" spans="1:6" ht="21">
       <c r="A279" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D279" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E279" s="3" t="s">
-        <v>11</v>
+      <c r="E279" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F279" s="9">
         <v>14</v>
@@ -7847,19 +7844,19 @@
     </row>
     <row r="280" spans="1:6" ht="21">
       <c r="A280" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D280" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E280" s="3" t="s">
-        <v>11</v>
+      <c r="E280" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F280" s="9">
         <v>14</v>
@@ -7867,19 +7864,19 @@
     </row>
     <row r="281" spans="1:6" ht="21">
       <c r="A281" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D281" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E281" s="3" t="s">
-        <v>11</v>
+      <c r="E281" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F281" s="9">
         <v>14</v>
@@ -7887,19 +7884,19 @@
     </row>
     <row r="282" spans="1:6" ht="21">
       <c r="A282" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D282" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E282" s="3" t="s">
-        <v>11</v>
+      <c r="E282" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F282" s="9">
         <v>14</v>
@@ -7907,19 +7904,19 @@
     </row>
     <row r="283" spans="1:6" ht="21">
       <c r="A283" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B283" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D283" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E283" s="3" t="s">
-        <v>11</v>
+      <c r="E283" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F283" s="9">
         <v>14</v>
@@ -7927,19 +7924,19 @@
     </row>
     <row r="284" spans="1:6" ht="21">
       <c r="A284" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D284" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E284" s="3" t="s">
-        <v>11</v>
+      <c r="E284" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F284" s="9">
         <v>14</v>
@@ -7947,10 +7944,10 @@
     </row>
     <row r="285" spans="1:6" ht="21">
       <c r="A285" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C285" s="12" t="s">
         <v>9</v>
@@ -7958,8 +7955,8 @@
       <c r="D285" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E285" s="3" t="s">
-        <v>11</v>
+      <c r="E285" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F285" s="9">
         <v>10</v>
@@ -7967,10 +7964,10 @@
     </row>
     <row r="286" spans="1:6" ht="21">
       <c r="A286" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C286" s="12" t="s">
         <v>9</v>
@@ -7978,8 +7975,8 @@
       <c r="D286" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E286" s="3" t="s">
-        <v>11</v>
+      <c r="E286" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F286" s="9">
         <v>10</v>
@@ -7987,10 +7984,10 @@
     </row>
     <row r="287" spans="1:6" ht="21">
       <c r="A287" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C287" s="12" t="s">
         <v>9</v>
@@ -7998,8 +7995,8 @@
       <c r="D287" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E287" s="3" t="s">
-        <v>11</v>
+      <c r="E287" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F287" s="9">
         <v>10</v>
@@ -8007,10 +8004,10 @@
     </row>
     <row r="288" spans="1:6" ht="21">
       <c r="A288" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C288" s="12" t="s">
         <v>9</v>
@@ -8018,8 +8015,8 @@
       <c r="D288" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E288" s="3" t="s">
-        <v>11</v>
+      <c r="E288" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F288" s="9">
         <v>18</v>
@@ -8027,10 +8024,10 @@
     </row>
     <row r="289" spans="1:6" ht="21">
       <c r="A289" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C289" s="12" t="s">
         <v>9</v>
@@ -8038,8 +8035,8 @@
       <c r="D289" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E289" s="3" t="s">
-        <v>11</v>
+      <c r="E289" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F289" s="9">
         <v>18</v>
@@ -8047,10 +8044,10 @@
     </row>
     <row r="290" spans="1:6" ht="21">
       <c r="A290" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C290" s="12" t="s">
         <v>9</v>
@@ -8058,8 +8055,8 @@
       <c r="D290" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E290" s="3" t="s">
-        <v>11</v>
+      <c r="E290" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F290" s="9">
         <v>18</v>
@@ -8067,10 +8064,10 @@
     </row>
     <row r="291" spans="1:6" ht="21">
       <c r="A291" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C291" s="12" t="s">
         <v>9</v>
@@ -8078,8 +8075,8 @@
       <c r="D291" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E291" s="3" t="s">
-        <v>11</v>
+      <c r="E291" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F291" s="9">
         <v>18</v>
@@ -8087,10 +8084,10 @@
     </row>
     <row r="292" spans="1:6" ht="21">
       <c r="A292" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C292" s="12" t="s">
         <v>9</v>
@@ -8098,8 +8095,8 @@
       <c r="D292" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E292" s="3" t="s">
-        <v>11</v>
+      <c r="E292" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F292" s="9">
         <v>18</v>
@@ -8107,10 +8104,10 @@
     </row>
     <row r="293" spans="1:6" ht="21">
       <c r="A293" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B293" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C293" s="12" t="s">
         <v>9</v>
@@ -8118,8 +8115,8 @@
       <c r="D293" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E293" s="3" t="s">
-        <v>11</v>
+      <c r="E293" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F293" s="9">
         <v>18</v>
@@ -8127,10 +8124,10 @@
     </row>
     <row r="294" spans="1:6" ht="21">
       <c r="A294" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C294" s="12" t="s">
         <v>9</v>
@@ -8138,8 +8135,8 @@
       <c r="D294" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E294" s="3" t="s">
-        <v>11</v>
+      <c r="E294" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F294" s="9">
         <v>13</v>
@@ -8147,19 +8144,19 @@
     </row>
     <row r="295" spans="1:6" ht="21">
       <c r="A295" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D295" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E295" s="3" t="s">
-        <v>11</v>
+      <c r="E295" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F295" s="9">
         <v>10</v>
@@ -8167,19 +8164,19 @@
     </row>
     <row r="296" spans="1:6" ht="21">
       <c r="A296" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B296" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D296" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E296" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F296" s="9">
         <v>9</v>
@@ -8187,19 +8184,19 @@
     </row>
     <row r="297" spans="1:6" ht="21">
       <c r="A297" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D297" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E297" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F297" s="9">
         <v>9</v>
@@ -8207,19 +8204,19 @@
     </row>
     <row r="298" spans="1:6" ht="30.6">
       <c r="A298" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C298" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D298" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E298" s="3" t="s">
-        <v>11</v>
+      <c r="E298" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F298" s="9">
         <v>18</v>
@@ -8227,10 +8224,10 @@
     </row>
     <row r="299" spans="1:6" ht="21">
       <c r="A299" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C299" s="12" t="s">
         <v>9</v>
@@ -8238,8 +8235,8 @@
       <c r="D299" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E299" s="3" t="s">
-        <v>11</v>
+      <c r="E299" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F299" s="9">
         <v>11</v>
@@ -8247,19 +8244,19 @@
     </row>
     <row r="300" spans="1:6" ht="21">
       <c r="A300" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C300" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D300" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E300" s="3" t="s">
-        <v>11</v>
+      <c r="E300" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F300" s="9">
         <v>25</v>
@@ -8267,7 +8264,7 @@
     </row>
     <row r="301" spans="1:6" ht="21">
       <c r="A301" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>8</v>
@@ -8278,8 +8275,8 @@
       <c r="D301" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E301" s="3" t="s">
-        <v>11</v>
+      <c r="E301" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F301" s="9">
         <v>25</v>
@@ -8287,19 +8284,19 @@
     </row>
     <row r="302" spans="1:6" ht="21">
       <c r="A302" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D302" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E302" s="3" t="s">
-        <v>11</v>
+      <c r="E302" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F302" s="9">
         <v>25</v>
@@ -8307,7 +8304,7 @@
     </row>
     <row r="303" spans="1:6" ht="21">
       <c r="A303" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B303" s="9" t="s">
         <v>8</v>
@@ -8318,8 +8315,8 @@
       <c r="D303" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E303" s="3" t="s">
-        <v>11</v>
+      <c r="E303" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F303" s="9">
         <v>25</v>
@@ -8327,19 +8324,19 @@
     </row>
     <row r="304" spans="1:6" ht="21">
       <c r="A304" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B304" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E304" s="3" t="s">
-        <v>11</v>
+      <c r="E304" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F304" s="9">
         <v>25</v>
@@ -8347,7 +8344,7 @@
     </row>
     <row r="305" spans="1:6" ht="21">
       <c r="A305" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>8</v>
@@ -8358,8 +8355,8 @@
       <c r="D305" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E305" s="3" t="s">
-        <v>11</v>
+      <c r="E305" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F305" s="9">
         <v>25</v>
@@ -8367,19 +8364,19 @@
     </row>
     <row r="306" spans="1:6" ht="21">
       <c r="A306" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B306" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D306" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E306" s="3" t="s">
-        <v>11</v>
+      <c r="E306" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F306" s="9">
         <v>25</v>
@@ -8387,7 +8384,7 @@
     </row>
     <row r="307" spans="1:6" ht="21">
       <c r="A307" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>8</v>
@@ -8398,8 +8395,8 @@
       <c r="D307" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E307" s="3" t="s">
-        <v>11</v>
+      <c r="E307" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F307" s="9">
         <v>25</v>
@@ -8407,19 +8404,19 @@
     </row>
     <row r="308" spans="1:6" ht="21">
       <c r="A308" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B308" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D308" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E308" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F308" s="9">
         <v>25</v>
@@ -8427,7 +8424,7 @@
     </row>
     <row r="309" spans="1:6" ht="21">
       <c r="A309" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>8</v>
@@ -8436,10 +8433,10 @@
         <v>9</v>
       </c>
       <c r="D309" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E309" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F309" s="9">
         <v>25</v>
@@ -8447,19 +8444,19 @@
     </row>
     <row r="310" spans="1:6" ht="21">
       <c r="A310" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C310" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E310" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F310" s="9">
         <v>25</v>
@@ -8467,7 +8464,7 @@
     </row>
     <row r="311" spans="1:6" ht="21">
       <c r="A311" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>8</v>
@@ -8476,10 +8473,10 @@
         <v>9</v>
       </c>
       <c r="D311" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E311" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F311" s="9">
         <v>25</v>
@@ -8487,19 +8484,19 @@
     </row>
     <row r="312" spans="1:6" ht="21">
       <c r="A312" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D312" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E312" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F312" s="9">
         <v>25</v>
@@ -8507,7 +8504,7 @@
     </row>
     <row r="313" spans="1:6" ht="21">
       <c r="A313" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B313" s="9" t="s">
         <v>8</v>
@@ -8516,10 +8513,10 @@
         <v>9</v>
       </c>
       <c r="D313" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E313" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F313" s="9">
         <v>25</v>
@@ -8527,19 +8524,19 @@
     </row>
     <row r="314" spans="1:6" ht="21">
       <c r="A314" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E314" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F314" s="9">
         <v>25</v>
@@ -8547,19 +8544,19 @@
     </row>
     <row r="315" spans="1:6" ht="21">
       <c r="A315" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C315" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D315" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E315" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F315" s="9">
         <v>30</v>
@@ -8567,19 +8564,19 @@
     </row>
     <row r="316" spans="1:6" ht="21">
       <c r="A316" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D316" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E316" s="3" t="s">
-        <v>11</v>
+      <c r="E316" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="F316" s="9">
         <v>30</v>
@@ -8749,7 +8746,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{BAEBCB46-BA4C-4476-8320-8C3708B93B79}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{D03A8CBD-C37C-4265-9B3F-FD30DC4DF3FA}"/>
+    <hyperlink ref="E3:E316" r:id="rId2" display="M@M" xr:uid="{1AF83125-EA22-4BC6-978A-3E07B2AD8B85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8813,43 +8810,43 @@
         <v>44896</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="19.5" customHeight="1">
@@ -8857,76 +8854,76 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="19.5" customHeight="1">
@@ -8934,76 +8931,76 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="5"/>
     </row>
@@ -9012,76 +9009,76 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="19.5" customHeight="1">
@@ -9089,76 +9086,76 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA5" s="5"/>
     </row>
@@ -9167,76 +9164,76 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="19.5" customHeight="1">
@@ -9244,76 +9241,76 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="N7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="Q7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="T7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="W7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="5"/>
     </row>
@@ -9322,361 +9319,361 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="19.5" customHeight="1">
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="19.5" customHeight="1">
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="19.5" customHeight="1">
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W11" s="1"/>
       <c r="Y11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="19.5" customHeight="1">
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="1"/>
       <c r="I12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W12" s="1"/>
       <c r="Y12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="19.5" customHeight="1">
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="1"/>
       <c r="I13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" s="1"/>
       <c r="Y13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:27" ht="19.5" customHeight="1">
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="1"/>
       <c r="I14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W14" s="1"/>
       <c r="Y14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" ht="19.5" customHeight="1">
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="1"/>
       <c r="I15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W15" s="1"/>
       <c r="Y15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
